--- a/Original_Data_Set.xlsx
+++ b/Original_Data_Set.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29417"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95D0AE3-E425-48F6-8A13-52E634F9E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permit Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>File No.</t>
   </si>
@@ -139,360 +145,12 @@
   <si>
     <t>View Approval Letter</t>
   </si>
-  <si>
-    <t>CMDA/PP/NHRB/S/0178/2024</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0103/2025</t>
-  </si>
-  <si>
-    <t>OL-01666</t>
-  </si>
-  <si>
-    <t>25-03-2025</t>
-  </si>
-  <si>
-    <t>04/03/2024</t>
-  </si>
-  <si>
-    <t>9840699226</t>
-  </si>
-  <si>
-    <t>sreepathyestates@gmail.com</t>
-  </si>
-  <si>
-    <t>R Revathikumar and Others</t>
-  </si>
-  <si>
-    <t>7 &amp; 8, Flat No. A2, Ram Nagar 8th Street, Nanganallur, Chennai, Adambakkam</t>
-  </si>
-  <si>
-    <t>Planning Permission for the proposed construction of Stilt floor + 5 floors (18.30m - Height) Residential Building with 13 dwelling units Availing Premium FSI with TOD Benefit</t>
-  </si>
-  <si>
-    <t>13 dwelling units</t>
-  </si>
-  <si>
-    <t>Pot Nos.7 &amp; 8, 8th Street, Ram Nagar, Nanganallur, Chennai 600061 comprised in Old S.Nos.93 (Document), and T.S.No.53 &amp; 54, Block No.14, Ward-E of Adambakkam Village, Alandur Taluk within the limit of Greater Chennai Corporation</t>
-  </si>
-  <si>
-    <t>CMDA/PP/NHRB/S/0630/2024</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0025/2025</t>
-  </si>
-  <si>
-    <t>OL-01532</t>
-  </si>
-  <si>
-    <t>29-01-2025</t>
-  </si>
-  <si>
-    <t>11/09/2024</t>
-  </si>
-  <si>
-    <t>8754580801</t>
-  </si>
-  <si>
-    <t>athulyamenterprises@gmail.com</t>
-  </si>
-  <si>
-    <t>ATHULYAM ENTERPRISES PVT LTD Rep by Its Director Mr Krishnan</t>
-  </si>
-  <si>
-    <t>5/8, 1, Thiruveethi amman koil street, R A Puram, Mandaiveli, Adambakkam</t>
-  </si>
-  <si>
-    <t>Proposed construction of Stilt floor + 4 floors(Height - 15.25) Residential Building with 11 dwelling units Availing Premium FSI with TOD Benefit</t>
-  </si>
-  <si>
-    <t>11 dwelling units</t>
-  </si>
-  <si>
-    <t>Door No.5, Plot No.11, 5th street, Ram Nagar, Naganallur,Chennai-61 comprised in S.No.96/7 and T.S.No.34/2, Block No.15, Ward E of Adambakkam village within the limits of Greater Chennai Corporation</t>
-  </si>
-  <si>
-    <t>CMDA/PP/NHRB/S/0085/2025</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0218/2025</t>
-  </si>
-  <si>
-    <t>OL-01869</t>
-  </si>
-  <si>
-    <t>11-06-2025</t>
-  </si>
-  <si>
-    <t>06/02/2025</t>
-  </si>
-  <si>
-    <t>7092245303</t>
-  </si>
-  <si>
-    <t>aperiasamy@gmail.com</t>
-  </si>
-  <si>
-    <t>PERIASAMY ARNASALAM PILLAY AND P GEETHA</t>
-  </si>
-  <si>
-    <t>7, NIL, MARUTHAI AVENUE, OFF RANJITH ROAD, KOTTURPURAM, Adyar</t>
-  </si>
-  <si>
-    <t>Proposed construction of Stilt floor+ 3 floors Residential Building (Height-14.00 m) 6 Dwelling units</t>
-  </si>
-  <si>
-    <t>6 Dwelling units</t>
-  </si>
-  <si>
-    <t>Plot No.6 &amp; 103pt, Door No.7, Maruthai Avenue, Ranjith Cross Street, Kotturpuram, Chennai-600085 comprised in Old T.S.No 7 part and T.S.No.7/25 , 7/32, Block No.14 of Adyar Village within the limits of Greater Chennai Corporation</t>
-  </si>
-  <si>
-    <t>Adyar</t>
-  </si>
-  <si>
-    <t>CMDA/PP/NHRB/S/0939/2024</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0214/2025</t>
-  </si>
-  <si>
-    <t>OL-01865</t>
-  </si>
-  <si>
-    <t>31/12/2024</t>
-  </si>
-  <si>
-    <t>9393000305</t>
-  </si>
-  <si>
-    <t>siva1956@gmail.com</t>
-  </si>
-  <si>
-    <t>Ascendant Realty LLP</t>
-  </si>
-  <si>
-    <t>New No.82, Old No.195, St. Mary's Road, Alwarpet, Chennai 600018, Mylapore</t>
-  </si>
-  <si>
-    <t>Proposed construction of Stilt Floor + 5 Floors (Height - 18.30m) Residential Building with 15 Dwelling units Availing Premium FSI with TOD Benefit</t>
-  </si>
-  <si>
-    <t>15 Dwelling units</t>
-  </si>
-  <si>
-    <t>New Door No.16, Old Door No.39, Bheemanna Garden Street, Alwarpet, Chennai - 600 018, comprised in R.S.No.3631/17, Block No.72, Mylapore (Part 2) Village within the Limits of Greater Chennai Corporation</t>
-  </si>
-  <si>
-    <t>Alwarpet</t>
-  </si>
-  <si>
-    <t>CMDA/PP/NHRB/N/0070/2025</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0131/2025</t>
-  </si>
-  <si>
-    <t>OL-01715</t>
-  </si>
-  <si>
-    <t>16-04-2025</t>
-  </si>
-  <si>
-    <t>03/02/2025</t>
-  </si>
-  <si>
-    <t>9841576016</t>
-  </si>
-  <si>
-    <t>rahulassociates@yahoo.com</t>
-  </si>
-  <si>
-    <t>RAHUL FLAT DEVELOPERS PRIVATE LIMITED REP BY R R SHRIDHAR 1403, 1403, 1403 H BLOCK 15th MAIN ROAD, ANNA</t>
-  </si>
-  <si>
-    <t>NAGAR, ANNA NAGAR, Ambattur</t>
-  </si>
-  <si>
-    <t>Proposed construction of Stilt Floor (parking) + 4 Floors (Height-15m) Residential Building with 8 dwelling units</t>
-  </si>
-  <si>
-    <t>Plot No.A1/1, Thiruvengadam Nagar, West End Road, Ambattur Village, Chennai - 600053, Comprised in Old S.No.588/1part and T.S.No.2/2, Block No.5, Ward B of Ambattur Village within the limits of Greater Chennai Corporation</t>
-  </si>
-  <si>
-    <t>Ambattur</t>
-  </si>
-  <si>
-    <t>CMDA/PP/NHRB/N/0348/2025</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0379/2025</t>
-  </si>
-  <si>
-    <t>OL-02179</t>
-  </si>
-  <si>
-    <t>29-09-2025</t>
-  </si>
-  <si>
-    <t>16/05/2025</t>
-  </si>
-  <si>
-    <t>9941606946</t>
-  </si>
-  <si>
-    <t>darumugam7040@gmail.com</t>
-  </si>
-  <si>
-    <t>MS MALAINUR PROPERTIES PVT LTD REP BY ITS DIRECTOR MR D ARUMUGAM GPA</t>
-  </si>
-  <si>
-    <t>79, NA, PALARU STREET, PALANIAPPA NAGAR, VALASARAVAKKAM CHENNAI 600087, Aminjikarai</t>
-  </si>
-  <si>
-    <t>Proposed Construction of Stilt Floor (parking) + 5 Floors Residential Building (Height -18.30m) with 10 Dwelling units, Availing Premium FSI with TOD Benefit</t>
-  </si>
-  <si>
-    <t>10 Dwelling units</t>
-  </si>
-  <si>
-    <t>At Plot No: 146, Old Door No: 63/9 , New Door No: 19, Gajapathy Street, (Gajapathy Naidu Street) LakshmiPuram, Shenoy Nagar Aminjilkarai ,Chennai, Comprised in Old S.NO: 34/9, and T.S.No: 61, Block No:20, Ward -01 of Aminjikarai Village within the limits of Greater Chennai Corporation</t>
-  </si>
-  <si>
-    <t>Aminjikarai</t>
-  </si>
-  <si>
-    <t>CMDA/PP/NHRB/N/0414/2025</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0337/2025</t>
-  </si>
-  <si>
-    <t>OL-02080</t>
-  </si>
-  <si>
-    <t>28-08-2025</t>
-  </si>
-  <si>
-    <t>02/06/2025</t>
-  </si>
-  <si>
-    <t>9841691118</t>
-  </si>
-  <si>
-    <t>pamaniraja1@gmail.com</t>
-  </si>
-  <si>
-    <t>D SRIDHAR AND SIX OTHERS OLD</t>
-  </si>
-  <si>
-    <t>2 NEW3, NIL, DAMODHARAN STREET, , T NAGAR, Kolapakkam</t>
-  </si>
-  <si>
-    <t>Proposed construction of Stilt Floor (parking) + 4 Floors Residential building (16.00m Height) with 8 dwelling units</t>
-  </si>
-  <si>
-    <t>At Door No.22, New Door No.6, Devakiammal Street, Lakshmipuram, Shenoy Nagar, Chennai 600030 Comprised in Old S.No.23/1pt, T.S.No.17, Block No.18, ward No.1, of Aminjikarai Village within the limits of Greater Chennai Corporation</t>
-  </si>
-  <si>
-    <t>CMDA/PP/NHRB/S/0333/2024</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0069/2025</t>
-  </si>
-  <si>
-    <t>OL-01601</t>
-  </si>
-  <si>
-    <t>28-02-2025</t>
-  </si>
-  <si>
-    <t>13/05/2024</t>
-  </si>
-  <si>
-    <t>9500070392</t>
-  </si>
-  <si>
-    <t>sakar@casagrand.co.in</t>
-  </si>
-  <si>
-    <t>Casagrand Stage Seven Pvt Ltd</t>
-  </si>
-  <si>
-    <t>111, 111, Chengalpattu, , THIRUVANMIYUR, Polichalur, Tamil$Nadu</t>
-  </si>
-  <si>
-    <t>Proposed construction of Residential Group Housing Development consisting of Combined Basement floor with 13 Blocks; Block 1: combined Basement floor + Ground floor + 4 floors + 5th floor (Part) (18.15m height) Residential Building with 106 Dwelling units with Board Games room, Video Games room, AV room, Yoga room, Badminton room, Squash room, Kids Play room, Fitness room, Aerobics room; Block 2: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 137 dwelling units; Block 3: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 48 dwelling units; Block 4: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 60 dwelling units; Block 5 combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 24 dwelling units; Block 6: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 66 dwelling units; Block 7: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 36 dwelling units; Block 8: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 156 dwelling units; Block 9: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 53 dwelling units; Block 10: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 143 dwelling units; Block 11: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 147 dwelling units; Block 12: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 185 dwelling units; Block 13: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 153 dwelling units; Totally 1314 Dwelling units with 2Nos of Swimming pool at Ground floor level</t>
-  </si>
-  <si>
-    <t>106 Dwelling units</t>
-  </si>
-  <si>
-    <t>At Bajanai Koil Street, S.No.105/1, 110/7, 111, 112 &amp; 113/1 of Anakaputhur Village Within the Limits of Tambaram Corporation and S.No.254/1, 254/2, 254/3, 255, 256/1, 256/2, 257, 258/1A, 258/1B, 258/2, 259/1, 259/2, 260/1, 260/3, 260/4, 260/5, 261, 262, 263, 265/1, 265/2, 267, 269/1, 269/2A, 269/3, 270/3, 271/1, 271/2, 271/10 of Pozhichallur Village, Within the Limits of St.Thomas Mount Panchayat Union</t>
-  </si>
-  <si>
-    <t>Anakaputhur</t>
-  </si>
-  <si>
-    <t>CMDA/PP/HRB/S/0197/2024</t>
-  </si>
-  <si>
-    <t>OL-PP/HRB/0012/2025</t>
-  </si>
-  <si>
-    <t>OL-01701</t>
-  </si>
-  <si>
-    <t>08-04-2025</t>
-  </si>
-  <si>
-    <t>12/03/2024</t>
-  </si>
-  <si>
-    <t>8870170039</t>
-  </si>
-  <si>
-    <t>vidhyaganesh5692@gmail.com</t>
-  </si>
-  <si>
-    <t>KRISHNAIAH PROJECTS PRIVATE LIMITED rep by its S Ganesh GPA NA, NA, Bollineni Hillside, Perumbakkam</t>
-  </si>
-  <si>
-    <t>Village, Sithalapakkam Post Chennai 600126, Chennai, -, 600024</t>
-  </si>
-  <si>
-    <t>Revised Planning Permission Application is for the proposed and additional construction to the earlier approved Block Nos: A to E (Residential Blocks each with Combined B.Floor + Combined Stilt Floor + 28 Floors), Retail Block (Combined B.Floor + G.Floor + 5 Floors), Club House (Combined B.Floor + Combined Stilt Floor + 3 Floors) and School Block (consisting of Ground floor + 3 floors - Partial CC obtained). Proposed &amp; additional construction of 2nd B.Floor for the Retail Block and Combined/Extended Basement floor for the proposed additional blocks (along with already approved Blocks A, B, C, D, E, CLUB HOUSE and RETAIL BLOCK and Combined Stilt floor for BLOCK A, B, C, D, E and CLUB HOUSE Block) - F, G, H, J, K, L, M. Over &amp; above the Combined B.Floor + Combined Stilt Floor in BLOCK F: 1st floor + 19 Floors + 20th Floor Part to 28th floors Part - Residential building with 139 dwelling units, BLOCK G: 1st floor + 19 Floors + 20th Floor Part to 28th floors Part - Residential building with 139 dwelling units, BLOCK H: 1st floor + 28 floors - Residential building with 221 dwelling units, BLOCK J: 1st floor + 28 floors - Residential building with 221 dwelling units, BLOCK K: 1st floor + 28 floors - Residential building with 165 dwelling units, BLOCK L: 1st floor + 27th floors + 28th Floor Part - Residential building with 213 dwelling units, BLOCK M: 1st floor + 27th floors + 28th Floor Part - Residential building with 213 dwelling units. A separate BLOCK N: with Basement floor (for parking use) + Stilt floor (for parking use) + 1st floor + 16 floors - Residential building with 64 dwelling units. Totally 2316 dwelling units (including already approved 941 dwelling units in Block Nos. A to E), revised Retail BLOCK: with 2nd Basement floor + Combined 1st B.Floor + Ground floor + 5 floors+ 6th floor part and CLUB HOUSE Block: with Stilt Floor (For parking use) + 1st Floor + 3 Floors.</t>
-  </si>
-  <si>
-    <t>139 dwelling units</t>
-  </si>
-  <si>
-    <t>abutting Perumbakkam - Nookampalayam main road, Comprised in S.Nos: 93, 94, 95, 96, 97, 100, 101, 102, 103/1A2, 116/1B, 117/2A1, 2A2, 2B, 118/2B12, 2B13, 131/4 &amp; 131/23 of Arasankalani village and S.Nos: 443/2, 444/1 &amp; 2 of Perumbakkam village, presently Tambaram Taluk (Earlier Sholinganallur Taluk), presently Chengalpattu district (Earlier Kancheepuram district), Chennai. within the limits of St.Thomas Mount Panchayat Union.</t>
-  </si>
-  <si>
-    <t>Arasankalani</t>
-  </si>
-  <si>
-    <t>9.P.Elanchezhiyan. B.Arch.,M.T.P</t>
-  </si>
-  <si>
-    <t>CMDA Regn. No. RA/Gr.I/19/06/276, No. 14/S2, Thirumurthy Nagar, Madananda puram,, Chennai- 600 125.</t>
-  </si>
-  <si>
-    <t>elan@rspindia.net</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,151 +172,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,194 +186,8 @@
         <bgColor rgb="FFFFD700"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -866,310 +195,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1454,16 +501,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T615"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1530,7 +577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:20">
+    <row r="2" spans="1:20" ht="15.75">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1592,3615 +639,3032 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:20">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:20">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:20">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:20">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:20">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" t="s">
-        <v>97</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:20">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" t="s">
-        <v>110</v>
-      </c>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:20">
-      <c r="A9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" t="s">
-        <v>121</v>
-      </c>
-      <c r="M9" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:20">
-      <c r="A10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M10" t="s">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:20">
-      <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" t="s">
-        <v>143</v>
-      </c>
-      <c r="J11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" t="s">
-        <v>146</v>
-      </c>
-      <c r="M11" t="s">
-        <v>147</v>
-      </c>
-      <c r="N11" t="s">
-        <v>148</v>
-      </c>
-      <c r="O11" t="s">
-        <v>149</v>
-      </c>
-      <c r="P11" t="s">
-        <v>150</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="18:20">
+    <row r="3" spans="1:20" ht="15.75">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75">
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75">
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75">
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" ht="15.75" spans="18:20">
+    <row r="13" spans="1:20" ht="15.75">
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" ht="15.75" spans="18:20">
+    <row r="14" spans="1:20" ht="15.75">
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" ht="15.75" spans="18:20">
+    <row r="15" spans="1:20" ht="15.75">
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" ht="15.75" spans="18:20">
+    <row r="16" spans="1:20" ht="15.75">
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" ht="15.75" spans="18:20">
+    <row r="17" spans="18:20" ht="15.75">
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" ht="15.75" spans="18:20">
+    <row r="18" spans="18:20" ht="15.75">
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" ht="15.75" spans="18:20">
+    <row r="19" spans="18:20" ht="15.75">
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" ht="15.75" spans="18:20">
+    <row r="20" spans="18:20" ht="15.75">
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" ht="15.75" spans="18:20">
+    <row r="21" spans="18:20" ht="15.75">
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" ht="15.75" spans="18:20">
+    <row r="22" spans="18:20" ht="15.75">
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" ht="15.75" spans="18:20">
+    <row r="23" spans="18:20" ht="15.75">
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" ht="15.75" spans="18:20">
+    <row r="24" spans="18:20" ht="15.75">
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" ht="15.75" spans="18:20">
+    <row r="25" spans="18:20" ht="15.75">
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" ht="15.75" spans="18:20">
+    <row r="26" spans="18:20" ht="15.75">
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" ht="15.75" spans="18:20">
+    <row r="27" spans="18:20" ht="15.75">
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" ht="15.75" spans="18:20">
+    <row r="28" spans="18:20" ht="15.75">
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" ht="15.75" spans="18:20">
+    <row r="29" spans="18:20" ht="15.75">
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" ht="15.75" spans="18:20">
+    <row r="30" spans="18:20" ht="15.75">
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" ht="15.75" spans="18:20">
+    <row r="31" spans="18:20" ht="15.75">
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" ht="15.75" spans="18:20">
+    <row r="32" spans="18:20" ht="15.75">
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" ht="15.75" spans="18:20">
+    <row r="33" spans="18:20" ht="15.75">
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" ht="15.75" spans="18:20">
+    <row r="34" spans="18:20" ht="15.75">
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" ht="15.75" spans="18:20">
+    <row r="35" spans="18:20" ht="15.75">
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" ht="15.75" spans="18:20">
+    <row r="36" spans="18:20" ht="15.75">
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" ht="15.75" spans="18:20">
+    <row r="37" spans="18:20" ht="15.75">
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" ht="15.75" spans="18:20">
+    <row r="38" spans="18:20" ht="15.75">
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" ht="15.75" spans="18:20">
+    <row r="39" spans="18:20" ht="15.75">
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" ht="15.75" spans="18:20">
+    <row r="40" spans="18:20" ht="15.75">
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" ht="15.75" spans="18:20">
+    <row r="41" spans="18:20" ht="15.75">
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" ht="15.75" spans="18:20">
+    <row r="42" spans="18:20" ht="15.75">
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" ht="15.75" spans="18:20">
+    <row r="43" spans="18:20" ht="15.75">
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" ht="15.75" spans="18:20">
+    <row r="44" spans="18:20" ht="15.75">
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" ht="15.75" spans="18:20">
+    <row r="45" spans="18:20" ht="15.75">
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" ht="15.75" spans="18:20">
+    <row r="46" spans="18:20" ht="15.75">
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" ht="15.75" spans="18:20">
+    <row r="47" spans="18:20" ht="15.75">
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" ht="15.75" spans="18:20">
+    <row r="48" spans="18:20" ht="15.75">
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" ht="15.75" spans="18:20">
+    <row r="49" spans="18:20" ht="15.75">
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" ht="15.75" spans="18:20">
+    <row r="50" spans="18:20" ht="15.75">
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" ht="15.75" spans="18:20">
+    <row r="51" spans="18:20" ht="15.75">
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" ht="15.75" spans="18:20">
+    <row r="52" spans="18:20" ht="15.75">
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" ht="15.75" spans="18:20">
+    <row r="53" spans="18:20" ht="15.75">
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" ht="15.75" spans="18:20">
+    <row r="54" spans="18:20" ht="15.75">
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" ht="15.75" spans="18:20">
+    <row r="55" spans="18:20" ht="15.75">
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" ht="15.75" spans="18:20">
+    <row r="56" spans="18:20" ht="15.75">
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" ht="15.75" spans="18:20">
+    <row r="57" spans="18:20" ht="15.75">
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" ht="15.75" spans="18:20">
+    <row r="58" spans="18:20" ht="15.75">
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" ht="15.75" spans="18:20">
+    <row r="59" spans="18:20" ht="15.75">
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" ht="15.75" spans="18:20">
+    <row r="60" spans="18:20" ht="15.75">
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" ht="15.75" spans="18:20">
+    <row r="61" spans="18:20" ht="15.75">
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" ht="15.75" spans="18:20">
+    <row r="62" spans="18:20" ht="15.75">
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" ht="15.75" spans="18:20">
+    <row r="63" spans="18:20" ht="15.75">
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" ht="15.75" spans="18:20">
+    <row r="64" spans="18:20" ht="15.75">
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" ht="15.75" spans="18:20">
+    <row r="65" spans="18:20" ht="15.75">
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" ht="15.75" spans="18:20">
+    <row r="66" spans="18:20" ht="15.75">
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" ht="15.75" spans="18:20">
+    <row r="67" spans="18:20" ht="15.75">
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" ht="15.75" spans="18:20">
+    <row r="68" spans="18:20" ht="15.75">
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" ht="15.75" spans="18:20">
+    <row r="69" spans="18:20" ht="15.75">
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" ht="15.75" spans="18:20">
+    <row r="70" spans="18:20" ht="15.75">
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" ht="15.75" spans="18:20">
+    <row r="71" spans="18:20" ht="15.75">
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" ht="15.75" spans="18:20">
+    <row r="72" spans="18:20" ht="15.75">
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" ht="15.75" spans="18:20">
+    <row r="73" spans="18:20" ht="15.75">
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" ht="15.75" spans="18:20">
+    <row r="74" spans="18:20" ht="15.75">
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" ht="15.75" spans="18:20">
+    <row r="75" spans="18:20" ht="15.75">
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" ht="15.75" spans="18:20">
+    <row r="76" spans="18:20" ht="15.75">
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" ht="15.75" spans="18:20">
+    <row r="77" spans="18:20" ht="15.75">
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" ht="15.75" spans="18:20">
+    <row r="78" spans="18:20" ht="15.75">
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" ht="15.75" spans="18:20">
+    <row r="79" spans="18:20" ht="15.75">
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" ht="15.75" spans="18:20">
+    <row r="80" spans="18:20" ht="15.75">
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" ht="15.75" spans="18:20">
+    <row r="81" spans="18:20" ht="15.75">
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" ht="15.75" spans="18:20">
+    <row r="82" spans="18:20" ht="15.75">
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" ht="15.75" spans="18:20">
+    <row r="83" spans="18:20" ht="15.75">
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" ht="15.75" spans="18:20">
+    <row r="84" spans="18:20" ht="15.75">
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" ht="15.75" spans="18:20">
+    <row r="85" spans="18:20" ht="15.75">
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" ht="15.75" spans="18:20">
+    <row r="86" spans="18:20" ht="15.75">
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" ht="15.75" spans="18:20">
+    <row r="87" spans="18:20" ht="15.75">
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" ht="15.75" spans="18:20">
+    <row r="88" spans="18:20" ht="15.75">
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" ht="15.75" spans="18:20">
+    <row r="89" spans="18:20" ht="15.75">
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" ht="15.75" spans="18:20">
+    <row r="90" spans="18:20" ht="15.75">
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" ht="15.75" spans="18:20">
+    <row r="91" spans="18:20" ht="15.75">
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" ht="15.75" spans="18:20">
+    <row r="92" spans="18:20" ht="15.75">
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" ht="15.75" spans="18:20">
+    <row r="93" spans="18:20" ht="15.75">
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" ht="15.75" spans="18:20">
+    <row r="94" spans="18:20" ht="15.75">
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" ht="15.75" spans="18:20">
+    <row r="95" spans="18:20" ht="15.75">
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" ht="15.75" spans="18:20">
+    <row r="96" spans="18:20" ht="15.75">
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" ht="15.75" spans="18:20">
+    <row r="97" spans="18:20" ht="15.75">
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" ht="15.75" spans="18:20">
+    <row r="98" spans="18:20" ht="15.75">
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" ht="15.75" spans="18:20">
+    <row r="99" spans="18:20" ht="15.75">
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" ht="15.75" spans="18:20">
+    <row r="100" spans="18:20" ht="15.75">
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" ht="15.75" spans="18:20">
+    <row r="101" spans="18:20" ht="15.75">
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" ht="15.75" spans="18:20">
+    <row r="102" spans="18:20" ht="15.75">
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" ht="15.75" spans="18:20">
+    <row r="103" spans="18:20" ht="15.75">
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" ht="15.75" spans="18:20">
+    <row r="104" spans="18:20" ht="15.75">
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" ht="15.75" spans="18:20">
+    <row r="105" spans="18:20" ht="15.75">
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" ht="15.75" spans="18:20">
+    <row r="106" spans="18:20" ht="15.75">
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" ht="15.75" spans="18:20">
+    <row r="107" spans="18:20" ht="15.75">
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" ht="15.75" spans="18:20">
+    <row r="108" spans="18:20" ht="15.75">
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" ht="15.75" spans="18:20">
+    <row r="109" spans="18:20" ht="15.75">
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" ht="15.75" spans="18:20">
+    <row r="110" spans="18:20" ht="15.75">
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" ht="15.75" spans="18:20">
+    <row r="111" spans="18:20" ht="15.75">
       <c r="R111" s="2"/>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" ht="15.75" spans="18:20">
+    <row r="112" spans="18:20" ht="15.75">
       <c r="R112" s="2"/>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" ht="15.75" spans="18:20">
+    <row r="113" spans="18:20" ht="15.75">
       <c r="R113" s="2"/>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" ht="15.75" spans="18:20">
+    <row r="114" spans="18:20" ht="15.75">
       <c r="R114" s="2"/>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" ht="15.75" spans="18:20">
+    <row r="115" spans="18:20" ht="15.75">
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" ht="15.75" spans="18:20">
+    <row r="116" spans="18:20" ht="15.75">
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" ht="15.75" spans="18:20">
+    <row r="117" spans="18:20" ht="15.75">
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" ht="15.75" spans="18:20">
+    <row r="118" spans="18:20" ht="15.75">
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" ht="15.75" spans="18:20">
+    <row r="119" spans="18:20" ht="15.75">
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" ht="15.75" spans="18:20">
+    <row r="120" spans="18:20" ht="15.75">
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" ht="15.75" spans="18:20">
+    <row r="121" spans="18:20" ht="15.75">
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" ht="15.75" spans="18:20">
+    <row r="122" spans="18:20" ht="15.75">
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" ht="15.75" spans="18:20">
+    <row r="123" spans="18:20" ht="15.75">
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" ht="15.75" spans="18:20">
+    <row r="124" spans="18:20" ht="15.75">
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" ht="15.75" spans="18:20">
+    <row r="125" spans="18:20" ht="15.75">
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" ht="15.75" spans="18:20">
+    <row r="126" spans="18:20" ht="15.75">
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" ht="15.75" spans="18:20">
+    <row r="127" spans="18:20" ht="15.75">
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" ht="15.75" spans="18:20">
+    <row r="128" spans="18:20" ht="15.75">
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" ht="15.75" spans="18:20">
+    <row r="129" spans="18:20" ht="15.75">
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" ht="15.75" spans="18:20">
+    <row r="130" spans="18:20" ht="15.75">
       <c r="R130" s="2"/>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" ht="15.75" spans="18:20">
+    <row r="131" spans="18:20" ht="15.75">
       <c r="R131" s="2"/>
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" ht="15.75" spans="18:20">
+    <row r="132" spans="18:20" ht="15.75">
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" ht="15.75" spans="18:20">
+    <row r="133" spans="18:20" ht="15.75">
       <c r="R133" s="2"/>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" ht="15.75" spans="18:20">
+    <row r="134" spans="18:20" ht="15.75">
       <c r="R134" s="2"/>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" ht="15.75" spans="18:20">
+    <row r="135" spans="18:20" ht="15.75">
       <c r="R135" s="2"/>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" ht="15.75" spans="18:20">
+    <row r="136" spans="18:20" ht="15.75">
       <c r="R136" s="2"/>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" ht="15.75" spans="18:20">
+    <row r="137" spans="18:20" ht="15.75">
       <c r="R137" s="2"/>
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" ht="15.75" spans="18:20">
+    <row r="138" spans="18:20" ht="15.75">
       <c r="R138" s="2"/>
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" ht="15.75" spans="18:20">
+    <row r="139" spans="18:20" ht="15.75">
       <c r="R139" s="2"/>
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" ht="15.75" spans="18:20">
+    <row r="140" spans="18:20" ht="15.75">
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" ht="15.75" spans="18:20">
+    <row r="141" spans="18:20" ht="15.75">
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" ht="15.75" spans="18:20">
+    <row r="142" spans="18:20" ht="15.75">
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" ht="15.75" spans="18:20">
+    <row r="143" spans="18:20" ht="15.75">
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" ht="15.75" spans="18:20">
+    <row r="144" spans="18:20" ht="15.75">
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" ht="15.75" spans="18:20">
+    <row r="145" spans="18:20" ht="15.75">
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" ht="15.75" spans="18:20">
+    <row r="146" spans="18:20" ht="15.75">
       <c r="R146" s="2"/>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" ht="15.75" spans="18:20">
+    <row r="147" spans="18:20" ht="15.75">
       <c r="R147" s="2"/>
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" ht="15.75" spans="18:20">
+    <row r="148" spans="18:20" ht="15.75">
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" ht="15.75" spans="18:20">
+    <row r="149" spans="18:20" ht="15.75">
       <c r="R149" s="2"/>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" ht="15.75" spans="18:20">
+    <row r="150" spans="18:20" ht="15.75">
       <c r="R150" s="2"/>
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" ht="15.75" spans="18:20">
+    <row r="151" spans="18:20" ht="15.75">
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" ht="15.75" spans="18:20">
+    <row r="152" spans="18:20" ht="15.75">
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" ht="15.75" spans="18:20">
+    <row r="153" spans="18:20" ht="15.75">
       <c r="R153" s="2"/>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" ht="15.75" spans="18:20">
+    <row r="154" spans="18:20" ht="15.75">
       <c r="R154" s="2"/>
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" ht="15.75" spans="18:20">
+    <row r="155" spans="18:20" ht="15.75">
       <c r="R155" s="2"/>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" ht="15.75" spans="18:20">
+    <row r="156" spans="18:20" ht="15.75">
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" ht="15.75" spans="18:20">
+    <row r="157" spans="18:20" ht="15.75">
       <c r="R157" s="2"/>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" ht="15.75" spans="18:20">
+    <row r="158" spans="18:20" ht="15.75">
       <c r="R158" s="2"/>
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" ht="15.75" spans="18:20">
+    <row r="159" spans="18:20" ht="15.75">
       <c r="R159" s="2"/>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" ht="15.75" spans="18:20">
+    <row r="160" spans="18:20" ht="15.75">
       <c r="R160" s="2"/>
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" ht="15.75" spans="18:20">
+    <row r="161" spans="18:20" ht="15.75">
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" ht="15.75" spans="18:20">
+    <row r="162" spans="18:20" ht="15.75">
       <c r="R162" s="2"/>
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" ht="15.75" spans="18:20">
+    <row r="163" spans="18:20" ht="15.75">
       <c r="R163" s="2"/>
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" ht="15.75" spans="18:20">
+    <row r="164" spans="18:20" ht="15.75">
       <c r="R164" s="2"/>
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" ht="15.75" spans="18:20">
+    <row r="165" spans="18:20" ht="15.75">
       <c r="R165" s="2"/>
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" ht="15.75" spans="18:20">
+    <row r="166" spans="18:20" ht="15.75">
       <c r="R166" s="2"/>
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" ht="15.75" spans="18:20">
+    <row r="167" spans="18:20" ht="15.75">
       <c r="R167" s="2"/>
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" ht="15.75" spans="18:20">
+    <row r="168" spans="18:20" ht="15.75">
       <c r="R168" s="2"/>
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" ht="15.75" spans="18:20">
+    <row r="169" spans="18:20" ht="15.75">
       <c r="R169" s="2"/>
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" ht="15.75" spans="18:20">
+    <row r="170" spans="18:20" ht="15.75">
       <c r="R170" s="2"/>
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" ht="15.75" spans="18:20">
+    <row r="171" spans="18:20" ht="15.75">
       <c r="R171" s="2"/>
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" ht="15.75" spans="18:20">
+    <row r="172" spans="18:20" ht="15.75">
       <c r="R172" s="2"/>
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" ht="15.75" spans="18:20">
+    <row r="173" spans="18:20" ht="15.75">
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" ht="15.75" spans="18:20">
+    <row r="174" spans="18:20" ht="15.75">
       <c r="R174" s="2"/>
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" ht="15.75" spans="18:20">
+    <row r="175" spans="18:20" ht="15.75">
       <c r="R175" s="2"/>
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" ht="15.75" spans="18:20">
+    <row r="176" spans="18:20" ht="15.75">
       <c r="R176" s="2"/>
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" ht="15.75" spans="18:20">
+    <row r="177" spans="18:20" ht="15.75">
       <c r="R177" s="2"/>
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" ht="15.75" spans="18:20">
+    <row r="178" spans="18:20" ht="15.75">
       <c r="R178" s="2"/>
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" ht="15.75" spans="18:20">
+    <row r="179" spans="18:20" ht="15.75">
       <c r="R179" s="2"/>
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" ht="15.75" spans="18:20">
+    <row r="180" spans="18:20" ht="15.75">
       <c r="R180" s="2"/>
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" ht="15.75" spans="18:20">
+    <row r="181" spans="18:20" ht="15.75">
       <c r="R181" s="2"/>
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" ht="15.75" spans="18:20">
+    <row r="182" spans="18:20" ht="15.75">
       <c r="R182" s="2"/>
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" ht="15.75" spans="18:20">
+    <row r="183" spans="18:20" ht="15.75">
       <c r="R183" s="2"/>
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" ht="15.75" spans="18:20">
+    <row r="184" spans="18:20" ht="15.75">
       <c r="R184" s="2"/>
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" ht="15.75" spans="18:20">
+    <row r="185" spans="18:20" ht="15.75">
       <c r="R185" s="2"/>
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" ht="15.75" spans="18:20">
+    <row r="186" spans="18:20" ht="15.75">
       <c r="R186" s="2"/>
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" ht="15.75" spans="18:20">
+    <row r="187" spans="18:20" ht="15.75">
       <c r="R187" s="2"/>
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" ht="15.75" spans="18:20">
+    <row r="188" spans="18:20" ht="15.75">
       <c r="R188" s="2"/>
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" ht="15.75" spans="18:20">
+    <row r="189" spans="18:20" ht="15.75">
       <c r="R189" s="2"/>
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" ht="15.75" spans="18:20">
+    <row r="190" spans="18:20" ht="15.75">
       <c r="R190" s="2"/>
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" ht="15.75" spans="18:20">
+    <row r="191" spans="18:20" ht="15.75">
       <c r="R191" s="2"/>
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" ht="15.75" spans="18:20">
+    <row r="192" spans="18:20" ht="15.75">
       <c r="R192" s="2"/>
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" ht="15.75" spans="18:20">
+    <row r="193" spans="18:20" ht="15.75">
       <c r="R193" s="2"/>
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" ht="15.75" spans="18:20">
+    <row r="194" spans="18:20" ht="15.75">
       <c r="R194" s="2"/>
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" ht="15.75" spans="18:20">
+    <row r="195" spans="18:20" ht="15.75">
       <c r="R195" s="2"/>
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" ht="15.75" spans="18:20">
+    <row r="196" spans="18:20" ht="15.75">
       <c r="R196" s="2"/>
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" ht="15.75" spans="18:20">
+    <row r="197" spans="18:20" ht="15.75">
       <c r="R197" s="2"/>
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" ht="15.75" spans="18:20">
+    <row r="198" spans="18:20" ht="15.75">
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" ht="15.75" spans="18:20">
+    <row r="199" spans="18:20" ht="15.75">
       <c r="R199" s="2"/>
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" ht="15.75" spans="18:20">
+    <row r="200" spans="18:20" ht="15.75">
       <c r="R200" s="2"/>
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
     </row>
-    <row r="201" ht="15.75" spans="18:20">
+    <row r="201" spans="18:20" ht="15.75">
       <c r="R201" s="2"/>
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
     </row>
-    <row r="202" ht="15.75" spans="18:20">
+    <row r="202" spans="18:20" ht="15.75">
       <c r="R202" s="2"/>
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
     </row>
-    <row r="203" ht="15.75" spans="18:20">
+    <row r="203" spans="18:20" ht="15.75">
       <c r="R203" s="2"/>
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
     </row>
-    <row r="204" ht="15.75" spans="18:20">
+    <row r="204" spans="18:20" ht="15.75">
       <c r="R204" s="2"/>
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
     </row>
-    <row r="205" ht="15.75" spans="18:20">
+    <row r="205" spans="18:20" ht="15.75">
       <c r="R205" s="2"/>
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
     </row>
-    <row r="206" ht="15.75" spans="18:20">
+    <row r="206" spans="18:20" ht="15.75">
       <c r="R206" s="2"/>
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
     </row>
-    <row r="207" ht="15.75" spans="18:20">
+    <row r="207" spans="18:20" ht="15.75">
       <c r="R207" s="2"/>
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
     </row>
-    <row r="208" ht="15.75" spans="18:20">
+    <row r="208" spans="18:20" ht="15.75">
       <c r="R208" s="2"/>
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
     </row>
-    <row r="209" ht="15.75" spans="18:20">
+    <row r="209" spans="18:20" ht="15.75">
       <c r="R209" s="2"/>
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
     </row>
-    <row r="210" ht="15.75" spans="18:20">
+    <row r="210" spans="18:20" ht="15.75">
       <c r="R210" s="2"/>
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
     </row>
-    <row r="211" ht="15.75" spans="18:20">
+    <row r="211" spans="18:20" ht="15.75">
       <c r="R211" s="2"/>
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
     </row>
-    <row r="212" ht="15.75" spans="18:20">
+    <row r="212" spans="18:20" ht="15.75">
       <c r="R212" s="2"/>
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
     </row>
-    <row r="213" ht="15.75" spans="18:20">
+    <row r="213" spans="18:20" ht="15.75">
       <c r="R213" s="2"/>
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
     </row>
-    <row r="214" ht="15.75" spans="18:20">
+    <row r="214" spans="18:20" ht="15.75">
       <c r="R214" s="2"/>
       <c r="S214" s="2"/>
       <c r="T214" s="2"/>
     </row>
-    <row r="215" ht="15.75" spans="18:20">
+    <row r="215" spans="18:20" ht="15.75">
       <c r="R215" s="2"/>
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
     </row>
-    <row r="216" ht="15.75" spans="18:20">
+    <row r="216" spans="18:20" ht="15.75">
       <c r="R216" s="2"/>
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
     </row>
-    <row r="217" ht="15.75" spans="18:20">
+    <row r="217" spans="18:20" ht="15.75">
       <c r="R217" s="2"/>
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
     </row>
-    <row r="218" ht="15.75" spans="18:20">
+    <row r="218" spans="18:20" ht="15.75">
       <c r="R218" s="2"/>
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
     </row>
-    <row r="219" ht="15.75" spans="18:20">
+    <row r="219" spans="18:20" ht="15.75">
       <c r="R219" s="2"/>
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
     </row>
-    <row r="220" ht="15.75" spans="18:20">
+    <row r="220" spans="18:20" ht="15.75">
       <c r="R220" s="2"/>
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
     </row>
-    <row r="221" ht="15.75" spans="18:20">
+    <row r="221" spans="18:20" ht="15.75">
       <c r="R221" s="2"/>
       <c r="S221" s="2"/>
       <c r="T221" s="2"/>
     </row>
-    <row r="222" ht="15.75" spans="18:20">
+    <row r="222" spans="18:20" ht="15.75">
       <c r="R222" s="2"/>
       <c r="S222" s="2"/>
       <c r="T222" s="2"/>
     </row>
-    <row r="223" ht="15.75" spans="18:20">
+    <row r="223" spans="18:20" ht="15.75">
       <c r="R223" s="2"/>
       <c r="S223" s="2"/>
       <c r="T223" s="2"/>
     </row>
-    <row r="224" ht="15.75" spans="18:20">
+    <row r="224" spans="18:20" ht="15.75">
       <c r="R224" s="2"/>
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
     </row>
-    <row r="225" ht="15.75" spans="18:20">
+    <row r="225" spans="18:20" ht="15.75">
       <c r="R225" s="2"/>
       <c r="S225" s="2"/>
       <c r="T225" s="2"/>
     </row>
-    <row r="226" ht="15.75" spans="18:20">
+    <row r="226" spans="18:20" ht="15.75">
       <c r="R226" s="2"/>
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
     </row>
-    <row r="227" ht="15.75" spans="18:20">
+    <row r="227" spans="18:20" ht="15.75">
       <c r="R227" s="2"/>
       <c r="S227" s="2"/>
       <c r="T227" s="2"/>
     </row>
-    <row r="228" ht="15.75" spans="18:20">
+    <row r="228" spans="18:20" ht="15.75">
       <c r="R228" s="2"/>
       <c r="S228" s="2"/>
       <c r="T228" s="2"/>
     </row>
-    <row r="229" ht="15.75" spans="18:20">
+    <row r="229" spans="18:20" ht="15.75">
       <c r="R229" s="2"/>
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
     </row>
-    <row r="230" ht="15.75" spans="18:20">
+    <row r="230" spans="18:20" ht="15.75">
       <c r="R230" s="2"/>
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
     </row>
-    <row r="231" ht="15.75" spans="18:20">
+    <row r="231" spans="18:20" ht="15.75">
       <c r="R231" s="2"/>
       <c r="S231" s="2"/>
       <c r="T231" s="2"/>
     </row>
-    <row r="232" ht="15.75" spans="18:20">
+    <row r="232" spans="18:20" ht="15.75">
       <c r="R232" s="2"/>
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
     </row>
-    <row r="233" ht="15.75" spans="18:20">
+    <row r="233" spans="18:20" ht="15.75">
       <c r="R233" s="2"/>
       <c r="S233" s="2"/>
       <c r="T233" s="2"/>
     </row>
-    <row r="234" ht="15.75" spans="18:20">
+    <row r="234" spans="18:20" ht="15.75">
       <c r="R234" s="2"/>
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
     </row>
-    <row r="235" ht="15.75" spans="18:20">
+    <row r="235" spans="18:20" ht="15.75">
       <c r="R235" s="2"/>
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
     </row>
-    <row r="236" ht="15.75" spans="18:20">
+    <row r="236" spans="18:20" ht="15.75">
       <c r="R236" s="2"/>
       <c r="S236" s="2"/>
       <c r="T236" s="2"/>
     </row>
-    <row r="237" ht="15.75" spans="18:20">
+    <row r="237" spans="18:20" ht="15.75">
       <c r="R237" s="2"/>
       <c r="S237" s="2"/>
       <c r="T237" s="2"/>
     </row>
-    <row r="238" ht="15.75" spans="18:20">
+    <row r="238" spans="18:20" ht="15.75">
       <c r="R238" s="2"/>
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
     </row>
-    <row r="239" ht="15.75" spans="18:20">
+    <row r="239" spans="18:20" ht="15.75">
       <c r="R239" s="2"/>
       <c r="S239" s="2"/>
       <c r="T239" s="2"/>
     </row>
-    <row r="240" ht="15.75" spans="18:20">
+    <row r="240" spans="18:20" ht="15.75">
       <c r="R240" s="2"/>
       <c r="S240" s="2"/>
       <c r="T240" s="2"/>
     </row>
-    <row r="241" ht="15.75" spans="18:20">
+    <row r="241" spans="18:20" ht="15.75">
       <c r="R241" s="2"/>
       <c r="S241" s="2"/>
       <c r="T241" s="2"/>
     </row>
-    <row r="242" ht="15.75" spans="18:20">
+    <row r="242" spans="18:20" ht="15.75">
       <c r="R242" s="2"/>
       <c r="S242" s="2"/>
       <c r="T242" s="2"/>
     </row>
-    <row r="243" ht="15.75" spans="18:20">
+    <row r="243" spans="18:20" ht="15.75">
       <c r="R243" s="2"/>
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
     </row>
-    <row r="244" ht="15.75" spans="18:20">
+    <row r="244" spans="18:20" ht="15.75">
       <c r="R244" s="2"/>
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
     </row>
-    <row r="245" ht="15.75" spans="18:20">
+    <row r="245" spans="18:20" ht="15.75">
       <c r="R245" s="2"/>
       <c r="S245" s="2"/>
       <c r="T245" s="2"/>
     </row>
-    <row r="246" ht="15.75" spans="18:20">
+    <row r="246" spans="18:20" ht="15.75">
       <c r="R246" s="2"/>
       <c r="S246" s="2"/>
       <c r="T246" s="2"/>
     </row>
-    <row r="247" ht="15.75" spans="18:20">
+    <row r="247" spans="18:20" ht="15.75">
       <c r="R247" s="2"/>
       <c r="S247" s="2"/>
       <c r="T247" s="2"/>
     </row>
-    <row r="248" ht="15.75" spans="18:20">
+    <row r="248" spans="18:20" ht="15.75">
       <c r="R248" s="2"/>
       <c r="S248" s="2"/>
       <c r="T248" s="2"/>
     </row>
-    <row r="249" ht="15.75" spans="18:20">
+    <row r="249" spans="18:20" ht="15.75">
       <c r="R249" s="2"/>
       <c r="S249" s="2"/>
       <c r="T249" s="2"/>
     </row>
-    <row r="250" ht="15.75" spans="18:20">
+    <row r="250" spans="18:20" ht="15.75">
       <c r="R250" s="2"/>
       <c r="S250" s="2"/>
       <c r="T250" s="2"/>
     </row>
-    <row r="251" ht="15.75" spans="18:20">
+    <row r="251" spans="18:20" ht="15.75">
       <c r="R251" s="2"/>
       <c r="S251" s="2"/>
       <c r="T251" s="2"/>
     </row>
-    <row r="252" ht="15.75" spans="18:20">
+    <row r="252" spans="18:20" ht="15.75">
       <c r="R252" s="2"/>
       <c r="S252" s="2"/>
       <c r="T252" s="2"/>
     </row>
-    <row r="253" ht="15.75" spans="18:20">
+    <row r="253" spans="18:20" ht="15.75">
       <c r="R253" s="2"/>
       <c r="S253" s="2"/>
       <c r="T253" s="2"/>
     </row>
-    <row r="254" ht="15.75" spans="18:20">
+    <row r="254" spans="18:20" ht="15.75">
       <c r="R254" s="2"/>
       <c r="S254" s="2"/>
       <c r="T254" s="2"/>
     </row>
-    <row r="255" ht="15.75" spans="18:20">
+    <row r="255" spans="18:20" ht="15.75">
       <c r="R255" s="2"/>
       <c r="S255" s="2"/>
       <c r="T255" s="2"/>
     </row>
-    <row r="256" ht="15.75" spans="18:20">
+    <row r="256" spans="18:20" ht="15.75">
       <c r="R256" s="2"/>
       <c r="S256" s="2"/>
       <c r="T256" s="2"/>
     </row>
-    <row r="257" ht="15.75" spans="18:20">
+    <row r="257" spans="18:20" ht="15.75">
       <c r="R257" s="2"/>
       <c r="S257" s="2"/>
       <c r="T257" s="2"/>
     </row>
-    <row r="258" ht="15.75" spans="18:20">
+    <row r="258" spans="18:20" ht="15.75">
       <c r="R258" s="2"/>
       <c r="S258" s="2"/>
       <c r="T258" s="2"/>
     </row>
-    <row r="259" ht="15.75" spans="18:20">
+    <row r="259" spans="18:20" ht="15.75">
       <c r="R259" s="2"/>
       <c r="S259" s="2"/>
       <c r="T259" s="2"/>
     </row>
-    <row r="260" ht="15.75" spans="18:20">
+    <row r="260" spans="18:20" ht="15.75">
       <c r="R260" s="2"/>
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" ht="15.75" spans="18:20">
+    <row r="261" spans="18:20" ht="15.75">
       <c r="R261" s="2"/>
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" ht="15.75" spans="18:20">
+    <row r="262" spans="18:20" ht="15.75">
       <c r="R262" s="2"/>
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" ht="15.75" spans="18:20">
+    <row r="263" spans="18:20" ht="15.75">
       <c r="R263" s="2"/>
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" ht="15.75" spans="18:20">
+    <row r="264" spans="18:20" ht="15.75">
       <c r="R264" s="2"/>
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" ht="15.75" spans="18:20">
+    <row r="265" spans="18:20" ht="15.75">
       <c r="R265" s="2"/>
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" ht="15.75" spans="18:20">
+    <row r="266" spans="18:20" ht="15.75">
       <c r="R266" s="2"/>
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" ht="15.75" spans="18:20">
+    <row r="267" spans="18:20" ht="15.75">
       <c r="R267" s="2"/>
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" ht="15.75" spans="18:20">
+    <row r="268" spans="18:20" ht="15.75">
       <c r="R268" s="2"/>
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" ht="15.75" spans="18:20">
+    <row r="269" spans="18:20" ht="15.75">
       <c r="R269" s="2"/>
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" ht="15.75" spans="18:20">
+    <row r="270" spans="18:20" ht="15.75">
       <c r="R270" s="2"/>
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" ht="15.75" spans="18:20">
+    <row r="271" spans="18:20" ht="15.75">
       <c r="R271" s="2"/>
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" ht="15.75" spans="18:20">
+    <row r="272" spans="18:20" ht="15.75">
       <c r="R272" s="2"/>
       <c r="S272" s="2"/>
       <c r="T272" s="2"/>
     </row>
-    <row r="273" ht="15.75" spans="18:20">
+    <row r="273" spans="18:20" ht="15.75">
       <c r="R273" s="2"/>
       <c r="S273" s="2"/>
       <c r="T273" s="2"/>
     </row>
-    <row r="274" ht="15.75" spans="18:20">
+    <row r="274" spans="18:20" ht="15.75">
       <c r="R274" s="2"/>
       <c r="S274" s="2"/>
       <c r="T274" s="2"/>
     </row>
-    <row r="275" ht="15.75" spans="18:20">
+    <row r="275" spans="18:20" ht="15.75">
       <c r="R275" s="2"/>
       <c r="S275" s="2"/>
       <c r="T275" s="2"/>
     </row>
-    <row r="276" ht="15.75" spans="18:20">
+    <row r="276" spans="18:20" ht="15.75">
       <c r="R276" s="2"/>
       <c r="S276" s="2"/>
       <c r="T276" s="2"/>
     </row>
-    <row r="277" ht="15.75" spans="18:20">
+    <row r="277" spans="18:20" ht="15.75">
       <c r="R277" s="2"/>
       <c r="S277" s="2"/>
       <c r="T277" s="2"/>
     </row>
-    <row r="278" ht="15.75" spans="18:20">
+    <row r="278" spans="18:20" ht="15.75">
       <c r="R278" s="2"/>
       <c r="S278" s="2"/>
       <c r="T278" s="2"/>
     </row>
-    <row r="279" ht="15.75" spans="18:20">
+    <row r="279" spans="18:20" ht="15.75">
       <c r="R279" s="2"/>
       <c r="S279" s="2"/>
       <c r="T279" s="2"/>
     </row>
-    <row r="280" ht="15.75" spans="18:20">
+    <row r="280" spans="18:20" ht="15.75">
       <c r="R280" s="2"/>
       <c r="S280" s="2"/>
       <c r="T280" s="2"/>
     </row>
-    <row r="281" ht="15.75" spans="18:20">
+    <row r="281" spans="18:20" ht="15.75">
       <c r="R281" s="2"/>
       <c r="S281" s="2"/>
       <c r="T281" s="2"/>
     </row>
-    <row r="282" ht="15.75" spans="18:20">
+    <row r="282" spans="18:20" ht="15.75">
       <c r="R282" s="2"/>
       <c r="S282" s="2"/>
       <c r="T282" s="2"/>
     </row>
-    <row r="283" ht="15.75" spans="18:20">
+    <row r="283" spans="18:20" ht="15.75">
       <c r="R283" s="2"/>
       <c r="S283" s="2"/>
       <c r="T283" s="2"/>
     </row>
-    <row r="284" ht="15.75" spans="18:20">
+    <row r="284" spans="18:20" ht="15.75">
       <c r="R284" s="2"/>
       <c r="S284" s="2"/>
       <c r="T284" s="2"/>
     </row>
-    <row r="285" ht="15.75" spans="18:20">
+    <row r="285" spans="18:20" ht="15.75">
       <c r="R285" s="2"/>
       <c r="S285" s="2"/>
       <c r="T285" s="2"/>
     </row>
-    <row r="286" ht="15.75" spans="18:20">
+    <row r="286" spans="18:20" ht="15.75">
       <c r="R286" s="2"/>
       <c r="S286" s="2"/>
       <c r="T286" s="2"/>
     </row>
-    <row r="287" ht="15.75" spans="18:20">
+    <row r="287" spans="18:20" ht="15.75">
       <c r="R287" s="2"/>
       <c r="S287" s="2"/>
       <c r="T287" s="2"/>
     </row>
-    <row r="288" ht="15.75" spans="18:20">
+    <row r="288" spans="18:20" ht="15.75">
       <c r="R288" s="2"/>
       <c r="S288" s="2"/>
       <c r="T288" s="2"/>
     </row>
-    <row r="289" ht="15.75" spans="18:20">
+    <row r="289" spans="18:20" ht="15.75">
       <c r="R289" s="2"/>
       <c r="S289" s="2"/>
       <c r="T289" s="2"/>
     </row>
-    <row r="290" ht="15.75" spans="18:20">
+    <row r="290" spans="18:20" ht="15.75">
       <c r="R290" s="2"/>
       <c r="S290" s="2"/>
       <c r="T290" s="2"/>
     </row>
-    <row r="291" ht="15.75" spans="18:20">
+    <row r="291" spans="18:20" ht="15.75">
       <c r="R291" s="2"/>
       <c r="S291" s="2"/>
       <c r="T291" s="2"/>
     </row>
-    <row r="292" ht="15.75" spans="18:20">
+    <row r="292" spans="18:20" ht="15.75">
       <c r="R292" s="2"/>
       <c r="S292" s="2"/>
       <c r="T292" s="2"/>
     </row>
-    <row r="293" ht="15.75" spans="18:20">
+    <row r="293" spans="18:20" ht="15.75">
       <c r="R293" s="2"/>
       <c r="S293" s="2"/>
       <c r="T293" s="2"/>
     </row>
-    <row r="294" ht="15.75" spans="18:20">
+    <row r="294" spans="18:20" ht="15.75">
       <c r="R294" s="2"/>
       <c r="S294" s="2"/>
       <c r="T294" s="2"/>
     </row>
-    <row r="295" ht="15.75" spans="18:20">
+    <row r="295" spans="18:20" ht="15.75">
       <c r="R295" s="2"/>
       <c r="S295" s="2"/>
       <c r="T295" s="2"/>
     </row>
-    <row r="296" ht="15.75" spans="18:20">
+    <row r="296" spans="18:20" ht="15.75">
       <c r="R296" s="2"/>
       <c r="S296" s="2"/>
       <c r="T296" s="2"/>
     </row>
-    <row r="297" ht="15.75" spans="18:20">
+    <row r="297" spans="18:20" ht="15.75">
       <c r="R297" s="2"/>
       <c r="S297" s="2"/>
       <c r="T297" s="2"/>
     </row>
-    <row r="298" ht="15.75" spans="18:20">
+    <row r="298" spans="18:20" ht="15.75">
       <c r="R298" s="2"/>
       <c r="S298" s="2"/>
       <c r="T298" s="2"/>
     </row>
-    <row r="299" ht="15.75" spans="18:20">
+    <row r="299" spans="18:20" ht="15.75">
       <c r="R299" s="2"/>
       <c r="S299" s="2"/>
       <c r="T299" s="2"/>
     </row>
-    <row r="300" ht="15.75" spans="18:20">
+    <row r="300" spans="18:20" ht="15.75">
       <c r="R300" s="2"/>
       <c r="S300" s="2"/>
       <c r="T300" s="2"/>
     </row>
-    <row r="301" ht="15.75" spans="18:20">
+    <row r="301" spans="18:20" ht="15.75">
       <c r="R301" s="2"/>
       <c r="S301" s="2"/>
       <c r="T301" s="2"/>
     </row>
-    <row r="302" ht="15.75" spans="18:20">
+    <row r="302" spans="18:20" ht="15.75">
       <c r="R302" s="2"/>
       <c r="S302" s="2"/>
       <c r="T302" s="2"/>
     </row>
-    <row r="303" ht="15.75" spans="18:20">
+    <row r="303" spans="18:20" ht="15.75">
       <c r="R303" s="2"/>
       <c r="S303" s="2"/>
       <c r="T303" s="2"/>
     </row>
-    <row r="304" ht="15.75" spans="18:20">
+    <row r="304" spans="18:20" ht="15.75">
       <c r="R304" s="2"/>
       <c r="S304" s="2"/>
       <c r="T304" s="2"/>
     </row>
-    <row r="305" ht="15.75" spans="18:20">
+    <row r="305" spans="18:20" ht="15.75">
       <c r="R305" s="2"/>
       <c r="S305" s="2"/>
       <c r="T305" s="2"/>
     </row>
-    <row r="306" ht="15.75" spans="18:20">
+    <row r="306" spans="18:20" ht="15.75">
       <c r="R306" s="2"/>
       <c r="S306" s="2"/>
       <c r="T306" s="2"/>
     </row>
-    <row r="307" ht="15.75" spans="18:20">
+    <row r="307" spans="18:20" ht="15.75">
       <c r="R307" s="2"/>
       <c r="S307" s="2"/>
       <c r="T307" s="2"/>
     </row>
-    <row r="308" ht="15.75" spans="18:20">
+    <row r="308" spans="18:20" ht="15.75">
       <c r="R308" s="2"/>
       <c r="S308" s="2"/>
       <c r="T308" s="2"/>
     </row>
-    <row r="309" ht="15.75" spans="18:20">
+    <row r="309" spans="18:20" ht="15.75">
       <c r="R309" s="2"/>
       <c r="S309" s="2"/>
       <c r="T309" s="2"/>
     </row>
-    <row r="310" ht="15.75" spans="18:20">
+    <row r="310" spans="18:20" ht="15.75">
       <c r="R310" s="2"/>
       <c r="S310" s="2"/>
       <c r="T310" s="2"/>
     </row>
-    <row r="311" ht="15.75" spans="18:20">
+    <row r="311" spans="18:20" ht="15.75">
       <c r="R311" s="2"/>
       <c r="S311" s="2"/>
       <c r="T311" s="2"/>
     </row>
-    <row r="312" ht="15.75" spans="18:20">
+    <row r="312" spans="18:20" ht="15.75">
       <c r="R312" s="2"/>
       <c r="S312" s="2"/>
       <c r="T312" s="2"/>
     </row>
-    <row r="313" ht="15.75" spans="18:20">
+    <row r="313" spans="18:20" ht="15.75">
       <c r="R313" s="2"/>
       <c r="S313" s="2"/>
       <c r="T313" s="2"/>
     </row>
-    <row r="314" ht="15.75" spans="18:20">
+    <row r="314" spans="18:20" ht="15.75">
       <c r="R314" s="2"/>
       <c r="S314" s="2"/>
       <c r="T314" s="2"/>
     </row>
-    <row r="315" ht="15.75" spans="18:20">
+    <row r="315" spans="18:20" ht="15.75">
       <c r="R315" s="2"/>
       <c r="S315" s="2"/>
       <c r="T315" s="2"/>
     </row>
-    <row r="316" ht="15.75" spans="18:20">
+    <row r="316" spans="18:20" ht="15.75">
       <c r="R316" s="2"/>
       <c r="S316" s="2"/>
       <c r="T316" s="2"/>
     </row>
-    <row r="317" ht="15.75" spans="18:20">
+    <row r="317" spans="18:20" ht="15.75">
       <c r="R317" s="2"/>
       <c r="S317" s="2"/>
       <c r="T317" s="2"/>
     </row>
-    <row r="318" ht="15.75" spans="18:20">
+    <row r="318" spans="18:20" ht="15.75">
       <c r="R318" s="2"/>
       <c r="S318" s="2"/>
       <c r="T318" s="2"/>
     </row>
-    <row r="319" ht="15.75" spans="18:20">
+    <row r="319" spans="18:20" ht="15.75">
       <c r="R319" s="2"/>
       <c r="S319" s="2"/>
       <c r="T319" s="2"/>
     </row>
-    <row r="320" ht="15.75" spans="18:20">
+    <row r="320" spans="18:20" ht="15.75">
       <c r="R320" s="2"/>
       <c r="S320" s="2"/>
       <c r="T320" s="2"/>
     </row>
-    <row r="321" ht="15.75" spans="18:20">
+    <row r="321" spans="18:20" ht="15.75">
       <c r="R321" s="2"/>
       <c r="S321" s="2"/>
       <c r="T321" s="2"/>
     </row>
-    <row r="322" ht="15.75" spans="18:20">
+    <row r="322" spans="18:20" ht="15.75">
       <c r="R322" s="2"/>
       <c r="S322" s="2"/>
       <c r="T322" s="2"/>
     </row>
-    <row r="323" ht="15.75" spans="18:20">
+    <row r="323" spans="18:20" ht="15.75">
       <c r="R323" s="2"/>
       <c r="S323" s="2"/>
       <c r="T323" s="2"/>
     </row>
-    <row r="324" ht="15.75" spans="18:20">
+    <row r="324" spans="18:20" ht="15.75">
       <c r="R324" s="2"/>
       <c r="S324" s="2"/>
       <c r="T324" s="2"/>
     </row>
-    <row r="325" ht="15.75" spans="18:20">
+    <row r="325" spans="18:20" ht="15.75">
       <c r="R325" s="2"/>
       <c r="S325" s="2"/>
       <c r="T325" s="2"/>
     </row>
-    <row r="326" ht="15.75" spans="18:20">
+    <row r="326" spans="18:20" ht="15.75">
       <c r="R326" s="2"/>
       <c r="S326" s="2"/>
       <c r="T326" s="2"/>
     </row>
-    <row r="327" ht="15.75" spans="18:20">
+    <row r="327" spans="18:20" ht="15.75">
       <c r="R327" s="2"/>
       <c r="S327" s="2"/>
       <c r="T327" s="2"/>
     </row>
-    <row r="328" ht="15.75" spans="18:20">
+    <row r="328" spans="18:20" ht="15.75">
       <c r="R328" s="2"/>
       <c r="S328" s="2"/>
       <c r="T328" s="2"/>
     </row>
-    <row r="329" ht="15.75" spans="18:20">
+    <row r="329" spans="18:20" ht="15.75">
       <c r="R329" s="2"/>
       <c r="S329" s="2"/>
       <c r="T329" s="2"/>
     </row>
-    <row r="330" ht="15.75" spans="18:20">
+    <row r="330" spans="18:20" ht="15.75">
       <c r="R330" s="2"/>
       <c r="S330" s="2"/>
       <c r="T330" s="2"/>
     </row>
-    <row r="331" ht="15.75" spans="18:20">
+    <row r="331" spans="18:20" ht="15.75">
       <c r="R331" s="2"/>
       <c r="S331" s="2"/>
       <c r="T331" s="2"/>
     </row>
-    <row r="332" ht="15.75" spans="18:20">
+    <row r="332" spans="18:20" ht="15.75">
       <c r="R332" s="2"/>
       <c r="S332" s="2"/>
       <c r="T332" s="2"/>
     </row>
-    <row r="333" ht="15.75" spans="18:20">
+    <row r="333" spans="18:20" ht="15.75">
       <c r="R333" s="2"/>
       <c r="S333" s="2"/>
       <c r="T333" s="2"/>
     </row>
-    <row r="334" ht="15.75" spans="18:20">
+    <row r="334" spans="18:20" ht="15.75">
       <c r="R334" s="2"/>
       <c r="S334" s="2"/>
       <c r="T334" s="2"/>
     </row>
-    <row r="335" ht="15.75" spans="18:20">
+    <row r="335" spans="18:20" ht="15.75">
       <c r="R335" s="2"/>
       <c r="S335" s="2"/>
       <c r="T335" s="2"/>
     </row>
-    <row r="336" ht="15.75" spans="18:20">
+    <row r="336" spans="18:20" ht="15.75">
       <c r="R336" s="2"/>
       <c r="S336" s="2"/>
       <c r="T336" s="2"/>
     </row>
-    <row r="337" ht="15.75" spans="18:20">
+    <row r="337" spans="18:20" ht="15.75">
       <c r="R337" s="2"/>
       <c r="S337" s="2"/>
       <c r="T337" s="2"/>
     </row>
-    <row r="338" ht="15.75" spans="18:20">
+    <row r="338" spans="18:20" ht="15.75">
       <c r="R338" s="2"/>
       <c r="S338" s="2"/>
       <c r="T338" s="2"/>
     </row>
-    <row r="339" ht="15.75" spans="18:20">
+    <row r="339" spans="18:20" ht="15.75">
       <c r="R339" s="2"/>
       <c r="S339" s="2"/>
       <c r="T339" s="2"/>
     </row>
-    <row r="340" ht="15.75" spans="18:20">
+    <row r="340" spans="18:20" ht="15.75">
       <c r="R340" s="2"/>
       <c r="S340" s="2"/>
       <c r="T340" s="2"/>
     </row>
-    <row r="341" ht="15.75" spans="18:20">
+    <row r="341" spans="18:20" ht="15.75">
       <c r="R341" s="2"/>
       <c r="S341" s="2"/>
       <c r="T341" s="2"/>
     </row>
-    <row r="342" ht="15.75" spans="18:20">
+    <row r="342" spans="18:20" ht="15.75">
       <c r="R342" s="2"/>
       <c r="S342" s="2"/>
       <c r="T342" s="2"/>
     </row>
-    <row r="343" ht="15.75" spans="18:20">
+    <row r="343" spans="18:20" ht="15.75">
       <c r="R343" s="2"/>
       <c r="S343" s="2"/>
       <c r="T343" s="2"/>
     </row>
-    <row r="344" ht="15.75" spans="18:20">
+    <row r="344" spans="18:20" ht="15.75">
       <c r="R344" s="2"/>
       <c r="S344" s="2"/>
       <c r="T344" s="2"/>
     </row>
-    <row r="345" ht="15.75" spans="18:20">
+    <row r="345" spans="18:20" ht="15.75">
       <c r="R345" s="2"/>
       <c r="S345" s="2"/>
       <c r="T345" s="2"/>
     </row>
-    <row r="346" ht="15.75" spans="18:20">
+    <row r="346" spans="18:20" ht="15.75">
       <c r="R346" s="2"/>
       <c r="S346" s="2"/>
       <c r="T346" s="2"/>
     </row>
-    <row r="347" ht="15.75" spans="18:20">
+    <row r="347" spans="18:20" ht="15.75">
       <c r="R347" s="2"/>
       <c r="S347" s="2"/>
       <c r="T347" s="2"/>
     </row>
-    <row r="348" ht="15.75" spans="18:20">
+    <row r="348" spans="18:20" ht="15.75">
       <c r="R348" s="2"/>
       <c r="S348" s="2"/>
       <c r="T348" s="2"/>
     </row>
-    <row r="349" ht="15.75" spans="18:20">
+    <row r="349" spans="18:20" ht="15.75">
       <c r="R349" s="2"/>
       <c r="S349" s="2"/>
       <c r="T349" s="2"/>
     </row>
-    <row r="350" ht="15.75" spans="18:20">
+    <row r="350" spans="18:20" ht="15.75">
       <c r="R350" s="2"/>
       <c r="S350" s="2"/>
       <c r="T350" s="2"/>
     </row>
-    <row r="351" ht="15.75" spans="18:20">
+    <row r="351" spans="18:20" ht="15.75">
       <c r="R351" s="2"/>
       <c r="S351" s="2"/>
       <c r="T351" s="2"/>
     </row>
-    <row r="352" ht="15.75" spans="18:20">
+    <row r="352" spans="18:20" ht="15.75">
       <c r="R352" s="2"/>
       <c r="S352" s="2"/>
       <c r="T352" s="2"/>
     </row>
-    <row r="353" ht="15.75" spans="18:20">
+    <row r="353" spans="18:20" ht="15.75">
       <c r="R353" s="2"/>
       <c r="S353" s="2"/>
       <c r="T353" s="2"/>
     </row>
-    <row r="354" ht="15.75" spans="18:20">
+    <row r="354" spans="18:20" ht="15.75">
       <c r="R354" s="2"/>
       <c r="S354" s="2"/>
       <c r="T354" s="2"/>
     </row>
-    <row r="355" ht="15.75" spans="18:20">
+    <row r="355" spans="18:20" ht="15.75">
       <c r="R355" s="2"/>
       <c r="S355" s="2"/>
       <c r="T355" s="2"/>
     </row>
-    <row r="356" ht="15.75" spans="18:20">
+    <row r="356" spans="18:20" ht="15.75">
       <c r="R356" s="2"/>
       <c r="S356" s="2"/>
       <c r="T356" s="2"/>
     </row>
-    <row r="357" ht="15.75" spans="18:20">
+    <row r="357" spans="18:20" ht="15.75">
       <c r="R357" s="2"/>
       <c r="S357" s="2"/>
       <c r="T357" s="2"/>
     </row>
-    <row r="358" ht="15.75" spans="18:20">
+    <row r="358" spans="18:20" ht="15.75">
       <c r="R358" s="2"/>
       <c r="S358" s="2"/>
       <c r="T358" s="2"/>
     </row>
-    <row r="359" ht="15.75" spans="18:20">
+    <row r="359" spans="18:20" ht="15.75">
       <c r="R359" s="2"/>
       <c r="S359" s="2"/>
       <c r="T359" s="2"/>
     </row>
-    <row r="360" ht="15.75" spans="18:20">
+    <row r="360" spans="18:20" ht="15.75">
       <c r="R360" s="2"/>
       <c r="S360" s="2"/>
       <c r="T360" s="2"/>
     </row>
-    <row r="361" ht="15.75" spans="18:20">
+    <row r="361" spans="18:20" ht="15.75">
       <c r="R361" s="2"/>
       <c r="S361" s="2"/>
       <c r="T361" s="2"/>
     </row>
-    <row r="362" ht="15.75" spans="18:20">
+    <row r="362" spans="18:20" ht="15.75">
       <c r="R362" s="2"/>
       <c r="S362" s="2"/>
       <c r="T362" s="2"/>
     </row>
-    <row r="363" ht="15.75" spans="18:20">
+    <row r="363" spans="18:20" ht="15.75">
       <c r="R363" s="2"/>
       <c r="S363" s="2"/>
       <c r="T363" s="2"/>
     </row>
-    <row r="364" ht="15.75" spans="18:20">
+    <row r="364" spans="18:20" ht="15.75">
       <c r="R364" s="2"/>
       <c r="S364" s="2"/>
       <c r="T364" s="2"/>
     </row>
-    <row r="365" ht="15.75" spans="18:20">
+    <row r="365" spans="18:20" ht="15.75">
       <c r="R365" s="2"/>
       <c r="S365" s="2"/>
       <c r="T365" s="2"/>
     </row>
-    <row r="366" ht="15.75" spans="18:20">
+    <row r="366" spans="18:20" ht="15.75">
       <c r="R366" s="2"/>
       <c r="S366" s="2"/>
       <c r="T366" s="2"/>
     </row>
-    <row r="367" ht="15.75" spans="18:20">
+    <row r="367" spans="18:20" ht="15.75">
       <c r="R367" s="2"/>
       <c r="S367" s="2"/>
       <c r="T367" s="2"/>
     </row>
-    <row r="368" ht="15.75" spans="18:20">
+    <row r="368" spans="18:20" ht="15.75">
       <c r="R368" s="2"/>
       <c r="S368" s="2"/>
       <c r="T368" s="2"/>
     </row>
-    <row r="369" ht="15.75" spans="18:20">
+    <row r="369" spans="18:20" ht="15.75">
       <c r="R369" s="2"/>
       <c r="S369" s="2"/>
       <c r="T369" s="2"/>
     </row>
-    <row r="370" ht="15.75" spans="18:20">
+    <row r="370" spans="18:20" ht="15.75">
       <c r="R370" s="2"/>
       <c r="S370" s="2"/>
       <c r="T370" s="2"/>
     </row>
-    <row r="371" ht="15.75" spans="18:20">
+    <row r="371" spans="18:20" ht="15.75">
       <c r="R371" s="2"/>
       <c r="S371" s="2"/>
       <c r="T371" s="2"/>
     </row>
-    <row r="372" ht="15.75" spans="18:20">
+    <row r="372" spans="18:20" ht="15.75">
       <c r="R372" s="2"/>
       <c r="S372" s="2"/>
       <c r="T372" s="2"/>
     </row>
-    <row r="373" ht="15.75" spans="18:20">
+    <row r="373" spans="18:20" ht="15.75">
       <c r="R373" s="2"/>
       <c r="S373" s="2"/>
       <c r="T373" s="2"/>
     </row>
-    <row r="374" ht="15.75" spans="18:20">
+    <row r="374" spans="18:20" ht="15.75">
       <c r="R374" s="2"/>
       <c r="S374" s="2"/>
       <c r="T374" s="2"/>
     </row>
-    <row r="375" ht="15.75" spans="18:20">
+    <row r="375" spans="18:20" ht="15.75">
       <c r="R375" s="2"/>
       <c r="S375" s="2"/>
       <c r="T375" s="2"/>
     </row>
-    <row r="376" ht="15.75" spans="18:20">
+    <row r="376" spans="18:20" ht="15.75">
       <c r="R376" s="2"/>
       <c r="S376" s="2"/>
       <c r="T376" s="2"/>
     </row>
-    <row r="377" ht="15.75" spans="18:20">
+    <row r="377" spans="18:20" ht="15.75">
       <c r="R377" s="2"/>
       <c r="S377" s="2"/>
       <c r="T377" s="2"/>
     </row>
-    <row r="378" ht="15.75" spans="18:20">
+    <row r="378" spans="18:20" ht="15.75">
       <c r="R378" s="2"/>
       <c r="S378" s="2"/>
       <c r="T378" s="2"/>
     </row>
-    <row r="379" ht="15.75" spans="18:20">
+    <row r="379" spans="18:20" ht="15.75">
       <c r="R379" s="2"/>
       <c r="S379" s="2"/>
       <c r="T379" s="2"/>
     </row>
-    <row r="380" ht="15.75" spans="18:20">
+    <row r="380" spans="18:20" ht="15.75">
       <c r="R380" s="2"/>
       <c r="S380" s="2"/>
       <c r="T380" s="2"/>
     </row>
-    <row r="381" ht="15.75" spans="18:20">
+    <row r="381" spans="18:20" ht="15.75">
       <c r="R381" s="2"/>
       <c r="S381" s="2"/>
       <c r="T381" s="2"/>
     </row>
-    <row r="382" ht="15.75" spans="18:20">
+    <row r="382" spans="18:20" ht="15.75">
       <c r="R382" s="2"/>
       <c r="S382" s="2"/>
       <c r="T382" s="2"/>
     </row>
-    <row r="383" ht="15.75" spans="18:20">
+    <row r="383" spans="18:20" ht="15.75">
       <c r="R383" s="2"/>
       <c r="S383" s="2"/>
       <c r="T383" s="2"/>
     </row>
-    <row r="384" ht="15.75" spans="18:20">
+    <row r="384" spans="18:20" ht="15.75">
       <c r="R384" s="2"/>
       <c r="S384" s="2"/>
       <c r="T384" s="2"/>
     </row>
-    <row r="385" ht="15.75" spans="18:20">
+    <row r="385" spans="18:20" ht="15.75">
       <c r="R385" s="2"/>
       <c r="S385" s="2"/>
       <c r="T385" s="2"/>
     </row>
-    <row r="386" ht="15.75" spans="18:20">
+    <row r="386" spans="18:20" ht="15.75">
       <c r="R386" s="2"/>
       <c r="S386" s="2"/>
       <c r="T386" s="2"/>
     </row>
-    <row r="387" ht="15.75" spans="18:20">
+    <row r="387" spans="18:20" ht="15.75">
       <c r="R387" s="2"/>
       <c r="S387" s="2"/>
       <c r="T387" s="2"/>
     </row>
-    <row r="388" ht="15.75" spans="18:20">
+    <row r="388" spans="18:20" ht="15.75">
       <c r="R388" s="2"/>
       <c r="S388" s="2"/>
       <c r="T388" s="2"/>
     </row>
-    <row r="389" ht="15.75" spans="18:20">
+    <row r="389" spans="18:20" ht="15.75">
       <c r="R389" s="2"/>
       <c r="S389" s="2"/>
       <c r="T389" s="2"/>
     </row>
-    <row r="390" ht="15.75" spans="18:20">
+    <row r="390" spans="18:20" ht="15.75">
       <c r="R390" s="2"/>
       <c r="S390" s="2"/>
       <c r="T390" s="2"/>
     </row>
-    <row r="391" ht="15.75" spans="18:20">
+    <row r="391" spans="18:20" ht="15.75">
       <c r="R391" s="2"/>
       <c r="S391" s="2"/>
       <c r="T391" s="2"/>
     </row>
-    <row r="392" ht="15.75" spans="18:20">
+    <row r="392" spans="18:20" ht="15.75">
       <c r="R392" s="2"/>
       <c r="S392" s="2"/>
       <c r="T392" s="2"/>
     </row>
-    <row r="393" ht="15.75" spans="18:20">
+    <row r="393" spans="18:20" ht="15.75">
       <c r="R393" s="2"/>
       <c r="S393" s="2"/>
       <c r="T393" s="2"/>
     </row>
-    <row r="394" ht="15.75" spans="18:20">
+    <row r="394" spans="18:20" ht="15.75">
       <c r="R394" s="2"/>
       <c r="S394" s="2"/>
       <c r="T394" s="2"/>
     </row>
-    <row r="395" ht="15.75" spans="18:20">
+    <row r="395" spans="18:20" ht="15.75">
       <c r="R395" s="2"/>
       <c r="S395" s="2"/>
       <c r="T395" s="2"/>
     </row>
-    <row r="396" ht="15.75" spans="18:20">
+    <row r="396" spans="18:20" ht="15.75">
       <c r="R396" s="2"/>
       <c r="S396" s="2"/>
       <c r="T396" s="2"/>
     </row>
-    <row r="397" ht="15.75" spans="18:20">
+    <row r="397" spans="18:20" ht="15.75">
       <c r="R397" s="2"/>
       <c r="S397" s="2"/>
       <c r="T397" s="2"/>
     </row>
-    <row r="398" ht="15.75" spans="18:20">
+    <row r="398" spans="18:20" ht="15.75">
       <c r="R398" s="2"/>
       <c r="S398" s="2"/>
       <c r="T398" s="2"/>
     </row>
-    <row r="399" ht="15.75" spans="18:20">
+    <row r="399" spans="18:20" ht="15.75">
       <c r="R399" s="2"/>
       <c r="S399" s="2"/>
       <c r="T399" s="2"/>
     </row>
-    <row r="400" ht="15.75" spans="18:20">
+    <row r="400" spans="18:20" ht="15.75">
       <c r="R400" s="2"/>
       <c r="S400" s="2"/>
       <c r="T400" s="2"/>
     </row>
-    <row r="401" ht="15.75" spans="18:20">
+    <row r="401" spans="18:20" ht="15.75">
       <c r="R401" s="2"/>
       <c r="S401" s="2"/>
       <c r="T401" s="2"/>
     </row>
-    <row r="402" ht="15.75" spans="18:20">
+    <row r="402" spans="18:20" ht="15.75">
       <c r="R402" s="2"/>
       <c r="S402" s="2"/>
       <c r="T402" s="2"/>
     </row>
-    <row r="403" ht="15.75" spans="18:20">
+    <row r="403" spans="18:20" ht="15.75">
       <c r="R403" s="2"/>
       <c r="S403" s="2"/>
       <c r="T403" s="2"/>
     </row>
-    <row r="404" ht="15.75" spans="18:20">
+    <row r="404" spans="18:20" ht="15.75">
       <c r="R404" s="2"/>
       <c r="S404" s="2"/>
       <c r="T404" s="2"/>
     </row>
-    <row r="405" ht="15.75" spans="18:20">
+    <row r="405" spans="18:20" ht="15.75">
       <c r="R405" s="2"/>
       <c r="S405" s="2"/>
       <c r="T405" s="2"/>
     </row>
-    <row r="406" ht="15.75" spans="18:20">
+    <row r="406" spans="18:20" ht="15.75">
       <c r="R406" s="2"/>
       <c r="S406" s="2"/>
       <c r="T406" s="2"/>
     </row>
-    <row r="407" ht="15.75" spans="18:20">
+    <row r="407" spans="18:20" ht="15.75">
       <c r="R407" s="2"/>
       <c r="S407" s="2"/>
       <c r="T407" s="2"/>
     </row>
-    <row r="408" ht="15.75" spans="18:20">
+    <row r="408" spans="18:20" ht="15.75">
       <c r="R408" s="2"/>
       <c r="S408" s="2"/>
       <c r="T408" s="2"/>
     </row>
-    <row r="409" ht="15.75" spans="18:20">
+    <row r="409" spans="18:20" ht="15.75">
       <c r="R409" s="2"/>
       <c r="S409" s="2"/>
       <c r="T409" s="2"/>
     </row>
-    <row r="410" ht="15.75" spans="18:20">
+    <row r="410" spans="18:20" ht="15.75">
       <c r="R410" s="2"/>
       <c r="S410" s="2"/>
       <c r="T410" s="2"/>
     </row>
-    <row r="411" ht="15.75" spans="18:20">
+    <row r="411" spans="18:20" ht="15.75">
       <c r="R411" s="2"/>
       <c r="S411" s="2"/>
       <c r="T411" s="2"/>
     </row>
-    <row r="412" ht="15.75" spans="18:20">
+    <row r="412" spans="18:20" ht="15.75">
       <c r="R412" s="2"/>
       <c r="S412" s="2"/>
       <c r="T412" s="2"/>
     </row>
-    <row r="413" ht="15.75" spans="18:20">
+    <row r="413" spans="18:20" ht="15.75">
       <c r="R413" s="2"/>
       <c r="S413" s="2"/>
       <c r="T413" s="2"/>
     </row>
-    <row r="414" ht="15.75" spans="18:20">
+    <row r="414" spans="18:20" ht="15.75">
       <c r="R414" s="2"/>
       <c r="S414" s="2"/>
       <c r="T414" s="2"/>
     </row>
-    <row r="415" ht="15.75" spans="18:20">
+    <row r="415" spans="18:20" ht="15.75">
       <c r="R415" s="2"/>
       <c r="S415" s="2"/>
       <c r="T415" s="2"/>
     </row>
-    <row r="416" ht="15.75" spans="18:20">
+    <row r="416" spans="18:20" ht="15.75">
       <c r="R416" s="2"/>
       <c r="S416" s="2"/>
       <c r="T416" s="2"/>
     </row>
-    <row r="417" ht="15.75" spans="18:20">
+    <row r="417" spans="18:20" ht="15.75">
       <c r="R417" s="2"/>
       <c r="S417" s="2"/>
       <c r="T417" s="2"/>
     </row>
-    <row r="418" ht="15.75" spans="18:20">
+    <row r="418" spans="18:20" ht="15.75">
       <c r="R418" s="2"/>
       <c r="S418" s="2"/>
       <c r="T418" s="2"/>
     </row>
-    <row r="419" ht="15.75" spans="18:20">
+    <row r="419" spans="18:20" ht="15.75">
       <c r="R419" s="2"/>
       <c r="S419" s="2"/>
       <c r="T419" s="2"/>
     </row>
-    <row r="420" ht="15.75" spans="18:20">
+    <row r="420" spans="18:20" ht="15.75">
       <c r="R420" s="2"/>
       <c r="S420" s="2"/>
       <c r="T420" s="2"/>
     </row>
-    <row r="421" ht="15.75" spans="18:20">
+    <row r="421" spans="18:20" ht="15.75">
       <c r="R421" s="2"/>
       <c r="S421" s="2"/>
       <c r="T421" s="2"/>
     </row>
-    <row r="422" ht="15.75" spans="18:20">
+    <row r="422" spans="18:20" ht="15.75">
       <c r="R422" s="2"/>
       <c r="S422" s="2"/>
       <c r="T422" s="2"/>
     </row>
-    <row r="423" ht="15.75" spans="18:20">
+    <row r="423" spans="18:20" ht="15.75">
       <c r="R423" s="2"/>
       <c r="S423" s="2"/>
       <c r="T423" s="2"/>
     </row>
-    <row r="424" ht="15.75" spans="18:20">
+    <row r="424" spans="18:20" ht="15.75">
       <c r="R424" s="2"/>
       <c r="S424" s="2"/>
       <c r="T424" s="2"/>
     </row>
-    <row r="425" ht="15.75" spans="18:20">
+    <row r="425" spans="18:20" ht="15.75">
       <c r="R425" s="2"/>
       <c r="S425" s="2"/>
       <c r="T425" s="2"/>
     </row>
-    <row r="426" ht="15.75" spans="18:20">
+    <row r="426" spans="18:20" ht="15.75">
       <c r="R426" s="2"/>
       <c r="S426" s="2"/>
       <c r="T426" s="2"/>
     </row>
-    <row r="427" ht="15.75" spans="18:20">
+    <row r="427" spans="18:20" ht="15.75">
       <c r="R427" s="2"/>
       <c r="S427" s="2"/>
       <c r="T427" s="2"/>
     </row>
-    <row r="428" ht="15.75" spans="18:20">
+    <row r="428" spans="18:20" ht="15.75">
       <c r="R428" s="2"/>
       <c r="S428" s="2"/>
       <c r="T428" s="2"/>
     </row>
-    <row r="429" ht="15.75" spans="18:20">
+    <row r="429" spans="18:20" ht="15.75">
       <c r="R429" s="2"/>
       <c r="S429" s="2"/>
       <c r="T429" s="2"/>
     </row>
-    <row r="430" ht="15.75" spans="18:20">
+    <row r="430" spans="18:20" ht="15.75">
       <c r="R430" s="2"/>
       <c r="S430" s="2"/>
       <c r="T430" s="2"/>
     </row>
-    <row r="431" ht="15.75" spans="18:20">
+    <row r="431" spans="18:20" ht="15.75">
       <c r="R431" s="2"/>
       <c r="S431" s="2"/>
       <c r="T431" s="2"/>
     </row>
-    <row r="432" ht="15.75" spans="18:20">
+    <row r="432" spans="18:20" ht="15.75">
       <c r="R432" s="2"/>
       <c r="S432" s="2"/>
       <c r="T432" s="2"/>
     </row>
-    <row r="433" ht="15.75" spans="18:20">
+    <row r="433" spans="18:20" ht="15.75">
       <c r="R433" s="2"/>
       <c r="S433" s="2"/>
       <c r="T433" s="2"/>
     </row>
-    <row r="434" ht="15.75" spans="18:20">
+    <row r="434" spans="18:20" ht="15.75">
       <c r="R434" s="2"/>
       <c r="S434" s="2"/>
       <c r="T434" s="2"/>
     </row>
-    <row r="435" ht="15.75" spans="18:20">
+    <row r="435" spans="18:20" ht="15.75">
       <c r="R435" s="2"/>
       <c r="S435" s="2"/>
       <c r="T435" s="2"/>
     </row>
-    <row r="436" ht="15.75" spans="18:20">
+    <row r="436" spans="18:20" ht="15.75">
       <c r="R436" s="2"/>
       <c r="S436" s="2"/>
       <c r="T436" s="2"/>
     </row>
-    <row r="437" ht="15.75" spans="18:20">
+    <row r="437" spans="18:20" ht="15.75">
       <c r="R437" s="2"/>
       <c r="S437" s="2"/>
       <c r="T437" s="2"/>
     </row>
-    <row r="438" ht="15.75" spans="18:20">
+    <row r="438" spans="18:20" ht="15.75">
       <c r="R438" s="2"/>
       <c r="S438" s="2"/>
       <c r="T438" s="2"/>
     </row>
-    <row r="439" ht="15.75" spans="18:20">
+    <row r="439" spans="18:20" ht="15.75">
       <c r="R439" s="2"/>
       <c r="S439" s="2"/>
       <c r="T439" s="2"/>
     </row>
-    <row r="440" ht="15.75" spans="18:20">
+    <row r="440" spans="18:20" ht="15.75">
       <c r="R440" s="2"/>
       <c r="S440" s="2"/>
       <c r="T440" s="2"/>
     </row>
-    <row r="441" ht="15.75" spans="18:20">
+    <row r="441" spans="18:20" ht="15.75">
       <c r="R441" s="2"/>
       <c r="S441" s="2"/>
       <c r="T441" s="2"/>
     </row>
-    <row r="442" ht="15.75" spans="18:20">
+    <row r="442" spans="18:20" ht="15.75">
       <c r="R442" s="2"/>
       <c r="S442" s="2"/>
       <c r="T442" s="2"/>
     </row>
-    <row r="443" ht="15.75" spans="18:20">
+    <row r="443" spans="18:20" ht="15.75">
       <c r="R443" s="2"/>
       <c r="S443" s="2"/>
       <c r="T443" s="2"/>
     </row>
-    <row r="444" ht="15.75" spans="18:20">
+    <row r="444" spans="18:20" ht="15.75">
       <c r="R444" s="2"/>
       <c r="S444" s="2"/>
       <c r="T444" s="2"/>
     </row>
-    <row r="445" ht="15.75" spans="18:20">
+    <row r="445" spans="18:20" ht="15.75">
       <c r="R445" s="2"/>
       <c r="S445" s="2"/>
       <c r="T445" s="2"/>
     </row>
-    <row r="446" ht="15.75" spans="18:20">
+    <row r="446" spans="18:20" ht="15.75">
       <c r="R446" s="2"/>
       <c r="S446" s="2"/>
       <c r="T446" s="2"/>
     </row>
-    <row r="447" ht="15.75" spans="18:20">
+    <row r="447" spans="18:20" ht="15.75">
       <c r="R447" s="2"/>
       <c r="S447" s="2"/>
       <c r="T447" s="2"/>
     </row>
-    <row r="448" ht="15.75" spans="18:20">
+    <row r="448" spans="18:20" ht="15.75">
       <c r="R448" s="2"/>
       <c r="S448" s="2"/>
       <c r="T448" s="2"/>
     </row>
-    <row r="449" ht="15.75" spans="18:20">
+    <row r="449" spans="18:20" ht="15.75">
       <c r="R449" s="2"/>
       <c r="S449" s="2"/>
       <c r="T449" s="2"/>
     </row>
-    <row r="450" ht="15.75" spans="18:20">
+    <row r="450" spans="18:20" ht="15.75">
       <c r="R450" s="2"/>
       <c r="S450" s="2"/>
       <c r="T450" s="2"/>
     </row>
-    <row r="451" ht="15.75" spans="18:20">
+    <row r="451" spans="18:20" ht="15.75">
       <c r="R451" s="2"/>
       <c r="S451" s="2"/>
       <c r="T451" s="2"/>
     </row>
-    <row r="452" ht="15.75" spans="18:20">
+    <row r="452" spans="18:20" ht="15.75">
       <c r="R452" s="2"/>
       <c r="S452" s="2"/>
       <c r="T452" s="2"/>
     </row>
-    <row r="453" ht="15.75" spans="18:20">
+    <row r="453" spans="18:20" ht="15.75">
       <c r="R453" s="2"/>
       <c r="S453" s="2"/>
       <c r="T453" s="2"/>
     </row>
-    <row r="454" ht="15.75" spans="18:20">
+    <row r="454" spans="18:20" ht="15.75">
       <c r="R454" s="2"/>
       <c r="S454" s="2"/>
       <c r="T454" s="2"/>
     </row>
-    <row r="455" ht="15.75" spans="18:20">
+    <row r="455" spans="18:20" ht="15.75">
       <c r="R455" s="2"/>
       <c r="S455" s="2"/>
       <c r="T455" s="2"/>
     </row>
-    <row r="456" ht="15.75" spans="18:20">
+    <row r="456" spans="18:20" ht="15.75">
       <c r="R456" s="2"/>
       <c r="S456" s="2"/>
       <c r="T456" s="2"/>
     </row>
-    <row r="457" ht="15.75" spans="18:20">
+    <row r="457" spans="18:20" ht="15.75">
       <c r="R457" s="2"/>
       <c r="S457" s="2"/>
       <c r="T457" s="2"/>
     </row>
-    <row r="458" ht="15.75" spans="18:20">
+    <row r="458" spans="18:20" ht="15.75">
       <c r="R458" s="2"/>
       <c r="S458" s="2"/>
       <c r="T458" s="2"/>
     </row>
-    <row r="459" ht="15.75" spans="18:20">
+    <row r="459" spans="18:20" ht="15.75">
       <c r="R459" s="2"/>
       <c r="S459" s="2"/>
       <c r="T459" s="2"/>
     </row>
-    <row r="460" ht="15.75" spans="18:20">
+    <row r="460" spans="18:20" ht="15.75">
       <c r="R460" s="2"/>
       <c r="S460" s="2"/>
       <c r="T460" s="2"/>
     </row>
-    <row r="461" ht="15.75" spans="18:20">
+    <row r="461" spans="18:20" ht="15.75">
       <c r="R461" s="2"/>
       <c r="S461" s="2"/>
       <c r="T461" s="2"/>
     </row>
-    <row r="462" ht="15.75" spans="18:20">
+    <row r="462" spans="18:20" ht="15.75">
       <c r="R462" s="2"/>
       <c r="S462" s="2"/>
       <c r="T462" s="2"/>
     </row>
-    <row r="463" ht="15.75" spans="18:20">
+    <row r="463" spans="18:20" ht="15.75">
       <c r="R463" s="2"/>
       <c r="S463" s="2"/>
       <c r="T463" s="2"/>
     </row>
-    <row r="464" ht="15.75" spans="18:20">
+    <row r="464" spans="18:20" ht="15.75">
       <c r="R464" s="2"/>
       <c r="S464" s="2"/>
       <c r="T464" s="2"/>
     </row>
-    <row r="465" ht="15.75" spans="18:20">
+    <row r="465" spans="18:20" ht="15.75">
       <c r="R465" s="2"/>
       <c r="S465" s="2"/>
       <c r="T465" s="2"/>
     </row>
-    <row r="466" ht="15.75" spans="18:20">
+    <row r="466" spans="18:20" ht="15.75">
       <c r="R466" s="2"/>
       <c r="S466" s="2"/>
       <c r="T466" s="2"/>
     </row>
-    <row r="467" ht="15.75" spans="18:20">
+    <row r="467" spans="18:20" ht="15.75">
       <c r="R467" s="2"/>
       <c r="S467" s="2"/>
       <c r="T467" s="2"/>
     </row>
-    <row r="468" ht="15.75" spans="18:20">
+    <row r="468" spans="18:20" ht="15.75">
       <c r="R468" s="2"/>
       <c r="S468" s="2"/>
       <c r="T468" s="2"/>
     </row>
-    <row r="469" ht="15.75" spans="18:20">
+    <row r="469" spans="18:20" ht="15.75">
       <c r="R469" s="2"/>
       <c r="S469" s="2"/>
       <c r="T469" s="2"/>
     </row>
-    <row r="470" ht="15.75" spans="18:20">
+    <row r="470" spans="18:20" ht="15.75">
       <c r="R470" s="2"/>
       <c r="S470" s="2"/>
       <c r="T470" s="2"/>
     </row>
-    <row r="471" ht="15.75" spans="18:20">
+    <row r="471" spans="18:20" ht="15.75">
       <c r="R471" s="2"/>
       <c r="S471" s="2"/>
       <c r="T471" s="2"/>
     </row>
-    <row r="472" ht="15.75" spans="18:20">
+    <row r="472" spans="18:20" ht="15.75">
       <c r="R472" s="2"/>
       <c r="S472" s="2"/>
       <c r="T472" s="2"/>
     </row>
-    <row r="473" ht="15.75" spans="18:20">
+    <row r="473" spans="18:20" ht="15.75">
       <c r="R473" s="2"/>
       <c r="S473" s="2"/>
       <c r="T473" s="2"/>
     </row>
-    <row r="474" ht="15.75" spans="18:20">
+    <row r="474" spans="18:20" ht="15.75">
       <c r="R474" s="2"/>
       <c r="S474" s="2"/>
       <c r="T474" s="2"/>
     </row>
-    <row r="475" ht="15.75" spans="18:20">
+    <row r="475" spans="18:20" ht="15.75">
       <c r="R475" s="2"/>
       <c r="S475" s="2"/>
       <c r="T475" s="2"/>
     </row>
-    <row r="476" ht="15.75" spans="18:20">
+    <row r="476" spans="18:20" ht="15.75">
       <c r="R476" s="2"/>
       <c r="S476" s="2"/>
       <c r="T476" s="2"/>
     </row>
-    <row r="477" ht="15.75" spans="18:20">
+    <row r="477" spans="18:20" ht="15.75">
       <c r="R477" s="2"/>
       <c r="S477" s="2"/>
       <c r="T477" s="2"/>
     </row>
-    <row r="478" ht="15.75" spans="18:20">
+    <row r="478" spans="18:20" ht="15.75">
       <c r="R478" s="2"/>
       <c r="S478" s="2"/>
       <c r="T478" s="2"/>
     </row>
-    <row r="479" ht="15.75" spans="18:20">
+    <row r="479" spans="18:20" ht="15.75">
       <c r="R479" s="2"/>
       <c r="S479" s="2"/>
       <c r="T479" s="2"/>
     </row>
-    <row r="480" ht="15.75" spans="18:20">
+    <row r="480" spans="18:20" ht="15.75">
       <c r="R480" s="2"/>
       <c r="S480" s="2"/>
       <c r="T480" s="2"/>
     </row>
-    <row r="481" ht="15.75" spans="18:20">
+    <row r="481" spans="18:20" ht="15.75">
       <c r="R481" s="2"/>
       <c r="S481" s="2"/>
       <c r="T481" s="2"/>
     </row>
-    <row r="482" ht="15.75" spans="18:20">
+    <row r="482" spans="18:20" ht="15.75">
       <c r="R482" s="2"/>
       <c r="S482" s="2"/>
       <c r="T482" s="2"/>
     </row>
-    <row r="483" ht="15.75" spans="18:20">
+    <row r="483" spans="18:20" ht="15.75">
       <c r="R483" s="2"/>
       <c r="S483" s="2"/>
       <c r="T483" s="2"/>
     </row>
-    <row r="484" ht="15.75" spans="18:20">
+    <row r="484" spans="18:20" ht="15.75">
       <c r="R484" s="2"/>
       <c r="S484" s="2"/>
       <c r="T484" s="2"/>
     </row>
-    <row r="485" ht="15.75" spans="18:20">
+    <row r="485" spans="18:20" ht="15.75">
       <c r="R485" s="2"/>
       <c r="S485" s="2"/>
       <c r="T485" s="2"/>
     </row>
-    <row r="486" ht="15.75" spans="18:20">
+    <row r="486" spans="18:20" ht="15.75">
       <c r="R486" s="2"/>
       <c r="S486" s="2"/>
       <c r="T486" s="2"/>
     </row>
-    <row r="487" ht="15.75" spans="18:20">
+    <row r="487" spans="18:20" ht="15.75">
       <c r="R487" s="2"/>
       <c r="S487" s="2"/>
       <c r="T487" s="2"/>
     </row>
-    <row r="488" ht="15.75" spans="18:20">
+    <row r="488" spans="18:20" ht="15.75">
       <c r="R488" s="2"/>
       <c r="S488" s="2"/>
       <c r="T488" s="2"/>
     </row>
-    <row r="489" ht="15.75" spans="18:20">
+    <row r="489" spans="18:20" ht="15.75">
       <c r="R489" s="2"/>
       <c r="S489" s="2"/>
       <c r="T489" s="2"/>
     </row>
-    <row r="490" ht="15.75" spans="18:20">
+    <row r="490" spans="18:20" ht="15.75">
       <c r="R490" s="2"/>
       <c r="S490" s="2"/>
       <c r="T490" s="2"/>
     </row>
-    <row r="491" ht="15.75" spans="18:20">
+    <row r="491" spans="18:20" ht="15.75">
       <c r="R491" s="2"/>
       <c r="S491" s="2"/>
       <c r="T491" s="2"/>
     </row>
-    <row r="492" ht="15.75" spans="18:20">
+    <row r="492" spans="18:20" ht="15.75">
       <c r="R492" s="2"/>
       <c r="S492" s="2"/>
       <c r="T492" s="2"/>
     </row>
-    <row r="493" ht="15.75" spans="18:20">
+    <row r="493" spans="18:20" ht="15.75">
       <c r="R493" s="2"/>
       <c r="S493" s="2"/>
       <c r="T493" s="2"/>
     </row>
-    <row r="494" ht="15.75" spans="18:20">
+    <row r="494" spans="18:20" ht="15.75">
       <c r="R494" s="2"/>
       <c r="S494" s="2"/>
       <c r="T494" s="2"/>
     </row>
-    <row r="495" ht="15.75" spans="18:20">
+    <row r="495" spans="18:20" ht="15.75">
       <c r="R495" s="2"/>
       <c r="S495" s="2"/>
       <c r="T495" s="2"/>
     </row>
-    <row r="496" ht="15.75" spans="18:20">
+    <row r="496" spans="18:20" ht="15.75">
       <c r="R496" s="2"/>
       <c r="S496" s="2"/>
       <c r="T496" s="2"/>
     </row>
-    <row r="497" ht="15.75" spans="18:20">
+    <row r="497" spans="18:20" ht="15.75">
       <c r="R497" s="2"/>
       <c r="S497" s="2"/>
       <c r="T497" s="2"/>
     </row>
-    <row r="498" ht="15.75" spans="18:20">
+    <row r="498" spans="18:20" ht="15.75">
       <c r="R498" s="2"/>
       <c r="S498" s="2"/>
       <c r="T498" s="2"/>
     </row>
-    <row r="499" ht="15.75" spans="18:20">
+    <row r="499" spans="18:20" ht="15.75">
       <c r="R499" s="2"/>
       <c r="S499" s="2"/>
       <c r="T499" s="2"/>
     </row>
-    <row r="500" ht="15.75" spans="18:20">
+    <row r="500" spans="18:20" ht="15.75">
       <c r="R500" s="2"/>
       <c r="S500" s="2"/>
       <c r="T500" s="2"/>
     </row>
-    <row r="501" ht="15.75" spans="18:20">
+    <row r="501" spans="18:20" ht="15.75">
       <c r="R501" s="2"/>
       <c r="S501" s="2"/>
       <c r="T501" s="2"/>
     </row>
-    <row r="502" ht="15.75" spans="18:20">
+    <row r="502" spans="18:20" ht="15.75">
       <c r="R502" s="2"/>
       <c r="S502" s="2"/>
       <c r="T502" s="2"/>
     </row>
-    <row r="503" ht="15.75" spans="18:20">
+    <row r="503" spans="18:20" ht="15.75">
       <c r="R503" s="2"/>
       <c r="S503" s="2"/>
       <c r="T503" s="2"/>
     </row>
-    <row r="504" ht="15.75" spans="18:20">
+    <row r="504" spans="18:20" ht="15.75">
       <c r="R504" s="2"/>
       <c r="S504" s="2"/>
       <c r="T504" s="2"/>
     </row>
-    <row r="505" ht="15.75" spans="18:20">
+    <row r="505" spans="18:20" ht="15.75">
       <c r="R505" s="2"/>
       <c r="S505" s="2"/>
       <c r="T505" s="2"/>
     </row>
-    <row r="506" ht="15.75" spans="18:20">
+    <row r="506" spans="18:20" ht="15.75">
       <c r="R506" s="2"/>
       <c r="S506" s="2"/>
       <c r="T506" s="2"/>
     </row>
-    <row r="507" ht="15.75" spans="18:20">
+    <row r="507" spans="18:20" ht="15.75">
       <c r="R507" s="2"/>
       <c r="S507" s="2"/>
       <c r="T507" s="2"/>
     </row>
-    <row r="508" ht="15.75" spans="18:20">
+    <row r="508" spans="18:20" ht="15.75">
       <c r="R508" s="2"/>
       <c r="S508" s="2"/>
       <c r="T508" s="2"/>
     </row>
-    <row r="509" ht="15.75" spans="18:20">
+    <row r="509" spans="18:20" ht="15.75">
       <c r="R509" s="2"/>
       <c r="S509" s="2"/>
       <c r="T509" s="2"/>
     </row>
-    <row r="510" ht="15.75" spans="18:20">
+    <row r="510" spans="18:20" ht="15.75">
       <c r="R510" s="2"/>
       <c r="S510" s="2"/>
       <c r="T510" s="2"/>
     </row>
-    <row r="511" ht="15.75" spans="18:20">
+    <row r="511" spans="18:20" ht="15.75">
       <c r="R511" s="2"/>
       <c r="S511" s="2"/>
       <c r="T511" s="2"/>
     </row>
-    <row r="512" ht="15.75" spans="18:20">
+    <row r="512" spans="18:20" ht="15.75">
       <c r="R512" s="2"/>
       <c r="S512" s="2"/>
       <c r="T512" s="2"/>
     </row>
-    <row r="513" ht="15.75" spans="18:20">
+    <row r="513" spans="18:20" ht="15.75">
       <c r="R513" s="2"/>
       <c r="S513" s="2"/>
       <c r="T513" s="2"/>
     </row>
-    <row r="514" ht="15.75" spans="18:20">
+    <row r="514" spans="18:20" ht="15.75">
       <c r="R514" s="2"/>
       <c r="S514" s="2"/>
       <c r="T514" s="2"/>
     </row>
-    <row r="515" ht="15.75" spans="18:20">
+    <row r="515" spans="18:20" ht="15.75">
       <c r="R515" s="2"/>
       <c r="S515" s="2"/>
       <c r="T515" s="2"/>
     </row>
-    <row r="516" ht="15.75" spans="18:20">
+    <row r="516" spans="18:20" ht="15.75">
       <c r="R516" s="2"/>
       <c r="S516" s="2"/>
       <c r="T516" s="2"/>
     </row>
-    <row r="517" ht="15.75" spans="18:20">
+    <row r="517" spans="18:20" ht="15.75">
       <c r="R517" s="2"/>
       <c r="S517" s="2"/>
       <c r="T517" s="2"/>
     </row>
-    <row r="518" ht="15.75" spans="18:20">
+    <row r="518" spans="18:20" ht="15.75">
       <c r="R518" s="2"/>
       <c r="S518" s="2"/>
       <c r="T518" s="2"/>
     </row>
-    <row r="519" ht="15.75" spans="18:20">
+    <row r="519" spans="18:20" ht="15.75">
       <c r="R519" s="2"/>
       <c r="S519" s="2"/>
       <c r="T519" s="2"/>
     </row>
-    <row r="520" ht="15.75" spans="18:20">
+    <row r="520" spans="18:20" ht="15.75">
       <c r="R520" s="2"/>
       <c r="S520" s="2"/>
       <c r="T520" s="2"/>
     </row>
-    <row r="521" ht="15.75" spans="18:20">
+    <row r="521" spans="18:20" ht="15.75">
       <c r="R521" s="2"/>
       <c r="S521" s="2"/>
       <c r="T521" s="2"/>
     </row>
-    <row r="522" ht="15.75" spans="18:20">
+    <row r="522" spans="18:20" ht="15.75">
       <c r="R522" s="2"/>
       <c r="S522" s="2"/>
       <c r="T522" s="2"/>
     </row>
-    <row r="523" ht="15.75" spans="18:20">
+    <row r="523" spans="18:20" ht="15.75">
       <c r="R523" s="2"/>
       <c r="S523" s="2"/>
       <c r="T523" s="2"/>
     </row>
-    <row r="524" ht="15.75" spans="18:20">
+    <row r="524" spans="18:20" ht="15.75">
       <c r="R524" s="2"/>
       <c r="S524" s="2"/>
       <c r="T524" s="2"/>
     </row>
-    <row r="525" ht="15.75" spans="18:20">
+    <row r="525" spans="18:20" ht="15.75">
       <c r="R525" s="2"/>
       <c r="S525" s="2"/>
       <c r="T525" s="2"/>
     </row>
-    <row r="526" ht="15.75" spans="18:20">
+    <row r="526" spans="18:20" ht="15.75">
       <c r="R526" s="2"/>
       <c r="S526" s="2"/>
       <c r="T526" s="2"/>
     </row>
-    <row r="527" ht="15.75" spans="18:20">
+    <row r="527" spans="18:20" ht="15.75">
       <c r="R527" s="2"/>
       <c r="S527" s="2"/>
       <c r="T527" s="2"/>
     </row>
-    <row r="528" ht="15.75" spans="18:20">
+    <row r="528" spans="18:20" ht="15.75">
       <c r="R528" s="2"/>
       <c r="S528" s="2"/>
       <c r="T528" s="2"/>
     </row>
-    <row r="529" ht="15.75" spans="18:20">
+    <row r="529" spans="18:20" ht="15.75">
       <c r="R529" s="2"/>
       <c r="S529" s="2"/>
       <c r="T529" s="2"/>
     </row>
-    <row r="530" ht="15.75" spans="18:20">
+    <row r="530" spans="18:20" ht="15.75">
       <c r="R530" s="2"/>
       <c r="S530" s="2"/>
       <c r="T530" s="2"/>
     </row>
-    <row r="531" ht="15.75" spans="18:20">
+    <row r="531" spans="18:20" ht="15.75">
       <c r="R531" s="2"/>
       <c r="S531" s="2"/>
       <c r="T531" s="2"/>
     </row>
-    <row r="532" ht="15.75" spans="18:20">
+    <row r="532" spans="18:20" ht="15.75">
       <c r="R532" s="2"/>
       <c r="S532" s="2"/>
       <c r="T532" s="2"/>
     </row>
-    <row r="533" ht="15.75" spans="18:20">
+    <row r="533" spans="18:20" ht="15.75">
       <c r="R533" s="2"/>
       <c r="S533" s="2"/>
       <c r="T533" s="2"/>
     </row>
-    <row r="534" ht="15.75" spans="18:20">
+    <row r="534" spans="18:20" ht="15.75">
       <c r="R534" s="2"/>
       <c r="S534" s="2"/>
       <c r="T534" s="2"/>
     </row>
-    <row r="535" ht="15.75" spans="18:20">
+    <row r="535" spans="18:20" ht="15.75">
       <c r="R535" s="2"/>
       <c r="S535" s="2"/>
       <c r="T535" s="2"/>
     </row>
-    <row r="536" ht="15.75" spans="18:20">
+    <row r="536" spans="18:20" ht="15.75">
       <c r="R536" s="2"/>
       <c r="S536" s="2"/>
       <c r="T536" s="2"/>
     </row>
-    <row r="537" ht="15.75" spans="18:20">
+    <row r="537" spans="18:20" ht="15.75">
       <c r="R537" s="2"/>
       <c r="S537" s="2"/>
       <c r="T537" s="2"/>
     </row>
-    <row r="538" ht="15.75" spans="18:20">
+    <row r="538" spans="18:20" ht="15.75">
       <c r="R538" s="2"/>
       <c r="S538" s="2"/>
       <c r="T538" s="2"/>
     </row>
-    <row r="539" ht="15.75" spans="18:20">
+    <row r="539" spans="18:20" ht="15.75">
       <c r="R539" s="2"/>
       <c r="S539" s="2"/>
       <c r="T539" s="2"/>
     </row>
-    <row r="540" ht="15.75" spans="18:20">
+    <row r="540" spans="18:20" ht="15.75">
       <c r="R540" s="2"/>
       <c r="S540" s="2"/>
       <c r="T540" s="2"/>
     </row>
-    <row r="541" ht="15.75" spans="18:20">
+    <row r="541" spans="18:20" ht="15.75">
       <c r="R541" s="2"/>
       <c r="S541" s="2"/>
       <c r="T541" s="2"/>
     </row>
-    <row r="542" ht="15.75" spans="18:20">
+    <row r="542" spans="18:20" ht="15.75">
       <c r="R542" s="2"/>
       <c r="S542" s="2"/>
       <c r="T542" s="2"/>
     </row>
-    <row r="543" ht="15.75" spans="18:20">
+    <row r="543" spans="18:20" ht="15.75">
       <c r="R543" s="2"/>
       <c r="S543" s="2"/>
       <c r="T543" s="2"/>
     </row>
-    <row r="544" ht="15.75" spans="18:20">
+    <row r="544" spans="18:20" ht="15.75">
       <c r="R544" s="2"/>
       <c r="S544" s="2"/>
       <c r="T544" s="2"/>
     </row>
-    <row r="545" ht="15.75" spans="18:20">
+    <row r="545" spans="18:20" ht="15.75">
       <c r="R545" s="2"/>
       <c r="S545" s="2"/>
       <c r="T545" s="2"/>
     </row>
-    <row r="546" ht="15.75" spans="18:20">
+    <row r="546" spans="18:20" ht="15.75">
       <c r="R546" s="2"/>
       <c r="S546" s="2"/>
       <c r="T546" s="2"/>
     </row>
-    <row r="547" ht="15.75" spans="18:20">
+    <row r="547" spans="18:20" ht="15.75">
       <c r="R547" s="2"/>
       <c r="S547" s="2"/>
       <c r="T547" s="2"/>
     </row>
-    <row r="548" ht="15.75" spans="18:20">
+    <row r="548" spans="18:20" ht="15.75">
       <c r="R548" s="2"/>
       <c r="S548" s="2"/>
       <c r="T548" s="2"/>
     </row>
-    <row r="549" ht="15.75" spans="18:20">
+    <row r="549" spans="18:20" ht="15.75">
       <c r="R549" s="2"/>
       <c r="S549" s="2"/>
       <c r="T549" s="2"/>
     </row>
-    <row r="550" ht="15.75" spans="18:20">
+    <row r="550" spans="18:20" ht="15.75">
       <c r="R550" s="2"/>
       <c r="S550" s="2"/>
       <c r="T550" s="2"/>
     </row>
-    <row r="551" ht="15.75" spans="18:20">
+    <row r="551" spans="18:20" ht="15.75">
       <c r="R551" s="2"/>
       <c r="S551" s="2"/>
       <c r="T551" s="2"/>
     </row>
-    <row r="552" ht="15.75" spans="18:20">
+    <row r="552" spans="18:20" ht="15.75">
       <c r="R552" s="2"/>
       <c r="S552" s="2"/>
       <c r="T552" s="2"/>
     </row>
-    <row r="553" ht="15.75" spans="18:20">
+    <row r="553" spans="18:20" ht="15.75">
       <c r="R553" s="2"/>
       <c r="S553" s="2"/>
       <c r="T553" s="2"/>
     </row>
-    <row r="554" ht="15.75" spans="18:20">
+    <row r="554" spans="18:20" ht="15.75">
       <c r="R554" s="2"/>
       <c r="S554" s="2"/>
       <c r="T554" s="2"/>
     </row>
-    <row r="555" ht="15.75" spans="18:20">
+    <row r="555" spans="18:20" ht="15.75">
       <c r="R555" s="2"/>
       <c r="S555" s="2"/>
       <c r="T555" s="2"/>
     </row>
-    <row r="556" ht="15.75" spans="18:20">
+    <row r="556" spans="18:20" ht="15.75">
       <c r="R556" s="2"/>
       <c r="S556" s="2"/>
       <c r="T556" s="2"/>
     </row>
-    <row r="557" ht="15.75" spans="18:20">
+    <row r="557" spans="18:20" ht="15.75">
       <c r="R557" s="2"/>
       <c r="S557" s="2"/>
       <c r="T557" s="2"/>
     </row>
-    <row r="558" ht="15.75" spans="18:20">
+    <row r="558" spans="18:20" ht="15.75">
       <c r="R558" s="2"/>
       <c r="S558" s="2"/>
       <c r="T558" s="2"/>
     </row>
-    <row r="559" ht="15.75" spans="18:20">
+    <row r="559" spans="18:20" ht="15.75">
       <c r="R559" s="2"/>
       <c r="S559" s="2"/>
       <c r="T559" s="2"/>
     </row>
-    <row r="560" ht="15.75" spans="18:20">
+    <row r="560" spans="18:20" ht="15.75">
       <c r="R560" s="2"/>
       <c r="S560" s="2"/>
       <c r="T560" s="2"/>
     </row>
-    <row r="561" ht="15.75" spans="18:20">
+    <row r="561" spans="18:20" ht="15.75">
       <c r="R561" s="2"/>
       <c r="S561" s="2"/>
       <c r="T561" s="2"/>
     </row>
-    <row r="562" ht="15.75" spans="18:20">
+    <row r="562" spans="18:20" ht="15.75">
       <c r="R562" s="2"/>
       <c r="S562" s="2"/>
       <c r="T562" s="2"/>
     </row>
-    <row r="563" ht="15.75" spans="18:20">
+    <row r="563" spans="18:20" ht="15.75">
       <c r="R563" s="2"/>
       <c r="S563" s="2"/>
       <c r="T563" s="2"/>
     </row>
-    <row r="564" ht="15.75" spans="18:20">
+    <row r="564" spans="18:20" ht="15.75">
       <c r="R564" s="2"/>
       <c r="S564" s="2"/>
       <c r="T564" s="2"/>
     </row>
-    <row r="565" ht="15.75" spans="18:20">
+    <row r="565" spans="18:20" ht="15.75">
       <c r="R565" s="2"/>
       <c r="S565" s="2"/>
       <c r="T565" s="2"/>
     </row>
-    <row r="566" ht="15.75" spans="18:20">
+    <row r="566" spans="18:20" ht="15.75">
       <c r="R566" s="2"/>
       <c r="S566" s="2"/>
       <c r="T566" s="2"/>
     </row>
-    <row r="567" ht="15.75" spans="18:20">
+    <row r="567" spans="18:20" ht="15.75">
       <c r="R567" s="2"/>
       <c r="S567" s="2"/>
       <c r="T567" s="2"/>
     </row>
-    <row r="568" ht="15.75" spans="18:20">
+    <row r="568" spans="18:20" ht="15.75">
       <c r="R568" s="2"/>
       <c r="S568" s="2"/>
       <c r="T568" s="2"/>
     </row>
-    <row r="569" ht="15.75" spans="18:20">
+    <row r="569" spans="18:20" ht="15.75">
       <c r="R569" s="2"/>
       <c r="S569" s="2"/>
       <c r="T569" s="2"/>
     </row>
-    <row r="570" ht="15.75" spans="18:20">
+    <row r="570" spans="18:20" ht="15.75">
       <c r="R570" s="2"/>
       <c r="S570" s="2"/>
       <c r="T570" s="2"/>
     </row>
-    <row r="571" ht="15.75" spans="18:20">
+    <row r="571" spans="18:20" ht="15.75">
       <c r="R571" s="2"/>
       <c r="S571" s="2"/>
       <c r="T571" s="2"/>
     </row>
-    <row r="572" ht="15.75" spans="18:20">
+    <row r="572" spans="18:20" ht="15.75">
       <c r="R572" s="2"/>
       <c r="S572" s="2"/>
       <c r="T572" s="2"/>
     </row>
-    <row r="573" ht="15.75" spans="18:20">
+    <row r="573" spans="18:20" ht="15.75">
       <c r="R573" s="2"/>
       <c r="S573" s="2"/>
       <c r="T573" s="2"/>
     </row>
-    <row r="574" ht="15.75" spans="18:20">
+    <row r="574" spans="18:20" ht="15.75">
       <c r="R574" s="2"/>
       <c r="S574" s="2"/>
       <c r="T574" s="2"/>
     </row>
-    <row r="575" ht="15.75" spans="18:20">
+    <row r="575" spans="18:20" ht="15.75">
       <c r="R575" s="2"/>
       <c r="S575" s="2"/>
       <c r="T575" s="2"/>
     </row>
-    <row r="576" ht="15.75" spans="18:20">
+    <row r="576" spans="18:20" ht="15.75">
       <c r="R576" s="2"/>
       <c r="S576" s="2"/>
       <c r="T576" s="2"/>
     </row>
-    <row r="577" ht="15.75" spans="18:20">
+    <row r="577" spans="18:20" ht="15.75">
       <c r="R577" s="2"/>
       <c r="S577" s="2"/>
       <c r="T577" s="2"/>
     </row>
-    <row r="578" ht="15.75" spans="18:20">
+    <row r="578" spans="18:20" ht="15.75">
       <c r="R578" s="2"/>
       <c r="S578" s="2"/>
       <c r="T578" s="2"/>
     </row>
-    <row r="579" ht="15.75" spans="18:20">
+    <row r="579" spans="18:20" ht="15.75">
       <c r="R579" s="2"/>
       <c r="S579" s="2"/>
       <c r="T579" s="2"/>
     </row>
-    <row r="580" ht="15.75" spans="18:20">
+    <row r="580" spans="18:20" ht="15.75">
       <c r="R580" s="2"/>
       <c r="S580" s="2"/>
       <c r="T580" s="2"/>
     </row>
-    <row r="581" ht="15.75" spans="18:20">
+    <row r="581" spans="18:20" ht="15.75">
       <c r="R581" s="2"/>
       <c r="S581" s="2"/>
       <c r="T581" s="2"/>
     </row>
-    <row r="582" ht="15.75" spans="18:20">
+    <row r="582" spans="18:20" ht="15.75">
       <c r="R582" s="2"/>
       <c r="S582" s="2"/>
       <c r="T582" s="2"/>
     </row>
-    <row r="583" ht="15.75" spans="18:20">
+    <row r="583" spans="18:20" ht="15.75">
       <c r="R583" s="2"/>
       <c r="S583" s="2"/>
       <c r="T583" s="2"/>
     </row>
-    <row r="584" ht="15.75" spans="18:20">
+    <row r="584" spans="18:20" ht="15.75">
       <c r="R584" s="2"/>
       <c r="S584" s="2"/>
       <c r="T584" s="2"/>
     </row>
-    <row r="585" ht="15.75" spans="18:20">
+    <row r="585" spans="18:20" ht="15.75">
       <c r="R585" s="2"/>
       <c r="S585" s="2"/>
       <c r="T585" s="2"/>
     </row>
-    <row r="586" ht="15.75" spans="18:20">
+    <row r="586" spans="18:20" ht="15.75">
       <c r="R586" s="2"/>
       <c r="S586" s="2"/>
       <c r="T586" s="2"/>
     </row>
-    <row r="587" ht="15.75" spans="18:20">
+    <row r="587" spans="18:20" ht="15.75">
       <c r="R587" s="2"/>
       <c r="S587" s="2"/>
       <c r="T587" s="2"/>
     </row>
-    <row r="588" ht="15.75" spans="18:20">
+    <row r="588" spans="18:20" ht="15.75">
       <c r="R588" s="2"/>
       <c r="S588" s="2"/>
       <c r="T588" s="2"/>
     </row>
-    <row r="589" ht="15.75" spans="18:20">
+    <row r="589" spans="18:20" ht="15.75">
       <c r="R589" s="2"/>
       <c r="S589" s="2"/>
       <c r="T589" s="2"/>
     </row>
-    <row r="590" ht="15.75" spans="18:20">
+    <row r="590" spans="18:20" ht="15.75">
       <c r="R590" s="2"/>
       <c r="S590" s="2"/>
       <c r="T590" s="2"/>
     </row>
-    <row r="591" ht="15.75" spans="18:20">
+    <row r="591" spans="18:20" ht="15.75">
       <c r="R591" s="2"/>
       <c r="S591" s="2"/>
       <c r="T591" s="2"/>
     </row>
-    <row r="592" ht="15.75" spans="18:20">
+    <row r="592" spans="18:20" ht="15.75">
       <c r="R592" s="2"/>
       <c r="S592" s="2"/>
       <c r="T592" s="2"/>
     </row>
-    <row r="593" ht="15.75" spans="18:20">
+    <row r="593" spans="18:20" ht="15.75">
       <c r="R593" s="2"/>
       <c r="S593" s="2"/>
       <c r="T593" s="2"/>
     </row>
-    <row r="594" ht="15.75" spans="18:20">
+    <row r="594" spans="18:20" ht="15.75">
       <c r="R594" s="2"/>
       <c r="S594" s="2"/>
       <c r="T594" s="2"/>
     </row>
-    <row r="595" ht="15.75" spans="18:20">
+    <row r="595" spans="18:20" ht="15.75">
       <c r="R595" s="2"/>
       <c r="S595" s="2"/>
       <c r="T595" s="2"/>
     </row>
-    <row r="596" ht="15.75" spans="18:20">
+    <row r="596" spans="18:20" ht="15.75">
       <c r="R596" s="2"/>
       <c r="S596" s="2"/>
       <c r="T596" s="2"/>
     </row>
-    <row r="597" ht="15.75" spans="18:20">
+    <row r="597" spans="18:20" ht="15.75">
       <c r="R597" s="2"/>
       <c r="S597" s="2"/>
       <c r="T597" s="2"/>
     </row>
-    <row r="598" ht="15.75" spans="18:20">
+    <row r="598" spans="18:20" ht="15.75">
       <c r="R598" s="2"/>
       <c r="S598" s="2"/>
       <c r="T598" s="2"/>
     </row>
-    <row r="599" ht="15.75" spans="18:20">
+    <row r="599" spans="18:20" ht="15.75">
       <c r="R599" s="2"/>
       <c r="S599" s="2"/>
       <c r="T599" s="2"/>
     </row>
-    <row r="600" ht="15.75" spans="18:20">
+    <row r="600" spans="18:20" ht="15.75">
       <c r="R600" s="2"/>
       <c r="S600" s="2"/>
       <c r="T600" s="2"/>
     </row>
-    <row r="601" ht="15.75" spans="18:20">
+    <row r="601" spans="18:20" ht="15.75">
       <c r="R601" s="2"/>
       <c r="S601" s="2"/>
       <c r="T601" s="2"/>
     </row>
-    <row r="602" ht="15.75" spans="18:20">
+    <row r="602" spans="18:20" ht="15.75">
       <c r="R602" s="2"/>
       <c r="S602" s="2"/>
       <c r="T602" s="2"/>
     </row>
-    <row r="603" ht="15.75" spans="18:20">
+    <row r="603" spans="18:20" ht="15.75">
       <c r="R603" s="2"/>
       <c r="S603" s="2"/>
       <c r="T603" s="2"/>
     </row>
-    <row r="604" ht="15.75" spans="18:20">
+    <row r="604" spans="18:20" ht="15.75">
       <c r="R604" s="2"/>
       <c r="S604" s="2"/>
       <c r="T604" s="2"/>
     </row>
-    <row r="605" ht="15.75" spans="18:20">
+    <row r="605" spans="18:20" ht="15.75">
       <c r="R605" s="2"/>
       <c r="S605" s="2"/>
       <c r="T605" s="2"/>
     </row>
-    <row r="606" ht="15.75" spans="18:20">
+    <row r="606" spans="18:20" ht="15.75">
       <c r="R606" s="2"/>
       <c r="S606" s="2"/>
       <c r="T606" s="2"/>
     </row>
-    <row r="607" ht="15.75" spans="18:20">
-      <c r="R607" s="2"/>
-      <c r="S607" s="2"/>
-      <c r="T607" s="2"/>
-    </row>
-    <row r="608" ht="15.75" spans="18:20">
-      <c r="R608" s="2"/>
-      <c r="S608" s="2"/>
-      <c r="T608" s="2"/>
-    </row>
-    <row r="609" ht="15.75" spans="18:20">
-      <c r="R609" s="2"/>
-      <c r="S609" s="2"/>
-      <c r="T609" s="2"/>
-    </row>
-    <row r="610" ht="15.75" spans="18:20">
-      <c r="R610" s="2"/>
-      <c r="S610" s="2"/>
-      <c r="T610" s="2"/>
-    </row>
-    <row r="611" ht="15.75" spans="18:20">
-      <c r="R611" s="2"/>
-      <c r="S611" s="2"/>
-      <c r="T611" s="2"/>
-    </row>
-    <row r="612" ht="15.75" spans="18:20">
-      <c r="R612" s="2"/>
-      <c r="S612" s="2"/>
-      <c r="T612" s="2"/>
-    </row>
-    <row r="613" ht="15.75" spans="18:20">
-      <c r="R613" s="2"/>
-      <c r="S613" s="2"/>
-      <c r="T613" s="2"/>
-    </row>
-    <row r="614" ht="15.75" spans="18:20">
-      <c r="R614" s="2"/>
-      <c r="S614" s="2"/>
-      <c r="T614" s="2"/>
-    </row>
-    <row r="615" ht="15.75" spans="18:20">
-      <c r="R615" s="2"/>
-      <c r="S615" s="2"/>
-      <c r="T615" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" display="View PDF"/>
-    <hyperlink ref="S2" r:id="rId2" display="View Approved Plan"/>
-    <hyperlink ref="T2" r:id="rId3" display="View Approval Letter"/>
-    <hyperlink ref="R3" r:id="rId4" display="View PDF"/>
-    <hyperlink ref="S3" r:id="rId5" display="View Approved Plan"/>
-    <hyperlink ref="T11" r:id="rId6" display="View Approval Letter"/>
-    <hyperlink ref="S11" r:id="rId7" display="View Approved Plan"/>
-    <hyperlink ref="R11" r:id="rId8" display="View PDF"/>
-    <hyperlink ref="T10" r:id="rId9" display="View Approval Letter"/>
-    <hyperlink ref="S10" r:id="rId10" display="View Approved Plan"/>
-    <hyperlink ref="R10" r:id="rId11" display="View PDF"/>
-    <hyperlink ref="T9" r:id="rId12" display="View Approval Letter"/>
-    <hyperlink ref="S9" r:id="rId13" display="View Approved Plan"/>
-    <hyperlink ref="R9" r:id="rId14" display="View PDF"/>
-    <hyperlink ref="T8" r:id="rId15" display="View Approval Letter"/>
-    <hyperlink ref="S8" r:id="rId16" display="View Approved Plan"/>
-    <hyperlink ref="R8" r:id="rId17" display="View PDF"/>
-    <hyperlink ref="T7" r:id="rId18" display="View Approval Letter"/>
-    <hyperlink ref="S7" r:id="rId19" display="View Approved Plan"/>
-    <hyperlink ref="R7" r:id="rId20" display="View PDF"/>
-    <hyperlink ref="T6" r:id="rId21" display="View Approval Letter"/>
-    <hyperlink ref="S6" r:id="rId22" display="View Approved Plan"/>
-    <hyperlink ref="R6" r:id="rId23" display="View PDF"/>
-    <hyperlink ref="T5" r:id="rId24" display="View Approval Letter"/>
-    <hyperlink ref="S5" r:id="rId25" display="View Approved Plan"/>
-    <hyperlink ref="R5" r:id="rId26" display="View PDF"/>
-    <hyperlink ref="T4" r:id="rId27" display="View Approval Letter"/>
-    <hyperlink ref="S4" r:id="rId28" display="View Approved Plan"/>
-    <hyperlink ref="R4" r:id="rId29" display="View PDF"/>
-    <hyperlink ref="T3" r:id="rId30" display="View Approval Letter"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="T2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Original_Data_Set.xlsx
+++ b/Original_Data_Set.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95D0AE3-E425-48F6-8A13-52E634F9E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Permit Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="151">
   <si>
     <t>File No.</t>
   </si>
@@ -144,13 +138,361 @@
   </si>
   <si>
     <t>View Approval Letter</t>
+  </si>
+  <si>
+    <t>CMDA/PP/NHRB/S/0178/2024</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0103/2025</t>
+  </si>
+  <si>
+    <t>OL-01666</t>
+  </si>
+  <si>
+    <t>25-03-2025</t>
+  </si>
+  <si>
+    <t>04/03/2024</t>
+  </si>
+  <si>
+    <t>9840699226</t>
+  </si>
+  <si>
+    <t>sreepathyestates@gmail.com</t>
+  </si>
+  <si>
+    <t>R Revathikumar and Others</t>
+  </si>
+  <si>
+    <t>7 &amp; 8, Flat No. A2, Ram Nagar 8th Street, Nanganallur, Chennai, Adambakkam</t>
+  </si>
+  <si>
+    <t>Planning Permission for the proposed construction of Stilt floor + 5 floors (18.30m - Height) Residential Building with 13 dwelling units Availing Premium FSI with TOD Benefit</t>
+  </si>
+  <si>
+    <t>13 dwelling units</t>
+  </si>
+  <si>
+    <t>Pot Nos.7 &amp; 8, 8th Street, Ram Nagar, Nanganallur, Chennai 600061 comprised in Old S.Nos.93 (Document), and T.S.No.53 &amp; 54, Block No.14, Ward-E of Adambakkam Village, Alandur Taluk within the limit of Greater Chennai Corporation</t>
+  </si>
+  <si>
+    <t>CMDA/PP/NHRB/S/0630/2024</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0025/2025</t>
+  </si>
+  <si>
+    <t>OL-01532</t>
+  </si>
+  <si>
+    <t>29-01-2025</t>
+  </si>
+  <si>
+    <t>11/09/2024</t>
+  </si>
+  <si>
+    <t>8754580801</t>
+  </si>
+  <si>
+    <t>athulyamenterprises@gmail.com</t>
+  </si>
+  <si>
+    <t>ATHULYAM ENTERPRISES PVT LTD Rep by Its Director Mr Krishnan</t>
+  </si>
+  <si>
+    <t>5/8, 1, Thiruveethi amman koil street, R A Puram, Mandaiveli, Adambakkam</t>
+  </si>
+  <si>
+    <t>Proposed construction of Stilt floor + 4 floors(Height - 15.25) Residential Building with 11 dwelling units Availing Premium FSI with TOD Benefit</t>
+  </si>
+  <si>
+    <t>11 dwelling units</t>
+  </si>
+  <si>
+    <t>Door No.5, Plot No.11, 5th street, Ram Nagar, Naganallur,Chennai-61 comprised in S.No.96/7 and T.S.No.34/2, Block No.15, Ward E of Adambakkam village within the limits of Greater Chennai Corporation</t>
+  </si>
+  <si>
+    <t>CMDA/PP/NHRB/S/0085/2025</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0218/2025</t>
+  </si>
+  <si>
+    <t>OL-01869</t>
+  </si>
+  <si>
+    <t>11-06-2025</t>
+  </si>
+  <si>
+    <t>06/02/2025</t>
+  </si>
+  <si>
+    <t>7092245303</t>
+  </si>
+  <si>
+    <t>aperiasamy@gmail.com</t>
+  </si>
+  <si>
+    <t>PERIASAMY ARNASALAM PILLAY AND P GEETHA</t>
+  </si>
+  <si>
+    <t>7, NIL, MARUTHAI AVENUE, OFF RANJITH ROAD, KOTTURPURAM, Adyar</t>
+  </si>
+  <si>
+    <t>Proposed construction of Stilt floor+ 3 floors Residential Building (Height-14.00 m) 6 Dwelling units</t>
+  </si>
+  <si>
+    <t>6 Dwelling units</t>
+  </si>
+  <si>
+    <t>Plot No.6 &amp; 103pt, Door No.7, Maruthai Avenue, Ranjith Cross Street, Kotturpuram, Chennai-600085 comprised in Old T.S.No 7 part and T.S.No.7/25 , 7/32, Block No.14 of Adyar Village within the limits of Greater Chennai Corporation</t>
+  </si>
+  <si>
+    <t>Adyar</t>
+  </si>
+  <si>
+    <t>CMDA/PP/NHRB/S/0939/2024</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0214/2025</t>
+  </si>
+  <si>
+    <t>OL-01865</t>
+  </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
+  <si>
+    <t>9393000305</t>
+  </si>
+  <si>
+    <t>siva1956@gmail.com</t>
+  </si>
+  <si>
+    <t>Ascendant Realty LLP</t>
+  </si>
+  <si>
+    <t>New No.82, Old No.195, St. Mary's Road, Alwarpet, Chennai 600018, Mylapore</t>
+  </si>
+  <si>
+    <t>Proposed construction of Stilt Floor + 5 Floors (Height - 18.30m) Residential Building with 15 Dwelling units Availing Premium FSI with TOD Benefit</t>
+  </si>
+  <si>
+    <t>15 Dwelling units</t>
+  </si>
+  <si>
+    <t>New Door No.16, Old Door No.39, Bheemanna Garden Street, Alwarpet, Chennai - 600 018, comprised in R.S.No.3631/17, Block No.72, Mylapore (Part 2) Village within the Limits of Greater Chennai Corporation</t>
+  </si>
+  <si>
+    <t>Alwarpet</t>
+  </si>
+  <si>
+    <t>CMDA/PP/NHRB/N/0070/2025</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0131/2025</t>
+  </si>
+  <si>
+    <t>OL-01715</t>
+  </si>
+  <si>
+    <t>16-04-2025</t>
+  </si>
+  <si>
+    <t>03/02/2025</t>
+  </si>
+  <si>
+    <t>9841576016</t>
+  </si>
+  <si>
+    <t>rahulassociates@yahoo.com</t>
+  </si>
+  <si>
+    <t>RAHUL FLAT DEVELOPERS PRIVATE LIMITED REP BY R R SHRIDHAR 1403, 1403, 1403 H BLOCK 15th MAIN ROAD, ANNA</t>
+  </si>
+  <si>
+    <t>NAGAR, ANNA NAGAR, Ambattur</t>
+  </si>
+  <si>
+    <t>Proposed construction of Stilt Floor (parking) + 4 Floors (Height-15m) Residential Building with 8 dwelling units</t>
+  </si>
+  <si>
+    <t>Plot No.A1/1, Thiruvengadam Nagar, West End Road, Ambattur Village, Chennai - 600053, Comprised in Old S.No.588/1part and T.S.No.2/2, Block No.5, Ward B of Ambattur Village within the limits of Greater Chennai Corporation</t>
+  </si>
+  <si>
+    <t>Ambattur</t>
+  </si>
+  <si>
+    <t>CMDA/PP/NHRB/N/0348/2025</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0379/2025</t>
+  </si>
+  <si>
+    <t>OL-02179</t>
+  </si>
+  <si>
+    <t>29-09-2025</t>
+  </si>
+  <si>
+    <t>16/05/2025</t>
+  </si>
+  <si>
+    <t>9941606946</t>
+  </si>
+  <si>
+    <t>darumugam7040@gmail.com</t>
+  </si>
+  <si>
+    <t>MS MALAINUR PROPERTIES PVT LTD REP BY ITS DIRECTOR MR D ARUMUGAM GPA</t>
+  </si>
+  <si>
+    <t>79, NA, PALARU STREET, PALANIAPPA NAGAR, VALASARAVAKKAM CHENNAI 600087, Aminjikarai</t>
+  </si>
+  <si>
+    <t>Proposed Construction of Stilt Floor (parking) + 5 Floors Residential Building (Height -18.30m) with 10 Dwelling units, Availing Premium FSI with TOD Benefit</t>
+  </si>
+  <si>
+    <t>10 Dwelling units</t>
+  </si>
+  <si>
+    <t>At Plot No: 146, Old Door No: 63/9 , New Door No: 19, Gajapathy Street, (Gajapathy Naidu Street) LakshmiPuram, Shenoy Nagar Aminjilkarai ,Chennai, Comprised in Old S.NO: 34/9, and T.S.No: 61, Block No:20, Ward -01 of Aminjikarai Village within the limits of Greater Chennai Corporation</t>
+  </si>
+  <si>
+    <t>Aminjikarai</t>
+  </si>
+  <si>
+    <t>CMDA/PP/NHRB/N/0414/2025</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0337/2025</t>
+  </si>
+  <si>
+    <t>OL-02080</t>
+  </si>
+  <si>
+    <t>28-08-2025</t>
+  </si>
+  <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>9841691118</t>
+  </si>
+  <si>
+    <t>pamaniraja1@gmail.com</t>
+  </si>
+  <si>
+    <t>D SRIDHAR AND SIX OTHERS OLD</t>
+  </si>
+  <si>
+    <t>2 NEW3, NIL, DAMODHARAN STREET, , T NAGAR, Kolapakkam</t>
+  </si>
+  <si>
+    <t>Proposed construction of Stilt Floor (parking) + 4 Floors Residential building (16.00m Height) with 8 dwelling units</t>
+  </si>
+  <si>
+    <t>At Door No.22, New Door No.6, Devakiammal Street, Lakshmipuram, Shenoy Nagar, Chennai 600030 Comprised in Old S.No.23/1pt, T.S.No.17, Block No.18, ward No.1, of Aminjikarai Village within the limits of Greater Chennai Corporation</t>
+  </si>
+  <si>
+    <t>CMDA/PP/NHRB/S/0333/2024</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0069/2025</t>
+  </si>
+  <si>
+    <t>OL-01601</t>
+  </si>
+  <si>
+    <t>28-02-2025</t>
+  </si>
+  <si>
+    <t>13/05/2024</t>
+  </si>
+  <si>
+    <t>9500070392</t>
+  </si>
+  <si>
+    <t>sakar@casagrand.co.in</t>
+  </si>
+  <si>
+    <t>Casagrand Stage Seven Pvt Ltd</t>
+  </si>
+  <si>
+    <t>111, 111, Chengalpattu, , THIRUVANMIYUR, Polichalur, Tamil$Nadu</t>
+  </si>
+  <si>
+    <t>Proposed construction of Residential Group Housing Development consisting of Combined Basement floor with 13 Blocks; Block 1: combined Basement floor + Ground floor + 4 floors + 5th floor (Part) (18.15m height) Residential Building with 106 Dwelling units with Board Games room, Video Games room, AV room, Yoga room, Badminton room, Squash room, Kids Play room, Fitness room, Aerobics room; Block 2: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 137 dwelling units; Block 3: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 48 dwelling units; Block 4: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 60 dwelling units; Block 5 combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 24 dwelling units; Block 6: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 66 dwelling units; Block 7: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 36 dwelling units; Block 8: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 156 dwelling units; Block 9: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 53 dwelling units; Block 10: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 143 dwelling units; Block 11: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 147 dwelling units; Block 12: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 185 dwelling units; Block 13: combined Basement floor + Ground floor + 5 floors (18.15m height) Residential Building with 153 dwelling units; Totally 1314 Dwelling units with 2Nos of Swimming pool at Ground floor level</t>
+  </si>
+  <si>
+    <t>106 Dwelling units</t>
+  </si>
+  <si>
+    <t>At Bajanai Koil Street, S.No.105/1, 110/7, 111, 112 &amp; 113/1 of Anakaputhur Village Within the Limits of Tambaram Corporation and S.No.254/1, 254/2, 254/3, 255, 256/1, 256/2, 257, 258/1A, 258/1B, 258/2, 259/1, 259/2, 260/1, 260/3, 260/4, 260/5, 261, 262, 263, 265/1, 265/2, 267, 269/1, 269/2A, 269/3, 270/3, 271/1, 271/2, 271/10 of Pozhichallur Village, Within the Limits of St.Thomas Mount Panchayat Union</t>
+  </si>
+  <si>
+    <t>Anakaputhur</t>
+  </si>
+  <si>
+    <t>CMDA/PP/HRB/S/0197/2024</t>
+  </si>
+  <si>
+    <t>OL-PP/HRB/0012/2025</t>
+  </si>
+  <si>
+    <t>OL-01701</t>
+  </si>
+  <si>
+    <t>08-04-2025</t>
+  </si>
+  <si>
+    <t>12/03/2024</t>
+  </si>
+  <si>
+    <t>8870170039</t>
+  </si>
+  <si>
+    <t>vidhyaganesh5692@gmail.com</t>
+  </si>
+  <si>
+    <t>KRISHNAIAH PROJECTS PRIVATE LIMITED rep by its S Ganesh GPA NA, NA, Bollineni Hillside, Perumbakkam</t>
+  </si>
+  <si>
+    <t>Village, Sithalapakkam Post Chennai 600126, Chennai, -, 600024</t>
+  </si>
+  <si>
+    <t>Revised Planning Permission Application is for the proposed and additional construction to the earlier approved Block Nos: A to E (Residential Blocks each with Combined B.Floor + Combined Stilt Floor + 28 Floors), Retail Block (Combined B.Floor + G.Floor + 5 Floors), Club House (Combined B.Floor + Combined Stilt Floor + 3 Floors) and School Block (consisting of Ground floor + 3 floors - Partial CC obtained). Proposed &amp; additional construction of 2nd B.Floor for the Retail Block and Combined/Extended Basement floor for the proposed additional blocks (along with already approved Blocks A, B, C, D, E, CLUB HOUSE and RETAIL BLOCK and Combined Stilt floor for BLOCK A, B, C, D, E and CLUB HOUSE Block) - F, G, H, J, K, L, M. Over &amp; above the Combined B.Floor + Combined Stilt Floor in BLOCK F: 1st floor + 19 Floors + 20th Floor Part to 28th floors Part - Residential building with 139 dwelling units, BLOCK G: 1st floor + 19 Floors + 20th Floor Part to 28th floors Part - Residential building with 139 dwelling units, BLOCK H: 1st floor + 28 floors - Residential building with 221 dwelling units, BLOCK J: 1st floor + 28 floors - Residential building with 221 dwelling units, BLOCK K: 1st floor + 28 floors - Residential building with 165 dwelling units, BLOCK L: 1st floor + 27th floors + 28th Floor Part - Residential building with 213 dwelling units, BLOCK M: 1st floor + 27th floors + 28th Floor Part - Residential building with 213 dwelling units. A separate BLOCK N: with Basement floor (for parking use) + Stilt floor (for parking use) + 1st floor + 16 floors - Residential building with 64 dwelling units. Totally 2316 dwelling units (including already approved 941 dwelling units in Block Nos. A to E), revised Retail BLOCK: with 2nd Basement floor + Combined 1st B.Floor + Ground floor + 5 floors+ 6th floor part and CLUB HOUSE Block: with Stilt Floor (For parking use) + 1st Floor + 3 Floors.</t>
+  </si>
+  <si>
+    <t>139 dwelling units</t>
+  </si>
+  <si>
+    <t>abutting Perumbakkam - Nookampalayam main road, Comprised in S.Nos: 93, 94, 95, 96, 97, 100, 101, 102, 103/1A2, 116/1B, 117/2A1, 2A2, 2B, 118/2B12, 2B13, 131/4 &amp; 131/23 of Arasankalani village and S.Nos: 443/2, 444/1 &amp; 2 of Perumbakkam village, presently Tambaram Taluk (Earlier Sholinganallur Taluk), presently Chengalpattu district (Earlier Kancheepuram district), Chennai. within the limits of St.Thomas Mount Panchayat Union.</t>
+  </si>
+  <si>
+    <t>Arasankalani</t>
+  </si>
+  <si>
+    <t>9.P.Elanchezhiyan. B.Arch.,M.T.P</t>
+  </si>
+  <si>
+    <t>CMDA Regn. No. RA/Gr.I/19/06/276, No. 14/S2, Thirumurthy Nagar, Madananda puram,, Chennai- 600 125.</t>
+  </si>
+  <si>
+    <t>elan@rspindia.net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +514,151 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +671,194 @@
         <bgColor rgb="FFFFD700"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -195,28 +866,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -501,16 +1454,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T606"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -577,7 +1530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75">
+    <row r="2" ht="15.75" spans="1:20">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -639,3032 +1592,3615 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75">
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75">
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75">
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75">
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75">
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75">
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75">
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75">
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75">
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="3" ht="15.75" spans="1:20">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:20">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:20">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:20">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:20">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:20">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:20">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:20">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:20">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s">
+        <v>146</v>
+      </c>
+      <c r="M11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P11" t="s">
+        <v>150</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="18:20">
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" ht="15.75" spans="18:20">
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" ht="15.75" spans="18:20">
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75">
+    <row r="15" ht="15.75" spans="18:20">
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" ht="15.75" spans="18:20">
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="18:20" ht="15.75">
+    <row r="17" ht="15.75" spans="18:20">
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="18:20" ht="15.75">
+    <row r="18" ht="15.75" spans="18:20">
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="18:20" ht="15.75">
+    <row r="19" ht="15.75" spans="18:20">
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="18:20" ht="15.75">
+    <row r="20" ht="15.75" spans="18:20">
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="18:20" ht="15.75">
+    <row r="21" ht="15.75" spans="18:20">
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="18:20" ht="15.75">
+    <row r="22" ht="15.75" spans="18:20">
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="18:20" ht="15.75">
+    <row r="23" ht="15.75" spans="18:20">
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="18:20" ht="15.75">
+    <row r="24" ht="15.75" spans="18:20">
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="18:20" ht="15.75">
+    <row r="25" ht="15.75" spans="18:20">
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="18:20" ht="15.75">
+    <row r="26" ht="15.75" spans="18:20">
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="18:20" ht="15.75">
+    <row r="27" ht="15.75" spans="18:20">
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="18:20" ht="15.75">
+    <row r="28" ht="15.75" spans="18:20">
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="18:20" ht="15.75">
+    <row r="29" ht="15.75" spans="18:20">
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="18:20" ht="15.75">
+    <row r="30" ht="15.75" spans="18:20">
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="18:20" ht="15.75">
+    <row r="31" ht="15.75" spans="18:20">
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="18:20" ht="15.75">
+    <row r="32" ht="15.75" spans="18:20">
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="18:20" ht="15.75">
+    <row r="33" ht="15.75" spans="18:20">
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="18:20" ht="15.75">
+    <row r="34" ht="15.75" spans="18:20">
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="18:20" ht="15.75">
+    <row r="35" ht="15.75" spans="18:20">
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="18:20" ht="15.75">
+    <row r="36" ht="15.75" spans="18:20">
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="18:20" ht="15.75">
+    <row r="37" ht="15.75" spans="18:20">
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="18:20" ht="15.75">
+    <row r="38" ht="15.75" spans="18:20">
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="18:20" ht="15.75">
+    <row r="39" ht="15.75" spans="18:20">
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="18:20" ht="15.75">
+    <row r="40" ht="15.75" spans="18:20">
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="18:20" ht="15.75">
+    <row r="41" ht="15.75" spans="18:20">
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="18:20" ht="15.75">
+    <row r="42" ht="15.75" spans="18:20">
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="18:20" ht="15.75">
+    <row r="43" ht="15.75" spans="18:20">
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="18:20" ht="15.75">
+    <row r="44" ht="15.75" spans="18:20">
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="18:20" ht="15.75">
+    <row r="45" ht="15.75" spans="18:20">
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="18:20" ht="15.75">
+    <row r="46" ht="15.75" spans="18:20">
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="18:20" ht="15.75">
+    <row r="47" ht="15.75" spans="18:20">
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="18:20" ht="15.75">
+    <row r="48" ht="15.75" spans="18:20">
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="18:20" ht="15.75">
+    <row r="49" ht="15.75" spans="18:20">
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="18:20" ht="15.75">
+    <row r="50" ht="15.75" spans="18:20">
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="18:20" ht="15.75">
+    <row r="51" ht="15.75" spans="18:20">
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="18:20" ht="15.75">
+    <row r="52" ht="15.75" spans="18:20">
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="18:20" ht="15.75">
+    <row r="53" ht="15.75" spans="18:20">
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="18:20" ht="15.75">
+    <row r="54" ht="15.75" spans="18:20">
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="18:20" ht="15.75">
+    <row r="55" ht="15.75" spans="18:20">
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="18:20" ht="15.75">
+    <row r="56" ht="15.75" spans="18:20">
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="18:20" ht="15.75">
+    <row r="57" ht="15.75" spans="18:20">
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="18:20" ht="15.75">
+    <row r="58" ht="15.75" spans="18:20">
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="18:20" ht="15.75">
+    <row r="59" ht="15.75" spans="18:20">
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="18:20" ht="15.75">
+    <row r="60" ht="15.75" spans="18:20">
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="18:20" ht="15.75">
+    <row r="61" ht="15.75" spans="18:20">
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="18:20" ht="15.75">
+    <row r="62" ht="15.75" spans="18:20">
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="18:20" ht="15.75">
+    <row r="63" ht="15.75" spans="18:20">
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="18:20" ht="15.75">
+    <row r="64" ht="15.75" spans="18:20">
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="18:20" ht="15.75">
+    <row r="65" ht="15.75" spans="18:20">
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="18:20" ht="15.75">
+    <row r="66" ht="15.75" spans="18:20">
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="18:20" ht="15.75">
+    <row r="67" ht="15.75" spans="18:20">
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="18:20" ht="15.75">
+    <row r="68" ht="15.75" spans="18:20">
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="18:20" ht="15.75">
+    <row r="69" ht="15.75" spans="18:20">
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="18:20" ht="15.75">
+    <row r="70" ht="15.75" spans="18:20">
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="18:20" ht="15.75">
+    <row r="71" ht="15.75" spans="18:20">
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="18:20" ht="15.75">
+    <row r="72" ht="15.75" spans="18:20">
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="18:20" ht="15.75">
+    <row r="73" ht="15.75" spans="18:20">
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="18:20" ht="15.75">
+    <row r="74" ht="15.75" spans="18:20">
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="18:20" ht="15.75">
+    <row r="75" ht="15.75" spans="18:20">
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="18:20" ht="15.75">
+    <row r="76" ht="15.75" spans="18:20">
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="18:20" ht="15.75">
+    <row r="77" ht="15.75" spans="18:20">
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="18:20" ht="15.75">
+    <row r="78" ht="15.75" spans="18:20">
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="18:20" ht="15.75">
+    <row r="79" ht="15.75" spans="18:20">
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="18:20" ht="15.75">
+    <row r="80" ht="15.75" spans="18:20">
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="18:20" ht="15.75">
+    <row r="81" ht="15.75" spans="18:20">
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="18:20" ht="15.75">
+    <row r="82" ht="15.75" spans="18:20">
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="18:20" ht="15.75">
+    <row r="83" ht="15.75" spans="18:20">
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="18:20" ht="15.75">
+    <row r="84" ht="15.75" spans="18:20">
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="18:20" ht="15.75">
+    <row r="85" ht="15.75" spans="18:20">
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="18:20" ht="15.75">
+    <row r="86" ht="15.75" spans="18:20">
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="18:20" ht="15.75">
+    <row r="87" ht="15.75" spans="18:20">
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="18:20" ht="15.75">
+    <row r="88" ht="15.75" spans="18:20">
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="18:20" ht="15.75">
+    <row r="89" ht="15.75" spans="18:20">
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="18:20" ht="15.75">
+    <row r="90" ht="15.75" spans="18:20">
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="18:20" ht="15.75">
+    <row r="91" ht="15.75" spans="18:20">
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="18:20" ht="15.75">
+    <row r="92" ht="15.75" spans="18:20">
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="18:20" ht="15.75">
+    <row r="93" ht="15.75" spans="18:20">
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="18:20" ht="15.75">
+    <row r="94" ht="15.75" spans="18:20">
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="18:20" ht="15.75">
+    <row r="95" ht="15.75" spans="18:20">
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="18:20" ht="15.75">
+    <row r="96" ht="15.75" spans="18:20">
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="18:20" ht="15.75">
+    <row r="97" ht="15.75" spans="18:20">
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="18:20" ht="15.75">
+    <row r="98" ht="15.75" spans="18:20">
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="18:20" ht="15.75">
+    <row r="99" ht="15.75" spans="18:20">
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="18:20" ht="15.75">
+    <row r="100" ht="15.75" spans="18:20">
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="18:20" ht="15.75">
+    <row r="101" ht="15.75" spans="18:20">
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="18:20" ht="15.75">
+    <row r="102" ht="15.75" spans="18:20">
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="18:20" ht="15.75">
+    <row r="103" ht="15.75" spans="18:20">
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="18:20" ht="15.75">
+    <row r="104" ht="15.75" spans="18:20">
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="18:20" ht="15.75">
+    <row r="105" ht="15.75" spans="18:20">
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="18:20" ht="15.75">
+    <row r="106" ht="15.75" spans="18:20">
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="18:20" ht="15.75">
+    <row r="107" ht="15.75" spans="18:20">
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="18:20" ht="15.75">
+    <row r="108" ht="15.75" spans="18:20">
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="18:20" ht="15.75">
+    <row r="109" ht="15.75" spans="18:20">
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="18:20" ht="15.75">
+    <row r="110" ht="15.75" spans="18:20">
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="18:20" ht="15.75">
+    <row r="111" ht="15.75" spans="18:20">
       <c r="R111" s="2"/>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="18:20" ht="15.75">
+    <row r="112" ht="15.75" spans="18:20">
       <c r="R112" s="2"/>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="18:20" ht="15.75">
+    <row r="113" ht="15.75" spans="18:20">
       <c r="R113" s="2"/>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="18:20" ht="15.75">
+    <row r="114" ht="15.75" spans="18:20">
       <c r="R114" s="2"/>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="18:20" ht="15.75">
+    <row r="115" ht="15.75" spans="18:20">
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="18:20" ht="15.75">
+    <row r="116" ht="15.75" spans="18:20">
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="18:20" ht="15.75">
+    <row r="117" ht="15.75" spans="18:20">
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="18:20" ht="15.75">
+    <row r="118" ht="15.75" spans="18:20">
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="18:20" ht="15.75">
+    <row r="119" ht="15.75" spans="18:20">
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="18:20" ht="15.75">
+    <row r="120" ht="15.75" spans="18:20">
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="18:20" ht="15.75">
+    <row r="121" ht="15.75" spans="18:20">
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="18:20" ht="15.75">
+    <row r="122" ht="15.75" spans="18:20">
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="18:20" ht="15.75">
+    <row r="123" ht="15.75" spans="18:20">
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="18:20" ht="15.75">
+    <row r="124" ht="15.75" spans="18:20">
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="18:20" ht="15.75">
+    <row r="125" ht="15.75" spans="18:20">
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="18:20" ht="15.75">
+    <row r="126" ht="15.75" spans="18:20">
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="18:20" ht="15.75">
+    <row r="127" ht="15.75" spans="18:20">
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="18:20" ht="15.75">
+    <row r="128" ht="15.75" spans="18:20">
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="18:20" ht="15.75">
+    <row r="129" ht="15.75" spans="18:20">
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="18:20" ht="15.75">
+    <row r="130" ht="15.75" spans="18:20">
       <c r="R130" s="2"/>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="18:20" ht="15.75">
+    <row r="131" ht="15.75" spans="18:20">
       <c r="R131" s="2"/>
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="18:20" ht="15.75">
+    <row r="132" ht="15.75" spans="18:20">
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="18:20" ht="15.75">
+    <row r="133" ht="15.75" spans="18:20">
       <c r="R133" s="2"/>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="18:20" ht="15.75">
+    <row r="134" ht="15.75" spans="18:20">
       <c r="R134" s="2"/>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="18:20" ht="15.75">
+    <row r="135" ht="15.75" spans="18:20">
       <c r="R135" s="2"/>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="18:20" ht="15.75">
+    <row r="136" ht="15.75" spans="18:20">
       <c r="R136" s="2"/>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="18:20" ht="15.75">
+    <row r="137" ht="15.75" spans="18:20">
       <c r="R137" s="2"/>
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="18:20" ht="15.75">
+    <row r="138" ht="15.75" spans="18:20">
       <c r="R138" s="2"/>
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="18:20" ht="15.75">
+    <row r="139" ht="15.75" spans="18:20">
       <c r="R139" s="2"/>
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="18:20" ht="15.75">
+    <row r="140" ht="15.75" spans="18:20">
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="18:20" ht="15.75">
+    <row r="141" ht="15.75" spans="18:20">
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="18:20" ht="15.75">
+    <row r="142" ht="15.75" spans="18:20">
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="18:20" ht="15.75">
+    <row r="143" ht="15.75" spans="18:20">
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="18:20" ht="15.75">
+    <row r="144" ht="15.75" spans="18:20">
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="18:20" ht="15.75">
+    <row r="145" ht="15.75" spans="18:20">
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="18:20" ht="15.75">
+    <row r="146" ht="15.75" spans="18:20">
       <c r="R146" s="2"/>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="18:20" ht="15.75">
+    <row r="147" ht="15.75" spans="18:20">
       <c r="R147" s="2"/>
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="18:20" ht="15.75">
+    <row r="148" ht="15.75" spans="18:20">
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="18:20" ht="15.75">
+    <row r="149" ht="15.75" spans="18:20">
       <c r="R149" s="2"/>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="18:20" ht="15.75">
+    <row r="150" ht="15.75" spans="18:20">
       <c r="R150" s="2"/>
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="18:20" ht="15.75">
+    <row r="151" ht="15.75" spans="18:20">
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="18:20" ht="15.75">
+    <row r="152" ht="15.75" spans="18:20">
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="18:20" ht="15.75">
+    <row r="153" ht="15.75" spans="18:20">
       <c r="R153" s="2"/>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="18:20" ht="15.75">
+    <row r="154" ht="15.75" spans="18:20">
       <c r="R154" s="2"/>
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="18:20" ht="15.75">
+    <row r="155" ht="15.75" spans="18:20">
       <c r="R155" s="2"/>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="18:20" ht="15.75">
+    <row r="156" ht="15.75" spans="18:20">
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="18:20" ht="15.75">
+    <row r="157" ht="15.75" spans="18:20">
       <c r="R157" s="2"/>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="18:20" ht="15.75">
+    <row r="158" ht="15.75" spans="18:20">
       <c r="R158" s="2"/>
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="18:20" ht="15.75">
+    <row r="159" ht="15.75" spans="18:20">
       <c r="R159" s="2"/>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="18:20" ht="15.75">
+    <row r="160" ht="15.75" spans="18:20">
       <c r="R160" s="2"/>
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="18:20" ht="15.75">
+    <row r="161" ht="15.75" spans="18:20">
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="18:20" ht="15.75">
+    <row r="162" ht="15.75" spans="18:20">
       <c r="R162" s="2"/>
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="18:20" ht="15.75">
+    <row r="163" ht="15.75" spans="18:20">
       <c r="R163" s="2"/>
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="18:20" ht="15.75">
+    <row r="164" ht="15.75" spans="18:20">
       <c r="R164" s="2"/>
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="18:20" ht="15.75">
+    <row r="165" ht="15.75" spans="18:20">
       <c r="R165" s="2"/>
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="18:20" ht="15.75">
+    <row r="166" ht="15.75" spans="18:20">
       <c r="R166" s="2"/>
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="18:20" ht="15.75">
+    <row r="167" ht="15.75" spans="18:20">
       <c r="R167" s="2"/>
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="18:20" ht="15.75">
+    <row r="168" ht="15.75" spans="18:20">
       <c r="R168" s="2"/>
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="18:20" ht="15.75">
+    <row r="169" ht="15.75" spans="18:20">
       <c r="R169" s="2"/>
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="18:20" ht="15.75">
+    <row r="170" ht="15.75" spans="18:20">
       <c r="R170" s="2"/>
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="18:20" ht="15.75">
+    <row r="171" ht="15.75" spans="18:20">
       <c r="R171" s="2"/>
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="18:20" ht="15.75">
+    <row r="172" ht="15.75" spans="18:20">
       <c r="R172" s="2"/>
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="18:20" ht="15.75">
+    <row r="173" ht="15.75" spans="18:20">
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="18:20" ht="15.75">
+    <row r="174" ht="15.75" spans="18:20">
       <c r="R174" s="2"/>
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="18:20" ht="15.75">
+    <row r="175" ht="15.75" spans="18:20">
       <c r="R175" s="2"/>
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="18:20" ht="15.75">
+    <row r="176" ht="15.75" spans="18:20">
       <c r="R176" s="2"/>
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="18:20" ht="15.75">
+    <row r="177" ht="15.75" spans="18:20">
       <c r="R177" s="2"/>
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="18:20" ht="15.75">
+    <row r="178" ht="15.75" spans="18:20">
       <c r="R178" s="2"/>
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="18:20" ht="15.75">
+    <row r="179" ht="15.75" spans="18:20">
       <c r="R179" s="2"/>
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="18:20" ht="15.75">
+    <row r="180" ht="15.75" spans="18:20">
       <c r="R180" s="2"/>
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="18:20" ht="15.75">
+    <row r="181" ht="15.75" spans="18:20">
       <c r="R181" s="2"/>
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="18:20" ht="15.75">
+    <row r="182" ht="15.75" spans="18:20">
       <c r="R182" s="2"/>
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="18:20" ht="15.75">
+    <row r="183" ht="15.75" spans="18:20">
       <c r="R183" s="2"/>
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="18:20" ht="15.75">
+    <row r="184" ht="15.75" spans="18:20">
       <c r="R184" s="2"/>
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="18:20" ht="15.75">
+    <row r="185" ht="15.75" spans="18:20">
       <c r="R185" s="2"/>
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="18:20" ht="15.75">
+    <row r="186" ht="15.75" spans="18:20">
       <c r="R186" s="2"/>
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="18:20" ht="15.75">
+    <row r="187" ht="15.75" spans="18:20">
       <c r="R187" s="2"/>
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="18:20" ht="15.75">
+    <row r="188" ht="15.75" spans="18:20">
       <c r="R188" s="2"/>
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="18:20" ht="15.75">
+    <row r="189" ht="15.75" spans="18:20">
       <c r="R189" s="2"/>
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="18:20" ht="15.75">
+    <row r="190" ht="15.75" spans="18:20">
       <c r="R190" s="2"/>
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="18:20" ht="15.75">
+    <row r="191" ht="15.75" spans="18:20">
       <c r="R191" s="2"/>
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="18:20" ht="15.75">
+    <row r="192" ht="15.75" spans="18:20">
       <c r="R192" s="2"/>
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="18:20" ht="15.75">
+    <row r="193" ht="15.75" spans="18:20">
       <c r="R193" s="2"/>
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="18:20" ht="15.75">
+    <row r="194" ht="15.75" spans="18:20">
       <c r="R194" s="2"/>
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="18:20" ht="15.75">
+    <row r="195" ht="15.75" spans="18:20">
       <c r="R195" s="2"/>
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="18:20" ht="15.75">
+    <row r="196" ht="15.75" spans="18:20">
       <c r="R196" s="2"/>
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="18:20" ht="15.75">
+    <row r="197" ht="15.75" spans="18:20">
       <c r="R197" s="2"/>
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="18:20" ht="15.75">
+    <row r="198" ht="15.75" spans="18:20">
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="18:20" ht="15.75">
+    <row r="199" ht="15.75" spans="18:20">
       <c r="R199" s="2"/>
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="18:20" ht="15.75">
+    <row r="200" ht="15.75" spans="18:20">
       <c r="R200" s="2"/>
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
     </row>
-    <row r="201" spans="18:20" ht="15.75">
+    <row r="201" ht="15.75" spans="18:20">
       <c r="R201" s="2"/>
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
     </row>
-    <row r="202" spans="18:20" ht="15.75">
+    <row r="202" ht="15.75" spans="18:20">
       <c r="R202" s="2"/>
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
     </row>
-    <row r="203" spans="18:20" ht="15.75">
+    <row r="203" ht="15.75" spans="18:20">
       <c r="R203" s="2"/>
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
     </row>
-    <row r="204" spans="18:20" ht="15.75">
+    <row r="204" ht="15.75" spans="18:20">
       <c r="R204" s="2"/>
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
     </row>
-    <row r="205" spans="18:20" ht="15.75">
+    <row r="205" ht="15.75" spans="18:20">
       <c r="R205" s="2"/>
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
     </row>
-    <row r="206" spans="18:20" ht="15.75">
+    <row r="206" ht="15.75" spans="18:20">
       <c r="R206" s="2"/>
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
     </row>
-    <row r="207" spans="18:20" ht="15.75">
+    <row r="207" ht="15.75" spans="18:20">
       <c r="R207" s="2"/>
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
     </row>
-    <row r="208" spans="18:20" ht="15.75">
+    <row r="208" ht="15.75" spans="18:20">
       <c r="R208" s="2"/>
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
     </row>
-    <row r="209" spans="18:20" ht="15.75">
+    <row r="209" ht="15.75" spans="18:20">
       <c r="R209" s="2"/>
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
     </row>
-    <row r="210" spans="18:20" ht="15.75">
+    <row r="210" ht="15.75" spans="18:20">
       <c r="R210" s="2"/>
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
     </row>
-    <row r="211" spans="18:20" ht="15.75">
+    <row r="211" ht="15.75" spans="18:20">
       <c r="R211" s="2"/>
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
     </row>
-    <row r="212" spans="18:20" ht="15.75">
+    <row r="212" ht="15.75" spans="18:20">
       <c r="R212" s="2"/>
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
     </row>
-    <row r="213" spans="18:20" ht="15.75">
+    <row r="213" ht="15.75" spans="18:20">
       <c r="R213" s="2"/>
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
     </row>
-    <row r="214" spans="18:20" ht="15.75">
+    <row r="214" ht="15.75" spans="18:20">
       <c r="R214" s="2"/>
       <c r="S214" s="2"/>
       <c r="T214" s="2"/>
     </row>
-    <row r="215" spans="18:20" ht="15.75">
+    <row r="215" ht="15.75" spans="18:20">
       <c r="R215" s="2"/>
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
     </row>
-    <row r="216" spans="18:20" ht="15.75">
+    <row r="216" ht="15.75" spans="18:20">
       <c r="R216" s="2"/>
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
     </row>
-    <row r="217" spans="18:20" ht="15.75">
+    <row r="217" ht="15.75" spans="18:20">
       <c r="R217" s="2"/>
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
     </row>
-    <row r="218" spans="18:20" ht="15.75">
+    <row r="218" ht="15.75" spans="18:20">
       <c r="R218" s="2"/>
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
     </row>
-    <row r="219" spans="18:20" ht="15.75">
+    <row r="219" ht="15.75" spans="18:20">
       <c r="R219" s="2"/>
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
     </row>
-    <row r="220" spans="18:20" ht="15.75">
+    <row r="220" ht="15.75" spans="18:20">
       <c r="R220" s="2"/>
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
     </row>
-    <row r="221" spans="18:20" ht="15.75">
+    <row r="221" ht="15.75" spans="18:20">
       <c r="R221" s="2"/>
       <c r="S221" s="2"/>
       <c r="T221" s="2"/>
     </row>
-    <row r="222" spans="18:20" ht="15.75">
+    <row r="222" ht="15.75" spans="18:20">
       <c r="R222" s="2"/>
       <c r="S222" s="2"/>
       <c r="T222" s="2"/>
     </row>
-    <row r="223" spans="18:20" ht="15.75">
+    <row r="223" ht="15.75" spans="18:20">
       <c r="R223" s="2"/>
       <c r="S223" s="2"/>
       <c r="T223" s="2"/>
     </row>
-    <row r="224" spans="18:20" ht="15.75">
+    <row r="224" ht="15.75" spans="18:20">
       <c r="R224" s="2"/>
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
     </row>
-    <row r="225" spans="18:20" ht="15.75">
+    <row r="225" ht="15.75" spans="18:20">
       <c r="R225" s="2"/>
       <c r="S225" s="2"/>
       <c r="T225" s="2"/>
     </row>
-    <row r="226" spans="18:20" ht="15.75">
+    <row r="226" ht="15.75" spans="18:20">
       <c r="R226" s="2"/>
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
     </row>
-    <row r="227" spans="18:20" ht="15.75">
+    <row r="227" ht="15.75" spans="18:20">
       <c r="R227" s="2"/>
       <c r="S227" s="2"/>
       <c r="T227" s="2"/>
     </row>
-    <row r="228" spans="18:20" ht="15.75">
+    <row r="228" ht="15.75" spans="18:20">
       <c r="R228" s="2"/>
       <c r="S228" s="2"/>
       <c r="T228" s="2"/>
     </row>
-    <row r="229" spans="18:20" ht="15.75">
+    <row r="229" ht="15.75" spans="18:20">
       <c r="R229" s="2"/>
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
     </row>
-    <row r="230" spans="18:20" ht="15.75">
+    <row r="230" ht="15.75" spans="18:20">
       <c r="R230" s="2"/>
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
     </row>
-    <row r="231" spans="18:20" ht="15.75">
+    <row r="231" ht="15.75" spans="18:20">
       <c r="R231" s="2"/>
       <c r="S231" s="2"/>
       <c r="T231" s="2"/>
     </row>
-    <row r="232" spans="18:20" ht="15.75">
+    <row r="232" ht="15.75" spans="18:20">
       <c r="R232" s="2"/>
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
     </row>
-    <row r="233" spans="18:20" ht="15.75">
+    <row r="233" ht="15.75" spans="18:20">
       <c r="R233" s="2"/>
       <c r="S233" s="2"/>
       <c r="T233" s="2"/>
     </row>
-    <row r="234" spans="18:20" ht="15.75">
+    <row r="234" ht="15.75" spans="18:20">
       <c r="R234" s="2"/>
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
     </row>
-    <row r="235" spans="18:20" ht="15.75">
+    <row r="235" ht="15.75" spans="18:20">
       <c r="R235" s="2"/>
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
     </row>
-    <row r="236" spans="18:20" ht="15.75">
+    <row r="236" ht="15.75" spans="18:20">
       <c r="R236" s="2"/>
       <c r="S236" s="2"/>
       <c r="T236" s="2"/>
     </row>
-    <row r="237" spans="18:20" ht="15.75">
+    <row r="237" ht="15.75" spans="18:20">
       <c r="R237" s="2"/>
       <c r="S237" s="2"/>
       <c r="T237" s="2"/>
     </row>
-    <row r="238" spans="18:20" ht="15.75">
+    <row r="238" ht="15.75" spans="18:20">
       <c r="R238" s="2"/>
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
     </row>
-    <row r="239" spans="18:20" ht="15.75">
+    <row r="239" ht="15.75" spans="18:20">
       <c r="R239" s="2"/>
       <c r="S239" s="2"/>
       <c r="T239" s="2"/>
     </row>
-    <row r="240" spans="18:20" ht="15.75">
+    <row r="240" ht="15.75" spans="18:20">
       <c r="R240" s="2"/>
       <c r="S240" s="2"/>
       <c r="T240" s="2"/>
     </row>
-    <row r="241" spans="18:20" ht="15.75">
+    <row r="241" ht="15.75" spans="18:20">
       <c r="R241" s="2"/>
       <c r="S241" s="2"/>
       <c r="T241" s="2"/>
     </row>
-    <row r="242" spans="18:20" ht="15.75">
+    <row r="242" ht="15.75" spans="18:20">
       <c r="R242" s="2"/>
       <c r="S242" s="2"/>
       <c r="T242" s="2"/>
     </row>
-    <row r="243" spans="18:20" ht="15.75">
+    <row r="243" ht="15.75" spans="18:20">
       <c r="R243" s="2"/>
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
     </row>
-    <row r="244" spans="18:20" ht="15.75">
+    <row r="244" ht="15.75" spans="18:20">
       <c r="R244" s="2"/>
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
     </row>
-    <row r="245" spans="18:20" ht="15.75">
+    <row r="245" ht="15.75" spans="18:20">
       <c r="R245" s="2"/>
       <c r="S245" s="2"/>
       <c r="T245" s="2"/>
     </row>
-    <row r="246" spans="18:20" ht="15.75">
+    <row r="246" ht="15.75" spans="18:20">
       <c r="R246" s="2"/>
       <c r="S246" s="2"/>
       <c r="T246" s="2"/>
     </row>
-    <row r="247" spans="18:20" ht="15.75">
+    <row r="247" ht="15.75" spans="18:20">
       <c r="R247" s="2"/>
       <c r="S247" s="2"/>
       <c r="T247" s="2"/>
     </row>
-    <row r="248" spans="18:20" ht="15.75">
+    <row r="248" ht="15.75" spans="18:20">
       <c r="R248" s="2"/>
       <c r="S248" s="2"/>
       <c r="T248" s="2"/>
     </row>
-    <row r="249" spans="18:20" ht="15.75">
+    <row r="249" ht="15.75" spans="18:20">
       <c r="R249" s="2"/>
       <c r="S249" s="2"/>
       <c r="T249" s="2"/>
     </row>
-    <row r="250" spans="18:20" ht="15.75">
+    <row r="250" ht="15.75" spans="18:20">
       <c r="R250" s="2"/>
       <c r="S250" s="2"/>
       <c r="T250" s="2"/>
     </row>
-    <row r="251" spans="18:20" ht="15.75">
+    <row r="251" ht="15.75" spans="18:20">
       <c r="R251" s="2"/>
       <c r="S251" s="2"/>
       <c r="T251" s="2"/>
     </row>
-    <row r="252" spans="18:20" ht="15.75">
+    <row r="252" ht="15.75" spans="18:20">
       <c r="R252" s="2"/>
       <c r="S252" s="2"/>
       <c r="T252" s="2"/>
     </row>
-    <row r="253" spans="18:20" ht="15.75">
+    <row r="253" ht="15.75" spans="18:20">
       <c r="R253" s="2"/>
       <c r="S253" s="2"/>
       <c r="T253" s="2"/>
     </row>
-    <row r="254" spans="18:20" ht="15.75">
+    <row r="254" ht="15.75" spans="18:20">
       <c r="R254" s="2"/>
       <c r="S254" s="2"/>
       <c r="T254" s="2"/>
     </row>
-    <row r="255" spans="18:20" ht="15.75">
+    <row r="255" ht="15.75" spans="18:20">
       <c r="R255" s="2"/>
       <c r="S255" s="2"/>
       <c r="T255" s="2"/>
     </row>
-    <row r="256" spans="18:20" ht="15.75">
+    <row r="256" ht="15.75" spans="18:20">
       <c r="R256" s="2"/>
       <c r="S256" s="2"/>
       <c r="T256" s="2"/>
     </row>
-    <row r="257" spans="18:20" ht="15.75">
+    <row r="257" ht="15.75" spans="18:20">
       <c r="R257" s="2"/>
       <c r="S257" s="2"/>
       <c r="T257" s="2"/>
     </row>
-    <row r="258" spans="18:20" ht="15.75">
+    <row r="258" ht="15.75" spans="18:20">
       <c r="R258" s="2"/>
       <c r="S258" s="2"/>
       <c r="T258" s="2"/>
     </row>
-    <row r="259" spans="18:20" ht="15.75">
+    <row r="259" ht="15.75" spans="18:20">
       <c r="R259" s="2"/>
       <c r="S259" s="2"/>
       <c r="T259" s="2"/>
     </row>
-    <row r="260" spans="18:20" ht="15.75">
+    <row r="260" ht="15.75" spans="18:20">
       <c r="R260" s="2"/>
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="18:20" ht="15.75">
+    <row r="261" ht="15.75" spans="18:20">
       <c r="R261" s="2"/>
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="18:20" ht="15.75">
+    <row r="262" ht="15.75" spans="18:20">
       <c r="R262" s="2"/>
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="18:20" ht="15.75">
+    <row r="263" ht="15.75" spans="18:20">
       <c r="R263" s="2"/>
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="18:20" ht="15.75">
+    <row r="264" ht="15.75" spans="18:20">
       <c r="R264" s="2"/>
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="18:20" ht="15.75">
+    <row r="265" ht="15.75" spans="18:20">
       <c r="R265" s="2"/>
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="18:20" ht="15.75">
+    <row r="266" ht="15.75" spans="18:20">
       <c r="R266" s="2"/>
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="18:20" ht="15.75">
+    <row r="267" ht="15.75" spans="18:20">
       <c r="R267" s="2"/>
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="18:20" ht="15.75">
+    <row r="268" ht="15.75" spans="18:20">
       <c r="R268" s="2"/>
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="18:20" ht="15.75">
+    <row r="269" ht="15.75" spans="18:20">
       <c r="R269" s="2"/>
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="18:20" ht="15.75">
+    <row r="270" ht="15.75" spans="18:20">
       <c r="R270" s="2"/>
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="18:20" ht="15.75">
+    <row r="271" ht="15.75" spans="18:20">
       <c r="R271" s="2"/>
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="18:20" ht="15.75">
+    <row r="272" ht="15.75" spans="18:20">
       <c r="R272" s="2"/>
       <c r="S272" s="2"/>
       <c r="T272" s="2"/>
     </row>
-    <row r="273" spans="18:20" ht="15.75">
+    <row r="273" ht="15.75" spans="18:20">
       <c r="R273" s="2"/>
       <c r="S273" s="2"/>
       <c r="T273" s="2"/>
     </row>
-    <row r="274" spans="18:20" ht="15.75">
+    <row r="274" ht="15.75" spans="18:20">
       <c r="R274" s="2"/>
       <c r="S274" s="2"/>
       <c r="T274" s="2"/>
     </row>
-    <row r="275" spans="18:20" ht="15.75">
+    <row r="275" ht="15.75" spans="18:20">
       <c r="R275" s="2"/>
       <c r="S275" s="2"/>
       <c r="T275" s="2"/>
     </row>
-    <row r="276" spans="18:20" ht="15.75">
+    <row r="276" ht="15.75" spans="18:20">
       <c r="R276" s="2"/>
       <c r="S276" s="2"/>
       <c r="T276" s="2"/>
     </row>
-    <row r="277" spans="18:20" ht="15.75">
+    <row r="277" ht="15.75" spans="18:20">
       <c r="R277" s="2"/>
       <c r="S277" s="2"/>
       <c r="T277" s="2"/>
     </row>
-    <row r="278" spans="18:20" ht="15.75">
+    <row r="278" ht="15.75" spans="18:20">
       <c r="R278" s="2"/>
       <c r="S278" s="2"/>
       <c r="T278" s="2"/>
     </row>
-    <row r="279" spans="18:20" ht="15.75">
+    <row r="279" ht="15.75" spans="18:20">
       <c r="R279" s="2"/>
       <c r="S279" s="2"/>
       <c r="T279" s="2"/>
     </row>
-    <row r="280" spans="18:20" ht="15.75">
+    <row r="280" ht="15.75" spans="18:20">
       <c r="R280" s="2"/>
       <c r="S280" s="2"/>
       <c r="T280" s="2"/>
     </row>
-    <row r="281" spans="18:20" ht="15.75">
+    <row r="281" ht="15.75" spans="18:20">
       <c r="R281" s="2"/>
       <c r="S281" s="2"/>
       <c r="T281" s="2"/>
     </row>
-    <row r="282" spans="18:20" ht="15.75">
+    <row r="282" ht="15.75" spans="18:20">
       <c r="R282" s="2"/>
       <c r="S282" s="2"/>
       <c r="T282" s="2"/>
     </row>
-    <row r="283" spans="18:20" ht="15.75">
+    <row r="283" ht="15.75" spans="18:20">
       <c r="R283" s="2"/>
       <c r="S283" s="2"/>
       <c r="T283" s="2"/>
     </row>
-    <row r="284" spans="18:20" ht="15.75">
+    <row r="284" ht="15.75" spans="18:20">
       <c r="R284" s="2"/>
       <c r="S284" s="2"/>
       <c r="T284" s="2"/>
     </row>
-    <row r="285" spans="18:20" ht="15.75">
+    <row r="285" ht="15.75" spans="18:20">
       <c r="R285" s="2"/>
       <c r="S285" s="2"/>
       <c r="T285" s="2"/>
     </row>
-    <row r="286" spans="18:20" ht="15.75">
+    <row r="286" ht="15.75" spans="18:20">
       <c r="R286" s="2"/>
       <c r="S286" s="2"/>
       <c r="T286" s="2"/>
     </row>
-    <row r="287" spans="18:20" ht="15.75">
+    <row r="287" ht="15.75" spans="18:20">
       <c r="R287" s="2"/>
       <c r="S287" s="2"/>
       <c r="T287" s="2"/>
     </row>
-    <row r="288" spans="18:20" ht="15.75">
+    <row r="288" ht="15.75" spans="18:20">
       <c r="R288" s="2"/>
       <c r="S288" s="2"/>
       <c r="T288" s="2"/>
     </row>
-    <row r="289" spans="18:20" ht="15.75">
+    <row r="289" ht="15.75" spans="18:20">
       <c r="R289" s="2"/>
       <c r="S289" s="2"/>
       <c r="T289" s="2"/>
     </row>
-    <row r="290" spans="18:20" ht="15.75">
+    <row r="290" ht="15.75" spans="18:20">
       <c r="R290" s="2"/>
       <c r="S290" s="2"/>
       <c r="T290" s="2"/>
     </row>
-    <row r="291" spans="18:20" ht="15.75">
+    <row r="291" ht="15.75" spans="18:20">
       <c r="R291" s="2"/>
       <c r="S291" s="2"/>
       <c r="T291" s="2"/>
     </row>
-    <row r="292" spans="18:20" ht="15.75">
+    <row r="292" ht="15.75" spans="18:20">
       <c r="R292" s="2"/>
       <c r="S292" s="2"/>
       <c r="T292" s="2"/>
     </row>
-    <row r="293" spans="18:20" ht="15.75">
+    <row r="293" ht="15.75" spans="18:20">
       <c r="R293" s="2"/>
       <c r="S293" s="2"/>
       <c r="T293" s="2"/>
     </row>
-    <row r="294" spans="18:20" ht="15.75">
+    <row r="294" ht="15.75" spans="18:20">
       <c r="R294" s="2"/>
       <c r="S294" s="2"/>
       <c r="T294" s="2"/>
     </row>
-    <row r="295" spans="18:20" ht="15.75">
+    <row r="295" ht="15.75" spans="18:20">
       <c r="R295" s="2"/>
       <c r="S295" s="2"/>
       <c r="T295" s="2"/>
     </row>
-    <row r="296" spans="18:20" ht="15.75">
+    <row r="296" ht="15.75" spans="18:20">
       <c r="R296" s="2"/>
       <c r="S296" s="2"/>
       <c r="T296" s="2"/>
     </row>
-    <row r="297" spans="18:20" ht="15.75">
+    <row r="297" ht="15.75" spans="18:20">
       <c r="R297" s="2"/>
       <c r="S297" s="2"/>
       <c r="T297" s="2"/>
     </row>
-    <row r="298" spans="18:20" ht="15.75">
+    <row r="298" ht="15.75" spans="18:20">
       <c r="R298" s="2"/>
       <c r="S298" s="2"/>
       <c r="T298" s="2"/>
     </row>
-    <row r="299" spans="18:20" ht="15.75">
+    <row r="299" ht="15.75" spans="18:20">
       <c r="R299" s="2"/>
       <c r="S299" s="2"/>
       <c r="T299" s="2"/>
     </row>
-    <row r="300" spans="18:20" ht="15.75">
+    <row r="300" ht="15.75" spans="18:20">
       <c r="R300" s="2"/>
       <c r="S300" s="2"/>
       <c r="T300" s="2"/>
     </row>
-    <row r="301" spans="18:20" ht="15.75">
+    <row r="301" ht="15.75" spans="18:20">
       <c r="R301" s="2"/>
       <c r="S301" s="2"/>
       <c r="T301" s="2"/>
     </row>
-    <row r="302" spans="18:20" ht="15.75">
+    <row r="302" ht="15.75" spans="18:20">
       <c r="R302" s="2"/>
       <c r="S302" s="2"/>
       <c r="T302" s="2"/>
     </row>
-    <row r="303" spans="18:20" ht="15.75">
+    <row r="303" ht="15.75" spans="18:20">
       <c r="R303" s="2"/>
       <c r="S303" s="2"/>
       <c r="T303" s="2"/>
     </row>
-    <row r="304" spans="18:20" ht="15.75">
+    <row r="304" ht="15.75" spans="18:20">
       <c r="R304" s="2"/>
       <c r="S304" s="2"/>
       <c r="T304" s="2"/>
     </row>
-    <row r="305" spans="18:20" ht="15.75">
+    <row r="305" ht="15.75" spans="18:20">
       <c r="R305" s="2"/>
       <c r="S305" s="2"/>
       <c r="T305" s="2"/>
     </row>
-    <row r="306" spans="18:20" ht="15.75">
+    <row r="306" ht="15.75" spans="18:20">
       <c r="R306" s="2"/>
       <c r="S306" s="2"/>
       <c r="T306" s="2"/>
     </row>
-    <row r="307" spans="18:20" ht="15.75">
+    <row r="307" ht="15.75" spans="18:20">
       <c r="R307" s="2"/>
       <c r="S307" s="2"/>
       <c r="T307" s="2"/>
     </row>
-    <row r="308" spans="18:20" ht="15.75">
+    <row r="308" ht="15.75" spans="18:20">
       <c r="R308" s="2"/>
       <c r="S308" s="2"/>
       <c r="T308" s="2"/>
     </row>
-    <row r="309" spans="18:20" ht="15.75">
+    <row r="309" ht="15.75" spans="18:20">
       <c r="R309" s="2"/>
       <c r="S309" s="2"/>
       <c r="T309" s="2"/>
     </row>
-    <row r="310" spans="18:20" ht="15.75">
+    <row r="310" ht="15.75" spans="18:20">
       <c r="R310" s="2"/>
       <c r="S310" s="2"/>
       <c r="T310" s="2"/>
     </row>
-    <row r="311" spans="18:20" ht="15.75">
+    <row r="311" ht="15.75" spans="18:20">
       <c r="R311" s="2"/>
       <c r="S311" s="2"/>
       <c r="T311" s="2"/>
     </row>
-    <row r="312" spans="18:20" ht="15.75">
+    <row r="312" ht="15.75" spans="18:20">
       <c r="R312" s="2"/>
       <c r="S312" s="2"/>
       <c r="T312" s="2"/>
     </row>
-    <row r="313" spans="18:20" ht="15.75">
+    <row r="313" ht="15.75" spans="18:20">
       <c r="R313" s="2"/>
       <c r="S313" s="2"/>
       <c r="T313" s="2"/>
     </row>
-    <row r="314" spans="18:20" ht="15.75">
+    <row r="314" ht="15.75" spans="18:20">
       <c r="R314" s="2"/>
       <c r="S314" s="2"/>
       <c r="T314" s="2"/>
     </row>
-    <row r="315" spans="18:20" ht="15.75">
+    <row r="315" ht="15.75" spans="18:20">
       <c r="R315" s="2"/>
       <c r="S315" s="2"/>
       <c r="T315" s="2"/>
     </row>
-    <row r="316" spans="18:20" ht="15.75">
+    <row r="316" ht="15.75" spans="18:20">
       <c r="R316" s="2"/>
       <c r="S316" s="2"/>
       <c r="T316" s="2"/>
     </row>
-    <row r="317" spans="18:20" ht="15.75">
+    <row r="317" ht="15.75" spans="18:20">
       <c r="R317" s="2"/>
       <c r="S317" s="2"/>
       <c r="T317" s="2"/>
     </row>
-    <row r="318" spans="18:20" ht="15.75">
+    <row r="318" ht="15.75" spans="18:20">
       <c r="R318" s="2"/>
       <c r="S318" s="2"/>
       <c r="T318" s="2"/>
     </row>
-    <row r="319" spans="18:20" ht="15.75">
+    <row r="319" ht="15.75" spans="18:20">
       <c r="R319" s="2"/>
       <c r="S319" s="2"/>
       <c r="T319" s="2"/>
     </row>
-    <row r="320" spans="18:20" ht="15.75">
+    <row r="320" ht="15.75" spans="18:20">
       <c r="R320" s="2"/>
       <c r="S320" s="2"/>
       <c r="T320" s="2"/>
     </row>
-    <row r="321" spans="18:20" ht="15.75">
+    <row r="321" ht="15.75" spans="18:20">
       <c r="R321" s="2"/>
       <c r="S321" s="2"/>
       <c r="T321" s="2"/>
     </row>
-    <row r="322" spans="18:20" ht="15.75">
+    <row r="322" ht="15.75" spans="18:20">
       <c r="R322" s="2"/>
       <c r="S322" s="2"/>
       <c r="T322" s="2"/>
     </row>
-    <row r="323" spans="18:20" ht="15.75">
+    <row r="323" ht="15.75" spans="18:20">
       <c r="R323" s="2"/>
       <c r="S323" s="2"/>
       <c r="T323" s="2"/>
     </row>
-    <row r="324" spans="18:20" ht="15.75">
+    <row r="324" ht="15.75" spans="18:20">
       <c r="R324" s="2"/>
       <c r="S324" s="2"/>
       <c r="T324" s="2"/>
     </row>
-    <row r="325" spans="18:20" ht="15.75">
+    <row r="325" ht="15.75" spans="18:20">
       <c r="R325" s="2"/>
       <c r="S325" s="2"/>
       <c r="T325" s="2"/>
     </row>
-    <row r="326" spans="18:20" ht="15.75">
+    <row r="326" ht="15.75" spans="18:20">
       <c r="R326" s="2"/>
       <c r="S326" s="2"/>
       <c r="T326" s="2"/>
     </row>
-    <row r="327" spans="18:20" ht="15.75">
+    <row r="327" ht="15.75" spans="18:20">
       <c r="R327" s="2"/>
       <c r="S327" s="2"/>
       <c r="T327" s="2"/>
     </row>
-    <row r="328" spans="18:20" ht="15.75">
+    <row r="328" ht="15.75" spans="18:20">
       <c r="R328" s="2"/>
       <c r="S328" s="2"/>
       <c r="T328" s="2"/>
     </row>
-    <row r="329" spans="18:20" ht="15.75">
+    <row r="329" ht="15.75" spans="18:20">
       <c r="R329" s="2"/>
       <c r="S329" s="2"/>
       <c r="T329" s="2"/>
     </row>
-    <row r="330" spans="18:20" ht="15.75">
+    <row r="330" ht="15.75" spans="18:20">
       <c r="R330" s="2"/>
       <c r="S330" s="2"/>
       <c r="T330" s="2"/>
     </row>
-    <row r="331" spans="18:20" ht="15.75">
+    <row r="331" ht="15.75" spans="18:20">
       <c r="R331" s="2"/>
       <c r="S331" s="2"/>
       <c r="T331" s="2"/>
     </row>
-    <row r="332" spans="18:20" ht="15.75">
+    <row r="332" ht="15.75" spans="18:20">
       <c r="R332" s="2"/>
       <c r="S332" s="2"/>
       <c r="T332" s="2"/>
     </row>
-    <row r="333" spans="18:20" ht="15.75">
+    <row r="333" ht="15.75" spans="18:20">
       <c r="R333" s="2"/>
       <c r="S333" s="2"/>
       <c r="T333" s="2"/>
     </row>
-    <row r="334" spans="18:20" ht="15.75">
+    <row r="334" ht="15.75" spans="18:20">
       <c r="R334" s="2"/>
       <c r="S334" s="2"/>
       <c r="T334" s="2"/>
     </row>
-    <row r="335" spans="18:20" ht="15.75">
+    <row r="335" ht="15.75" spans="18:20">
       <c r="R335" s="2"/>
       <c r="S335" s="2"/>
       <c r="T335" s="2"/>
     </row>
-    <row r="336" spans="18:20" ht="15.75">
+    <row r="336" ht="15.75" spans="18:20">
       <c r="R336" s="2"/>
       <c r="S336" s="2"/>
       <c r="T336" s="2"/>
     </row>
-    <row r="337" spans="18:20" ht="15.75">
+    <row r="337" ht="15.75" spans="18:20">
       <c r="R337" s="2"/>
       <c r="S337" s="2"/>
       <c r="T337" s="2"/>
     </row>
-    <row r="338" spans="18:20" ht="15.75">
+    <row r="338" ht="15.75" spans="18:20">
       <c r="R338" s="2"/>
       <c r="S338" s="2"/>
       <c r="T338" s="2"/>
     </row>
-    <row r="339" spans="18:20" ht="15.75">
+    <row r="339" ht="15.75" spans="18:20">
       <c r="R339" s="2"/>
       <c r="S339" s="2"/>
       <c r="T339" s="2"/>
     </row>
-    <row r="340" spans="18:20" ht="15.75">
+    <row r="340" ht="15.75" spans="18:20">
       <c r="R340" s="2"/>
       <c r="S340" s="2"/>
       <c r="T340" s="2"/>
     </row>
-    <row r="341" spans="18:20" ht="15.75">
+    <row r="341" ht="15.75" spans="18:20">
       <c r="R341" s="2"/>
       <c r="S341" s="2"/>
       <c r="T341" s="2"/>
     </row>
-    <row r="342" spans="18:20" ht="15.75">
+    <row r="342" ht="15.75" spans="18:20">
       <c r="R342" s="2"/>
       <c r="S342" s="2"/>
       <c r="T342" s="2"/>
     </row>
-    <row r="343" spans="18:20" ht="15.75">
+    <row r="343" ht="15.75" spans="18:20">
       <c r="R343" s="2"/>
       <c r="S343" s="2"/>
       <c r="T343" s="2"/>
     </row>
-    <row r="344" spans="18:20" ht="15.75">
+    <row r="344" ht="15.75" spans="18:20">
       <c r="R344" s="2"/>
       <c r="S344" s="2"/>
       <c r="T344" s="2"/>
     </row>
-    <row r="345" spans="18:20" ht="15.75">
+    <row r="345" ht="15.75" spans="18:20">
       <c r="R345" s="2"/>
       <c r="S345" s="2"/>
       <c r="T345" s="2"/>
     </row>
-    <row r="346" spans="18:20" ht="15.75">
+    <row r="346" ht="15.75" spans="18:20">
       <c r="R346" s="2"/>
       <c r="S346" s="2"/>
       <c r="T346" s="2"/>
     </row>
-    <row r="347" spans="18:20" ht="15.75">
+    <row r="347" ht="15.75" spans="18:20">
       <c r="R347" s="2"/>
       <c r="S347" s="2"/>
       <c r="T347" s="2"/>
     </row>
-    <row r="348" spans="18:20" ht="15.75">
+    <row r="348" ht="15.75" spans="18:20">
       <c r="R348" s="2"/>
       <c r="S348" s="2"/>
       <c r="T348" s="2"/>
     </row>
-    <row r="349" spans="18:20" ht="15.75">
+    <row r="349" ht="15.75" spans="18:20">
       <c r="R349" s="2"/>
       <c r="S349" s="2"/>
       <c r="T349" s="2"/>
     </row>
-    <row r="350" spans="18:20" ht="15.75">
+    <row r="350" ht="15.75" spans="18:20">
       <c r="R350" s="2"/>
       <c r="S350" s="2"/>
       <c r="T350" s="2"/>
     </row>
-    <row r="351" spans="18:20" ht="15.75">
+    <row r="351" ht="15.75" spans="18:20">
       <c r="R351" s="2"/>
       <c r="S351" s="2"/>
       <c r="T351" s="2"/>
     </row>
-    <row r="352" spans="18:20" ht="15.75">
+    <row r="352" ht="15.75" spans="18:20">
       <c r="R352" s="2"/>
       <c r="S352" s="2"/>
       <c r="T352" s="2"/>
     </row>
-    <row r="353" spans="18:20" ht="15.75">
+    <row r="353" ht="15.75" spans="18:20">
       <c r="R353" s="2"/>
       <c r="S353" s="2"/>
       <c r="T353" s="2"/>
     </row>
-    <row r="354" spans="18:20" ht="15.75">
+    <row r="354" ht="15.75" spans="18:20">
       <c r="R354" s="2"/>
       <c r="S354" s="2"/>
       <c r="T354" s="2"/>
     </row>
-    <row r="355" spans="18:20" ht="15.75">
+    <row r="355" ht="15.75" spans="18:20">
       <c r="R355" s="2"/>
       <c r="S355" s="2"/>
       <c r="T355" s="2"/>
     </row>
-    <row r="356" spans="18:20" ht="15.75">
+    <row r="356" ht="15.75" spans="18:20">
       <c r="R356" s="2"/>
       <c r="S356" s="2"/>
       <c r="T356" s="2"/>
     </row>
-    <row r="357" spans="18:20" ht="15.75">
+    <row r="357" ht="15.75" spans="18:20">
       <c r="R357" s="2"/>
       <c r="S357" s="2"/>
       <c r="T357" s="2"/>
     </row>
-    <row r="358" spans="18:20" ht="15.75">
+    <row r="358" ht="15.75" spans="18:20">
       <c r="R358" s="2"/>
       <c r="S358" s="2"/>
       <c r="T358" s="2"/>
     </row>
-    <row r="359" spans="18:20" ht="15.75">
+    <row r="359" ht="15.75" spans="18:20">
       <c r="R359" s="2"/>
       <c r="S359" s="2"/>
       <c r="T359" s="2"/>
     </row>
-    <row r="360" spans="18:20" ht="15.75">
+    <row r="360" ht="15.75" spans="18:20">
       <c r="R360" s="2"/>
       <c r="S360" s="2"/>
       <c r="T360" s="2"/>
     </row>
-    <row r="361" spans="18:20" ht="15.75">
+    <row r="361" ht="15.75" spans="18:20">
       <c r="R361" s="2"/>
       <c r="S361" s="2"/>
       <c r="T361" s="2"/>
     </row>
-    <row r="362" spans="18:20" ht="15.75">
+    <row r="362" ht="15.75" spans="18:20">
       <c r="R362" s="2"/>
       <c r="S362" s="2"/>
       <c r="T362" s="2"/>
     </row>
-    <row r="363" spans="18:20" ht="15.75">
+    <row r="363" ht="15.75" spans="18:20">
       <c r="R363" s="2"/>
       <c r="S363" s="2"/>
       <c r="T363" s="2"/>
     </row>
-    <row r="364" spans="18:20" ht="15.75">
+    <row r="364" ht="15.75" spans="18:20">
       <c r="R364" s="2"/>
       <c r="S364" s="2"/>
       <c r="T364" s="2"/>
     </row>
-    <row r="365" spans="18:20" ht="15.75">
+    <row r="365" ht="15.75" spans="18:20">
       <c r="R365" s="2"/>
       <c r="S365" s="2"/>
       <c r="T365" s="2"/>
     </row>
-    <row r="366" spans="18:20" ht="15.75">
+    <row r="366" ht="15.75" spans="18:20">
       <c r="R366" s="2"/>
       <c r="S366" s="2"/>
       <c r="T366" s="2"/>
     </row>
-    <row r="367" spans="18:20" ht="15.75">
+    <row r="367" ht="15.75" spans="18:20">
       <c r="R367" s="2"/>
       <c r="S367" s="2"/>
       <c r="T367" s="2"/>
     </row>
-    <row r="368" spans="18:20" ht="15.75">
+    <row r="368" ht="15.75" spans="18:20">
       <c r="R368" s="2"/>
       <c r="S368" s="2"/>
       <c r="T368" s="2"/>
     </row>
-    <row r="369" spans="18:20" ht="15.75">
+    <row r="369" ht="15.75" spans="18:20">
       <c r="R369" s="2"/>
       <c r="S369" s="2"/>
       <c r="T369" s="2"/>
     </row>
-    <row r="370" spans="18:20" ht="15.75">
+    <row r="370" ht="15.75" spans="18:20">
       <c r="R370" s="2"/>
       <c r="S370" s="2"/>
       <c r="T370" s="2"/>
     </row>
-    <row r="371" spans="18:20" ht="15.75">
+    <row r="371" ht="15.75" spans="18:20">
       <c r="R371" s="2"/>
       <c r="S371" s="2"/>
       <c r="T371" s="2"/>
     </row>
-    <row r="372" spans="18:20" ht="15.75">
+    <row r="372" ht="15.75" spans="18:20">
       <c r="R372" s="2"/>
       <c r="S372" s="2"/>
       <c r="T372" s="2"/>
     </row>
-    <row r="373" spans="18:20" ht="15.75">
+    <row r="373" ht="15.75" spans="18:20">
       <c r="R373" s="2"/>
       <c r="S373" s="2"/>
       <c r="T373" s="2"/>
     </row>
-    <row r="374" spans="18:20" ht="15.75">
+    <row r="374" ht="15.75" spans="18:20">
       <c r="R374" s="2"/>
       <c r="S374" s="2"/>
       <c r="T374" s="2"/>
     </row>
-    <row r="375" spans="18:20" ht="15.75">
+    <row r="375" ht="15.75" spans="18:20">
       <c r="R375" s="2"/>
       <c r="S375" s="2"/>
       <c r="T375" s="2"/>
     </row>
-    <row r="376" spans="18:20" ht="15.75">
+    <row r="376" ht="15.75" spans="18:20">
       <c r="R376" s="2"/>
       <c r="S376" s="2"/>
       <c r="T376" s="2"/>
     </row>
-    <row r="377" spans="18:20" ht="15.75">
+    <row r="377" ht="15.75" spans="18:20">
       <c r="R377" s="2"/>
       <c r="S377" s="2"/>
       <c r="T377" s="2"/>
     </row>
-    <row r="378" spans="18:20" ht="15.75">
+    <row r="378" ht="15.75" spans="18:20">
       <c r="R378" s="2"/>
       <c r="S378" s="2"/>
       <c r="T378" s="2"/>
     </row>
-    <row r="379" spans="18:20" ht="15.75">
+    <row r="379" ht="15.75" spans="18:20">
       <c r="R379" s="2"/>
       <c r="S379" s="2"/>
       <c r="T379" s="2"/>
     </row>
-    <row r="380" spans="18:20" ht="15.75">
+    <row r="380" ht="15.75" spans="18:20">
       <c r="R380" s="2"/>
       <c r="S380" s="2"/>
       <c r="T380" s="2"/>
     </row>
-    <row r="381" spans="18:20" ht="15.75">
+    <row r="381" ht="15.75" spans="18:20">
       <c r="R381" s="2"/>
       <c r="S381" s="2"/>
       <c r="T381" s="2"/>
     </row>
-    <row r="382" spans="18:20" ht="15.75">
+    <row r="382" ht="15.75" spans="18:20">
       <c r="R382" s="2"/>
       <c r="S382" s="2"/>
       <c r="T382" s="2"/>
     </row>
-    <row r="383" spans="18:20" ht="15.75">
+    <row r="383" ht="15.75" spans="18:20">
       <c r="R383" s="2"/>
       <c r="S383" s="2"/>
       <c r="T383" s="2"/>
     </row>
-    <row r="384" spans="18:20" ht="15.75">
+    <row r="384" ht="15.75" spans="18:20">
       <c r="R384" s="2"/>
       <c r="S384" s="2"/>
       <c r="T384" s="2"/>
     </row>
-    <row r="385" spans="18:20" ht="15.75">
+    <row r="385" ht="15.75" spans="18:20">
       <c r="R385" s="2"/>
       <c r="S385" s="2"/>
       <c r="T385" s="2"/>
     </row>
-    <row r="386" spans="18:20" ht="15.75">
+    <row r="386" ht="15.75" spans="18:20">
       <c r="R386" s="2"/>
       <c r="S386" s="2"/>
       <c r="T386" s="2"/>
     </row>
-    <row r="387" spans="18:20" ht="15.75">
+    <row r="387" ht="15.75" spans="18:20">
       <c r="R387" s="2"/>
       <c r="S387" s="2"/>
       <c r="T387" s="2"/>
     </row>
-    <row r="388" spans="18:20" ht="15.75">
+    <row r="388" ht="15.75" spans="18:20">
       <c r="R388" s="2"/>
       <c r="S388" s="2"/>
       <c r="T388" s="2"/>
     </row>
-    <row r="389" spans="18:20" ht="15.75">
+    <row r="389" ht="15.75" spans="18:20">
       <c r="R389" s="2"/>
       <c r="S389" s="2"/>
       <c r="T389" s="2"/>
     </row>
-    <row r="390" spans="18:20" ht="15.75">
+    <row r="390" ht="15.75" spans="18:20">
       <c r="R390" s="2"/>
       <c r="S390" s="2"/>
       <c r="T390" s="2"/>
     </row>
-    <row r="391" spans="18:20" ht="15.75">
+    <row r="391" ht="15.75" spans="18:20">
       <c r="R391" s="2"/>
       <c r="S391" s="2"/>
       <c r="T391" s="2"/>
     </row>
-    <row r="392" spans="18:20" ht="15.75">
+    <row r="392" ht="15.75" spans="18:20">
       <c r="R392" s="2"/>
       <c r="S392" s="2"/>
       <c r="T392" s="2"/>
     </row>
-    <row r="393" spans="18:20" ht="15.75">
+    <row r="393" ht="15.75" spans="18:20">
       <c r="R393" s="2"/>
       <c r="S393" s="2"/>
       <c r="T393" s="2"/>
     </row>
-    <row r="394" spans="18:20" ht="15.75">
+    <row r="394" ht="15.75" spans="18:20">
       <c r="R394" s="2"/>
       <c r="S394" s="2"/>
       <c r="T394" s="2"/>
     </row>
-    <row r="395" spans="18:20" ht="15.75">
+    <row r="395" ht="15.75" spans="18:20">
       <c r="R395" s="2"/>
       <c r="S395" s="2"/>
       <c r="T395" s="2"/>
     </row>
-    <row r="396" spans="18:20" ht="15.75">
+    <row r="396" ht="15.75" spans="18:20">
       <c r="R396" s="2"/>
       <c r="S396" s="2"/>
       <c r="T396" s="2"/>
     </row>
-    <row r="397" spans="18:20" ht="15.75">
+    <row r="397" ht="15.75" spans="18:20">
       <c r="R397" s="2"/>
       <c r="S397" s="2"/>
       <c r="T397" s="2"/>
     </row>
-    <row r="398" spans="18:20" ht="15.75">
+    <row r="398" ht="15.75" spans="18:20">
       <c r="R398" s="2"/>
       <c r="S398" s="2"/>
       <c r="T398" s="2"/>
     </row>
-    <row r="399" spans="18:20" ht="15.75">
+    <row r="399" ht="15.75" spans="18:20">
       <c r="R399" s="2"/>
       <c r="S399" s="2"/>
       <c r="T399" s="2"/>
     </row>
-    <row r="400" spans="18:20" ht="15.75">
+    <row r="400" ht="15.75" spans="18:20">
       <c r="R400" s="2"/>
       <c r="S400" s="2"/>
       <c r="T400" s="2"/>
     </row>
-    <row r="401" spans="18:20" ht="15.75">
+    <row r="401" ht="15.75" spans="18:20">
       <c r="R401" s="2"/>
       <c r="S401" s="2"/>
       <c r="T401" s="2"/>
     </row>
-    <row r="402" spans="18:20" ht="15.75">
+    <row r="402" ht="15.75" spans="18:20">
       <c r="R402" s="2"/>
       <c r="S402" s="2"/>
       <c r="T402" s="2"/>
     </row>
-    <row r="403" spans="18:20" ht="15.75">
+    <row r="403" ht="15.75" spans="18:20">
       <c r="R403" s="2"/>
       <c r="S403" s="2"/>
       <c r="T403" s="2"/>
     </row>
-    <row r="404" spans="18:20" ht="15.75">
+    <row r="404" ht="15.75" spans="18:20">
       <c r="R404" s="2"/>
       <c r="S404" s="2"/>
       <c r="T404" s="2"/>
     </row>
-    <row r="405" spans="18:20" ht="15.75">
+    <row r="405" ht="15.75" spans="18:20">
       <c r="R405" s="2"/>
       <c r="S405" s="2"/>
       <c r="T405" s="2"/>
     </row>
-    <row r="406" spans="18:20" ht="15.75">
+    <row r="406" ht="15.75" spans="18:20">
       <c r="R406" s="2"/>
       <c r="S406" s="2"/>
       <c r="T406" s="2"/>
     </row>
-    <row r="407" spans="18:20" ht="15.75">
+    <row r="407" ht="15.75" spans="18:20">
       <c r="R407" s="2"/>
       <c r="S407" s="2"/>
       <c r="T407" s="2"/>
     </row>
-    <row r="408" spans="18:20" ht="15.75">
+    <row r="408" ht="15.75" spans="18:20">
       <c r="R408" s="2"/>
       <c r="S408" s="2"/>
       <c r="T408" s="2"/>
     </row>
-    <row r="409" spans="18:20" ht="15.75">
+    <row r="409" ht="15.75" spans="18:20">
       <c r="R409" s="2"/>
       <c r="S409" s="2"/>
       <c r="T409" s="2"/>
     </row>
-    <row r="410" spans="18:20" ht="15.75">
+    <row r="410" ht="15.75" spans="18:20">
       <c r="R410" s="2"/>
       <c r="S410" s="2"/>
       <c r="T410" s="2"/>
     </row>
-    <row r="411" spans="18:20" ht="15.75">
+    <row r="411" ht="15.75" spans="18:20">
       <c r="R411" s="2"/>
       <c r="S411" s="2"/>
       <c r="T411" s="2"/>
     </row>
-    <row r="412" spans="18:20" ht="15.75">
+    <row r="412" ht="15.75" spans="18:20">
       <c r="R412" s="2"/>
       <c r="S412" s="2"/>
       <c r="T412" s="2"/>
     </row>
-    <row r="413" spans="18:20" ht="15.75">
+    <row r="413" ht="15.75" spans="18:20">
       <c r="R413" s="2"/>
       <c r="S413" s="2"/>
       <c r="T413" s="2"/>
     </row>
-    <row r="414" spans="18:20" ht="15.75">
+    <row r="414" ht="15.75" spans="18:20">
       <c r="R414" s="2"/>
       <c r="S414" s="2"/>
       <c r="T414" s="2"/>
     </row>
-    <row r="415" spans="18:20" ht="15.75">
+    <row r="415" ht="15.75" spans="18:20">
       <c r="R415" s="2"/>
       <c r="S415" s="2"/>
       <c r="T415" s="2"/>
     </row>
-    <row r="416" spans="18:20" ht="15.75">
+    <row r="416" ht="15.75" spans="18:20">
       <c r="R416" s="2"/>
       <c r="S416" s="2"/>
       <c r="T416" s="2"/>
     </row>
-    <row r="417" spans="18:20" ht="15.75">
+    <row r="417" ht="15.75" spans="18:20">
       <c r="R417" s="2"/>
       <c r="S417" s="2"/>
       <c r="T417" s="2"/>
     </row>
-    <row r="418" spans="18:20" ht="15.75">
+    <row r="418" ht="15.75" spans="18:20">
       <c r="R418" s="2"/>
       <c r="S418" s="2"/>
       <c r="T418" s="2"/>
     </row>
-    <row r="419" spans="18:20" ht="15.75">
+    <row r="419" ht="15.75" spans="18:20">
       <c r="R419" s="2"/>
       <c r="S419" s="2"/>
       <c r="T419" s="2"/>
     </row>
-    <row r="420" spans="18:20" ht="15.75">
+    <row r="420" ht="15.75" spans="18:20">
       <c r="R420" s="2"/>
       <c r="S420" s="2"/>
       <c r="T420" s="2"/>
     </row>
-    <row r="421" spans="18:20" ht="15.75">
+    <row r="421" ht="15.75" spans="18:20">
       <c r="R421" s="2"/>
       <c r="S421" s="2"/>
       <c r="T421" s="2"/>
     </row>
-    <row r="422" spans="18:20" ht="15.75">
+    <row r="422" ht="15.75" spans="18:20">
       <c r="R422" s="2"/>
       <c r="S422" s="2"/>
       <c r="T422" s="2"/>
     </row>
-    <row r="423" spans="18:20" ht="15.75">
+    <row r="423" ht="15.75" spans="18:20">
       <c r="R423" s="2"/>
       <c r="S423" s="2"/>
       <c r="T423" s="2"/>
     </row>
-    <row r="424" spans="18:20" ht="15.75">
+    <row r="424" ht="15.75" spans="18:20">
       <c r="R424" s="2"/>
       <c r="S424" s="2"/>
       <c r="T424" s="2"/>
     </row>
-    <row r="425" spans="18:20" ht="15.75">
+    <row r="425" ht="15.75" spans="18:20">
       <c r="R425" s="2"/>
       <c r="S425" s="2"/>
       <c r="T425" s="2"/>
     </row>
-    <row r="426" spans="18:20" ht="15.75">
+    <row r="426" ht="15.75" spans="18:20">
       <c r="R426" s="2"/>
       <c r="S426" s="2"/>
       <c r="T426" s="2"/>
     </row>
-    <row r="427" spans="18:20" ht="15.75">
+    <row r="427" ht="15.75" spans="18:20">
       <c r="R427" s="2"/>
       <c r="S427" s="2"/>
       <c r="T427" s="2"/>
     </row>
-    <row r="428" spans="18:20" ht="15.75">
+    <row r="428" ht="15.75" spans="18:20">
       <c r="R428" s="2"/>
       <c r="S428" s="2"/>
       <c r="T428" s="2"/>
     </row>
-    <row r="429" spans="18:20" ht="15.75">
+    <row r="429" ht="15.75" spans="18:20">
       <c r="R429" s="2"/>
       <c r="S429" s="2"/>
       <c r="T429" s="2"/>
     </row>
-    <row r="430" spans="18:20" ht="15.75">
+    <row r="430" ht="15.75" spans="18:20">
       <c r="R430" s="2"/>
       <c r="S430" s="2"/>
       <c r="T430" s="2"/>
     </row>
-    <row r="431" spans="18:20" ht="15.75">
+    <row r="431" ht="15.75" spans="18:20">
       <c r="R431" s="2"/>
       <c r="S431" s="2"/>
       <c r="T431" s="2"/>
     </row>
-    <row r="432" spans="18:20" ht="15.75">
+    <row r="432" ht="15.75" spans="18:20">
       <c r="R432" s="2"/>
       <c r="S432" s="2"/>
       <c r="T432" s="2"/>
     </row>
-    <row r="433" spans="18:20" ht="15.75">
+    <row r="433" ht="15.75" spans="18:20">
       <c r="R433" s="2"/>
       <c r="S433" s="2"/>
       <c r="T433" s="2"/>
     </row>
-    <row r="434" spans="18:20" ht="15.75">
+    <row r="434" ht="15.75" spans="18:20">
       <c r="R434" s="2"/>
       <c r="S434" s="2"/>
       <c r="T434" s="2"/>
     </row>
-    <row r="435" spans="18:20" ht="15.75">
+    <row r="435" ht="15.75" spans="18:20">
       <c r="R435" s="2"/>
       <c r="S435" s="2"/>
       <c r="T435" s="2"/>
     </row>
-    <row r="436" spans="18:20" ht="15.75">
+    <row r="436" ht="15.75" spans="18:20">
       <c r="R436" s="2"/>
       <c r="S436" s="2"/>
       <c r="T436" s="2"/>
     </row>
-    <row r="437" spans="18:20" ht="15.75">
+    <row r="437" ht="15.75" spans="18:20">
       <c r="R437" s="2"/>
       <c r="S437" s="2"/>
       <c r="T437" s="2"/>
     </row>
-    <row r="438" spans="18:20" ht="15.75">
+    <row r="438" ht="15.75" spans="18:20">
       <c r="R438" s="2"/>
       <c r="S438" s="2"/>
       <c r="T438" s="2"/>
     </row>
-    <row r="439" spans="18:20" ht="15.75">
+    <row r="439" ht="15.75" spans="18:20">
       <c r="R439" s="2"/>
       <c r="S439" s="2"/>
       <c r="T439" s="2"/>
     </row>
-    <row r="440" spans="18:20" ht="15.75">
+    <row r="440" ht="15.75" spans="18:20">
       <c r="R440" s="2"/>
       <c r="S440" s="2"/>
       <c r="T440" s="2"/>
     </row>
-    <row r="441" spans="18:20" ht="15.75">
+    <row r="441" ht="15.75" spans="18:20">
       <c r="R441" s="2"/>
       <c r="S441" s="2"/>
       <c r="T441" s="2"/>
     </row>
-    <row r="442" spans="18:20" ht="15.75">
+    <row r="442" ht="15.75" spans="18:20">
       <c r="R442" s="2"/>
       <c r="S442" s="2"/>
       <c r="T442" s="2"/>
     </row>
-    <row r="443" spans="18:20" ht="15.75">
+    <row r="443" ht="15.75" spans="18:20">
       <c r="R443" s="2"/>
       <c r="S443" s="2"/>
       <c r="T443" s="2"/>
     </row>
-    <row r="444" spans="18:20" ht="15.75">
+    <row r="444" ht="15.75" spans="18:20">
       <c r="R444" s="2"/>
       <c r="S444" s="2"/>
       <c r="T444" s="2"/>
     </row>
-    <row r="445" spans="18:20" ht="15.75">
+    <row r="445" ht="15.75" spans="18:20">
       <c r="R445" s="2"/>
       <c r="S445" s="2"/>
       <c r="T445" s="2"/>
     </row>
-    <row r="446" spans="18:20" ht="15.75">
+    <row r="446" ht="15.75" spans="18:20">
       <c r="R446" s="2"/>
       <c r="S446" s="2"/>
       <c r="T446" s="2"/>
     </row>
-    <row r="447" spans="18:20" ht="15.75">
+    <row r="447" ht="15.75" spans="18:20">
       <c r="R447" s="2"/>
       <c r="S447" s="2"/>
       <c r="T447" s="2"/>
     </row>
-    <row r="448" spans="18:20" ht="15.75">
+    <row r="448" ht="15.75" spans="18:20">
       <c r="R448" s="2"/>
       <c r="S448" s="2"/>
       <c r="T448" s="2"/>
     </row>
-    <row r="449" spans="18:20" ht="15.75">
+    <row r="449" ht="15.75" spans="18:20">
       <c r="R449" s="2"/>
       <c r="S449" s="2"/>
       <c r="T449" s="2"/>
     </row>
-    <row r="450" spans="18:20" ht="15.75">
+    <row r="450" ht="15.75" spans="18:20">
       <c r="R450" s="2"/>
       <c r="S450" s="2"/>
       <c r="T450" s="2"/>
     </row>
-    <row r="451" spans="18:20" ht="15.75">
+    <row r="451" ht="15.75" spans="18:20">
       <c r="R451" s="2"/>
       <c r="S451" s="2"/>
       <c r="T451" s="2"/>
     </row>
-    <row r="452" spans="18:20" ht="15.75">
+    <row r="452" ht="15.75" spans="18:20">
       <c r="R452" s="2"/>
       <c r="S452" s="2"/>
       <c r="T452" s="2"/>
     </row>
-    <row r="453" spans="18:20" ht="15.75">
+    <row r="453" ht="15.75" spans="18:20">
       <c r="R453" s="2"/>
       <c r="S453" s="2"/>
       <c r="T453" s="2"/>
     </row>
-    <row r="454" spans="18:20" ht="15.75">
+    <row r="454" ht="15.75" spans="18:20">
       <c r="R454" s="2"/>
       <c r="S454" s="2"/>
       <c r="T454" s="2"/>
     </row>
-    <row r="455" spans="18:20" ht="15.75">
+    <row r="455" ht="15.75" spans="18:20">
       <c r="R455" s="2"/>
       <c r="S455" s="2"/>
       <c r="T455" s="2"/>
     </row>
-    <row r="456" spans="18:20" ht="15.75">
+    <row r="456" ht="15.75" spans="18:20">
       <c r="R456" s="2"/>
       <c r="S456" s="2"/>
       <c r="T456" s="2"/>
     </row>
-    <row r="457" spans="18:20" ht="15.75">
+    <row r="457" ht="15.75" spans="18:20">
       <c r="R457" s="2"/>
       <c r="S457" s="2"/>
       <c r="T457" s="2"/>
     </row>
-    <row r="458" spans="18:20" ht="15.75">
+    <row r="458" ht="15.75" spans="18:20">
       <c r="R458" s="2"/>
       <c r="S458" s="2"/>
       <c r="T458" s="2"/>
     </row>
-    <row r="459" spans="18:20" ht="15.75">
+    <row r="459" ht="15.75" spans="18:20">
       <c r="R459" s="2"/>
       <c r="S459" s="2"/>
       <c r="T459" s="2"/>
     </row>
-    <row r="460" spans="18:20" ht="15.75">
+    <row r="460" ht="15.75" spans="18:20">
       <c r="R460" s="2"/>
       <c r="S460" s="2"/>
       <c r="T460" s="2"/>
     </row>
-    <row r="461" spans="18:20" ht="15.75">
+    <row r="461" ht="15.75" spans="18:20">
       <c r="R461" s="2"/>
       <c r="S461" s="2"/>
       <c r="T461" s="2"/>
     </row>
-    <row r="462" spans="18:20" ht="15.75">
+    <row r="462" ht="15.75" spans="18:20">
       <c r="R462" s="2"/>
       <c r="S462" s="2"/>
       <c r="T462" s="2"/>
     </row>
-    <row r="463" spans="18:20" ht="15.75">
+    <row r="463" ht="15.75" spans="18:20">
       <c r="R463" s="2"/>
       <c r="S463" s="2"/>
       <c r="T463" s="2"/>
     </row>
-    <row r="464" spans="18:20" ht="15.75">
+    <row r="464" ht="15.75" spans="18:20">
       <c r="R464" s="2"/>
       <c r="S464" s="2"/>
       <c r="T464" s="2"/>
     </row>
-    <row r="465" spans="18:20" ht="15.75">
+    <row r="465" ht="15.75" spans="18:20">
       <c r="R465" s="2"/>
       <c r="S465" s="2"/>
       <c r="T465" s="2"/>
     </row>
-    <row r="466" spans="18:20" ht="15.75">
+    <row r="466" ht="15.75" spans="18:20">
       <c r="R466" s="2"/>
       <c r="S466" s="2"/>
       <c r="T466" s="2"/>
     </row>
-    <row r="467" spans="18:20" ht="15.75">
+    <row r="467" ht="15.75" spans="18:20">
       <c r="R467" s="2"/>
       <c r="S467" s="2"/>
       <c r="T467" s="2"/>
     </row>
-    <row r="468" spans="18:20" ht="15.75">
+    <row r="468" ht="15.75" spans="18:20">
       <c r="R468" s="2"/>
       <c r="S468" s="2"/>
       <c r="T468" s="2"/>
     </row>
-    <row r="469" spans="18:20" ht="15.75">
+    <row r="469" ht="15.75" spans="18:20">
       <c r="R469" s="2"/>
       <c r="S469" s="2"/>
       <c r="T469" s="2"/>
     </row>
-    <row r="470" spans="18:20" ht="15.75">
+    <row r="470" ht="15.75" spans="18:20">
       <c r="R470" s="2"/>
       <c r="S470" s="2"/>
       <c r="T470" s="2"/>
     </row>
-    <row r="471" spans="18:20" ht="15.75">
+    <row r="471" ht="15.75" spans="18:20">
       <c r="R471" s="2"/>
       <c r="S471" s="2"/>
       <c r="T471" s="2"/>
     </row>
-    <row r="472" spans="18:20" ht="15.75">
+    <row r="472" ht="15.75" spans="18:20">
       <c r="R472" s="2"/>
       <c r="S472" s="2"/>
       <c r="T472" s="2"/>
     </row>
-    <row r="473" spans="18:20" ht="15.75">
+    <row r="473" ht="15.75" spans="18:20">
       <c r="R473" s="2"/>
       <c r="S473" s="2"/>
       <c r="T473" s="2"/>
     </row>
-    <row r="474" spans="18:20" ht="15.75">
+    <row r="474" ht="15.75" spans="18:20">
       <c r="R474" s="2"/>
       <c r="S474" s="2"/>
       <c r="T474" s="2"/>
     </row>
-    <row r="475" spans="18:20" ht="15.75">
+    <row r="475" ht="15.75" spans="18:20">
       <c r="R475" s="2"/>
       <c r="S475" s="2"/>
       <c r="T475" s="2"/>
     </row>
-    <row r="476" spans="18:20" ht="15.75">
+    <row r="476" ht="15.75" spans="18:20">
       <c r="R476" s="2"/>
       <c r="S476" s="2"/>
       <c r="T476" s="2"/>
     </row>
-    <row r="477" spans="18:20" ht="15.75">
+    <row r="477" ht="15.75" spans="18:20">
       <c r="R477" s="2"/>
       <c r="S477" s="2"/>
       <c r="T477" s="2"/>
     </row>
-    <row r="478" spans="18:20" ht="15.75">
+    <row r="478" ht="15.75" spans="18:20">
       <c r="R478" s="2"/>
       <c r="S478" s="2"/>
       <c r="T478" s="2"/>
     </row>
-    <row r="479" spans="18:20" ht="15.75">
+    <row r="479" ht="15.75" spans="18:20">
       <c r="R479" s="2"/>
       <c r="S479" s="2"/>
       <c r="T479" s="2"/>
     </row>
-    <row r="480" spans="18:20" ht="15.75">
+    <row r="480" ht="15.75" spans="18:20">
       <c r="R480" s="2"/>
       <c r="S480" s="2"/>
       <c r="T480" s="2"/>
     </row>
-    <row r="481" spans="18:20" ht="15.75">
+    <row r="481" ht="15.75" spans="18:20">
       <c r="R481" s="2"/>
       <c r="S481" s="2"/>
       <c r="T481" s="2"/>
     </row>
-    <row r="482" spans="18:20" ht="15.75">
+    <row r="482" ht="15.75" spans="18:20">
       <c r="R482" s="2"/>
       <c r="S482" s="2"/>
       <c r="T482" s="2"/>
     </row>
-    <row r="483" spans="18:20" ht="15.75">
+    <row r="483" ht="15.75" spans="18:20">
       <c r="R483" s="2"/>
       <c r="S483" s="2"/>
       <c r="T483" s="2"/>
     </row>
-    <row r="484" spans="18:20" ht="15.75">
+    <row r="484" ht="15.75" spans="18:20">
       <c r="R484" s="2"/>
       <c r="S484" s="2"/>
       <c r="T484" s="2"/>
     </row>
-    <row r="485" spans="18:20" ht="15.75">
+    <row r="485" ht="15.75" spans="18:20">
       <c r="R485" s="2"/>
       <c r="S485" s="2"/>
       <c r="T485" s="2"/>
     </row>
-    <row r="486" spans="18:20" ht="15.75">
+    <row r="486" ht="15.75" spans="18:20">
       <c r="R486" s="2"/>
       <c r="S486" s="2"/>
       <c r="T486" s="2"/>
     </row>
-    <row r="487" spans="18:20" ht="15.75">
+    <row r="487" ht="15.75" spans="18:20">
       <c r="R487" s="2"/>
       <c r="S487" s="2"/>
       <c r="T487" s="2"/>
     </row>
-    <row r="488" spans="18:20" ht="15.75">
+    <row r="488" ht="15.75" spans="18:20">
       <c r="R488" s="2"/>
       <c r="S488" s="2"/>
       <c r="T488" s="2"/>
     </row>
-    <row r="489" spans="18:20" ht="15.75">
+    <row r="489" ht="15.75" spans="18:20">
       <c r="R489" s="2"/>
       <c r="S489" s="2"/>
       <c r="T489" s="2"/>
     </row>
-    <row r="490" spans="18:20" ht="15.75">
+    <row r="490" ht="15.75" spans="18:20">
       <c r="R490" s="2"/>
       <c r="S490" s="2"/>
       <c r="T490" s="2"/>
     </row>
-    <row r="491" spans="18:20" ht="15.75">
+    <row r="491" ht="15.75" spans="18:20">
       <c r="R491" s="2"/>
       <c r="S491" s="2"/>
       <c r="T491" s="2"/>
     </row>
-    <row r="492" spans="18:20" ht="15.75">
+    <row r="492" ht="15.75" spans="18:20">
       <c r="R492" s="2"/>
       <c r="S492" s="2"/>
       <c r="T492" s="2"/>
     </row>
-    <row r="493" spans="18:20" ht="15.75">
+    <row r="493" ht="15.75" spans="18:20">
       <c r="R493" s="2"/>
       <c r="S493" s="2"/>
       <c r="T493" s="2"/>
     </row>
-    <row r="494" spans="18:20" ht="15.75">
+    <row r="494" ht="15.75" spans="18:20">
       <c r="R494" s="2"/>
       <c r="S494" s="2"/>
       <c r="T494" s="2"/>
     </row>
-    <row r="495" spans="18:20" ht="15.75">
+    <row r="495" ht="15.75" spans="18:20">
       <c r="R495" s="2"/>
       <c r="S495" s="2"/>
       <c r="T495" s="2"/>
     </row>
-    <row r="496" spans="18:20" ht="15.75">
+    <row r="496" ht="15.75" spans="18:20">
       <c r="R496" s="2"/>
       <c r="S496" s="2"/>
       <c r="T496" s="2"/>
     </row>
-    <row r="497" spans="18:20" ht="15.75">
+    <row r="497" ht="15.75" spans="18:20">
       <c r="R497" s="2"/>
       <c r="S497" s="2"/>
       <c r="T497" s="2"/>
     </row>
-    <row r="498" spans="18:20" ht="15.75">
+    <row r="498" ht="15.75" spans="18:20">
       <c r="R498" s="2"/>
       <c r="S498" s="2"/>
       <c r="T498" s="2"/>
     </row>
-    <row r="499" spans="18:20" ht="15.75">
+    <row r="499" ht="15.75" spans="18:20">
       <c r="R499" s="2"/>
       <c r="S499" s="2"/>
       <c r="T499" s="2"/>
     </row>
-    <row r="500" spans="18:20" ht="15.75">
+    <row r="500" ht="15.75" spans="18:20">
       <c r="R500" s="2"/>
       <c r="S500" s="2"/>
       <c r="T500" s="2"/>
     </row>
-    <row r="501" spans="18:20" ht="15.75">
+    <row r="501" ht="15.75" spans="18:20">
       <c r="R501" s="2"/>
       <c r="S501" s="2"/>
       <c r="T501" s="2"/>
     </row>
-    <row r="502" spans="18:20" ht="15.75">
+    <row r="502" ht="15.75" spans="18:20">
       <c r="R502" s="2"/>
       <c r="S502" s="2"/>
       <c r="T502" s="2"/>
     </row>
-    <row r="503" spans="18:20" ht="15.75">
+    <row r="503" ht="15.75" spans="18:20">
       <c r="R503" s="2"/>
       <c r="S503" s="2"/>
       <c r="T503" s="2"/>
     </row>
-    <row r="504" spans="18:20" ht="15.75">
+    <row r="504" ht="15.75" spans="18:20">
       <c r="R504" s="2"/>
       <c r="S504" s="2"/>
       <c r="T504" s="2"/>
     </row>
-    <row r="505" spans="18:20" ht="15.75">
+    <row r="505" ht="15.75" spans="18:20">
       <c r="R505" s="2"/>
       <c r="S505" s="2"/>
       <c r="T505" s="2"/>
     </row>
-    <row r="506" spans="18:20" ht="15.75">
+    <row r="506" ht="15.75" spans="18:20">
       <c r="R506" s="2"/>
       <c r="S506" s="2"/>
       <c r="T506" s="2"/>
     </row>
-    <row r="507" spans="18:20" ht="15.75">
+    <row r="507" ht="15.75" spans="18:20">
       <c r="R507" s="2"/>
       <c r="S507" s="2"/>
       <c r="T507" s="2"/>
     </row>
-    <row r="508" spans="18:20" ht="15.75">
+    <row r="508" ht="15.75" spans="18:20">
       <c r="R508" s="2"/>
       <c r="S508" s="2"/>
       <c r="T508" s="2"/>
     </row>
-    <row r="509" spans="18:20" ht="15.75">
+    <row r="509" ht="15.75" spans="18:20">
       <c r="R509" s="2"/>
       <c r="S509" s="2"/>
       <c r="T509" s="2"/>
     </row>
-    <row r="510" spans="18:20" ht="15.75">
+    <row r="510" ht="15.75" spans="18:20">
       <c r="R510" s="2"/>
       <c r="S510" s="2"/>
       <c r="T510" s="2"/>
     </row>
-    <row r="511" spans="18:20" ht="15.75">
+    <row r="511" ht="15.75" spans="18:20">
       <c r="R511" s="2"/>
       <c r="S511" s="2"/>
       <c r="T511" s="2"/>
     </row>
-    <row r="512" spans="18:20" ht="15.75">
+    <row r="512" ht="15.75" spans="18:20">
       <c r="R512" s="2"/>
       <c r="S512" s="2"/>
       <c r="T512" s="2"/>
     </row>
-    <row r="513" spans="18:20" ht="15.75">
+    <row r="513" ht="15.75" spans="18:20">
       <c r="R513" s="2"/>
       <c r="S513" s="2"/>
       <c r="T513" s="2"/>
     </row>
-    <row r="514" spans="18:20" ht="15.75">
+    <row r="514" ht="15.75" spans="18:20">
       <c r="R514" s="2"/>
       <c r="S514" s="2"/>
       <c r="T514" s="2"/>
     </row>
-    <row r="515" spans="18:20" ht="15.75">
+    <row r="515" ht="15.75" spans="18:20">
       <c r="R515" s="2"/>
       <c r="S515" s="2"/>
       <c r="T515" s="2"/>
     </row>
-    <row r="516" spans="18:20" ht="15.75">
+    <row r="516" ht="15.75" spans="18:20">
       <c r="R516" s="2"/>
       <c r="S516" s="2"/>
       <c r="T516" s="2"/>
     </row>
-    <row r="517" spans="18:20" ht="15.75">
+    <row r="517" ht="15.75" spans="18:20">
       <c r="R517" s="2"/>
       <c r="S517" s="2"/>
       <c r="T517" s="2"/>
     </row>
-    <row r="518" spans="18:20" ht="15.75">
+    <row r="518" ht="15.75" spans="18:20">
       <c r="R518" s="2"/>
       <c r="S518" s="2"/>
       <c r="T518" s="2"/>
     </row>
-    <row r="519" spans="18:20" ht="15.75">
+    <row r="519" ht="15.75" spans="18:20">
       <c r="R519" s="2"/>
       <c r="S519" s="2"/>
       <c r="T519" s="2"/>
     </row>
-    <row r="520" spans="18:20" ht="15.75">
+    <row r="520" ht="15.75" spans="18:20">
       <c r="R520" s="2"/>
       <c r="S520" s="2"/>
       <c r="T520" s="2"/>
     </row>
-    <row r="521" spans="18:20" ht="15.75">
+    <row r="521" ht="15.75" spans="18:20">
       <c r="R521" s="2"/>
       <c r="S521" s="2"/>
       <c r="T521" s="2"/>
     </row>
-    <row r="522" spans="18:20" ht="15.75">
+    <row r="522" ht="15.75" spans="18:20">
       <c r="R522" s="2"/>
       <c r="S522" s="2"/>
       <c r="T522" s="2"/>
     </row>
-    <row r="523" spans="18:20" ht="15.75">
+    <row r="523" ht="15.75" spans="18:20">
       <c r="R523" s="2"/>
       <c r="S523" s="2"/>
       <c r="T523" s="2"/>
     </row>
-    <row r="524" spans="18:20" ht="15.75">
+    <row r="524" ht="15.75" spans="18:20">
       <c r="R524" s="2"/>
       <c r="S524" s="2"/>
       <c r="T524" s="2"/>
     </row>
-    <row r="525" spans="18:20" ht="15.75">
+    <row r="525" ht="15.75" spans="18:20">
       <c r="R525" s="2"/>
       <c r="S525" s="2"/>
       <c r="T525" s="2"/>
     </row>
-    <row r="526" spans="18:20" ht="15.75">
+    <row r="526" ht="15.75" spans="18:20">
       <c r="R526" s="2"/>
       <c r="S526" s="2"/>
       <c r="T526" s="2"/>
     </row>
-    <row r="527" spans="18:20" ht="15.75">
+    <row r="527" ht="15.75" spans="18:20">
       <c r="R527" s="2"/>
       <c r="S527" s="2"/>
       <c r="T527" s="2"/>
     </row>
-    <row r="528" spans="18:20" ht="15.75">
+    <row r="528" ht="15.75" spans="18:20">
       <c r="R528" s="2"/>
       <c r="S528" s="2"/>
       <c r="T528" s="2"/>
     </row>
-    <row r="529" spans="18:20" ht="15.75">
+    <row r="529" ht="15.75" spans="18:20">
       <c r="R529" s="2"/>
       <c r="S529" s="2"/>
       <c r="T529" s="2"/>
     </row>
-    <row r="530" spans="18:20" ht="15.75">
+    <row r="530" ht="15.75" spans="18:20">
       <c r="R530" s="2"/>
       <c r="S530" s="2"/>
       <c r="T530" s="2"/>
     </row>
-    <row r="531" spans="18:20" ht="15.75">
+    <row r="531" ht="15.75" spans="18:20">
       <c r="R531" s="2"/>
       <c r="S531" s="2"/>
       <c r="T531" s="2"/>
     </row>
-    <row r="532" spans="18:20" ht="15.75">
+    <row r="532" ht="15.75" spans="18:20">
       <c r="R532" s="2"/>
       <c r="S532" s="2"/>
       <c r="T532" s="2"/>
     </row>
-    <row r="533" spans="18:20" ht="15.75">
+    <row r="533" ht="15.75" spans="18:20">
       <c r="R533" s="2"/>
       <c r="S533" s="2"/>
       <c r="T533" s="2"/>
     </row>
-    <row r="534" spans="18:20" ht="15.75">
+    <row r="534" ht="15.75" spans="18:20">
       <c r="R534" s="2"/>
       <c r="S534" s="2"/>
       <c r="T534" s="2"/>
     </row>
-    <row r="535" spans="18:20" ht="15.75">
+    <row r="535" ht="15.75" spans="18:20">
       <c r="R535" s="2"/>
       <c r="S535" s="2"/>
       <c r="T535" s="2"/>
     </row>
-    <row r="536" spans="18:20" ht="15.75">
+    <row r="536" ht="15.75" spans="18:20">
       <c r="R536" s="2"/>
       <c r="S536" s="2"/>
       <c r="T536" s="2"/>
     </row>
-    <row r="537" spans="18:20" ht="15.75">
+    <row r="537" ht="15.75" spans="18:20">
       <c r="R537" s="2"/>
       <c r="S537" s="2"/>
       <c r="T537" s="2"/>
     </row>
-    <row r="538" spans="18:20" ht="15.75">
+    <row r="538" ht="15.75" spans="18:20">
       <c r="R538" s="2"/>
       <c r="S538" s="2"/>
       <c r="T538" s="2"/>
     </row>
-    <row r="539" spans="18:20" ht="15.75">
+    <row r="539" ht="15.75" spans="18:20">
       <c r="R539" s="2"/>
       <c r="S539" s="2"/>
       <c r="T539" s="2"/>
     </row>
-    <row r="540" spans="18:20" ht="15.75">
+    <row r="540" ht="15.75" spans="18:20">
       <c r="R540" s="2"/>
       <c r="S540" s="2"/>
       <c r="T540" s="2"/>
     </row>
-    <row r="541" spans="18:20" ht="15.75">
+    <row r="541" ht="15.75" spans="18:20">
       <c r="R541" s="2"/>
       <c r="S541" s="2"/>
       <c r="T541" s="2"/>
     </row>
-    <row r="542" spans="18:20" ht="15.75">
+    <row r="542" ht="15.75" spans="18:20">
       <c r="R542" s="2"/>
       <c r="S542" s="2"/>
       <c r="T542" s="2"/>
     </row>
-    <row r="543" spans="18:20" ht="15.75">
+    <row r="543" ht="15.75" spans="18:20">
       <c r="R543" s="2"/>
       <c r="S543" s="2"/>
       <c r="T543" s="2"/>
     </row>
-    <row r="544" spans="18:20" ht="15.75">
+    <row r="544" ht="15.75" spans="18:20">
       <c r="R544" s="2"/>
       <c r="S544" s="2"/>
       <c r="T544" s="2"/>
     </row>
-    <row r="545" spans="18:20" ht="15.75">
+    <row r="545" ht="15.75" spans="18:20">
       <c r="R545" s="2"/>
       <c r="S545" s="2"/>
       <c r="T545" s="2"/>
     </row>
-    <row r="546" spans="18:20" ht="15.75">
+    <row r="546" ht="15.75" spans="18:20">
       <c r="R546" s="2"/>
       <c r="S546" s="2"/>
       <c r="T546" s="2"/>
     </row>
-    <row r="547" spans="18:20" ht="15.75">
+    <row r="547" ht="15.75" spans="18:20">
       <c r="R547" s="2"/>
       <c r="S547" s="2"/>
       <c r="T547" s="2"/>
     </row>
-    <row r="548" spans="18:20" ht="15.75">
+    <row r="548" ht="15.75" spans="18:20">
       <c r="R548" s="2"/>
       <c r="S548" s="2"/>
       <c r="T548" s="2"/>
     </row>
-    <row r="549" spans="18:20" ht="15.75">
+    <row r="549" ht="15.75" spans="18:20">
       <c r="R549" s="2"/>
       <c r="S549" s="2"/>
       <c r="T549" s="2"/>
     </row>
-    <row r="550" spans="18:20" ht="15.75">
+    <row r="550" ht="15.75" spans="18:20">
       <c r="R550" s="2"/>
       <c r="S550" s="2"/>
       <c r="T550" s="2"/>
     </row>
-    <row r="551" spans="18:20" ht="15.75">
+    <row r="551" ht="15.75" spans="18:20">
       <c r="R551" s="2"/>
       <c r="S551" s="2"/>
       <c r="T551" s="2"/>
     </row>
-    <row r="552" spans="18:20" ht="15.75">
+    <row r="552" ht="15.75" spans="18:20">
       <c r="R552" s="2"/>
       <c r="S552" s="2"/>
       <c r="T552" s="2"/>
     </row>
-    <row r="553" spans="18:20" ht="15.75">
+    <row r="553" ht="15.75" spans="18:20">
       <c r="R553" s="2"/>
       <c r="S553" s="2"/>
       <c r="T553" s="2"/>
     </row>
-    <row r="554" spans="18:20" ht="15.75">
+    <row r="554" ht="15.75" spans="18:20">
       <c r="R554" s="2"/>
       <c r="S554" s="2"/>
       <c r="T554" s="2"/>
     </row>
-    <row r="555" spans="18:20" ht="15.75">
+    <row r="555" ht="15.75" spans="18:20">
       <c r="R555" s="2"/>
       <c r="S555" s="2"/>
       <c r="T555" s="2"/>
     </row>
-    <row r="556" spans="18:20" ht="15.75">
+    <row r="556" ht="15.75" spans="18:20">
       <c r="R556" s="2"/>
       <c r="S556" s="2"/>
       <c r="T556" s="2"/>
     </row>
-    <row r="557" spans="18:20" ht="15.75">
+    <row r="557" ht="15.75" spans="18:20">
       <c r="R557" s="2"/>
       <c r="S557" s="2"/>
       <c r="T557" s="2"/>
     </row>
-    <row r="558" spans="18:20" ht="15.75">
+    <row r="558" ht="15.75" spans="18:20">
       <c r="R558" s="2"/>
       <c r="S558" s="2"/>
       <c r="T558" s="2"/>
     </row>
-    <row r="559" spans="18:20" ht="15.75">
+    <row r="559" ht="15.75" spans="18:20">
       <c r="R559" s="2"/>
       <c r="S559" s="2"/>
       <c r="T559" s="2"/>
     </row>
-    <row r="560" spans="18:20" ht="15.75">
+    <row r="560" ht="15.75" spans="18:20">
       <c r="R560" s="2"/>
       <c r="S560" s="2"/>
       <c r="T560" s="2"/>
     </row>
-    <row r="561" spans="18:20" ht="15.75">
+    <row r="561" ht="15.75" spans="18:20">
       <c r="R561" s="2"/>
       <c r="S561" s="2"/>
       <c r="T561" s="2"/>
     </row>
-    <row r="562" spans="18:20" ht="15.75">
+    <row r="562" ht="15.75" spans="18:20">
       <c r="R562" s="2"/>
       <c r="S562" s="2"/>
       <c r="T562" s="2"/>
     </row>
-    <row r="563" spans="18:20" ht="15.75">
+    <row r="563" ht="15.75" spans="18:20">
       <c r="R563" s="2"/>
       <c r="S563" s="2"/>
       <c r="T563" s="2"/>
     </row>
-    <row r="564" spans="18:20" ht="15.75">
+    <row r="564" ht="15.75" spans="18:20">
       <c r="R564" s="2"/>
       <c r="S564" s="2"/>
       <c r="T564" s="2"/>
     </row>
-    <row r="565" spans="18:20" ht="15.75">
+    <row r="565" ht="15.75" spans="18:20">
       <c r="R565" s="2"/>
       <c r="S565" s="2"/>
       <c r="T565" s="2"/>
     </row>
-    <row r="566" spans="18:20" ht="15.75">
+    <row r="566" ht="15.75" spans="18:20">
       <c r="R566" s="2"/>
       <c r="S566" s="2"/>
       <c r="T566" s="2"/>
     </row>
-    <row r="567" spans="18:20" ht="15.75">
+    <row r="567" ht="15.75" spans="18:20">
       <c r="R567" s="2"/>
       <c r="S567" s="2"/>
       <c r="T567" s="2"/>
     </row>
-    <row r="568" spans="18:20" ht="15.75">
+    <row r="568" ht="15.75" spans="18:20">
       <c r="R568" s="2"/>
       <c r="S568" s="2"/>
       <c r="T568" s="2"/>
     </row>
-    <row r="569" spans="18:20" ht="15.75">
+    <row r="569" ht="15.75" spans="18:20">
       <c r="R569" s="2"/>
       <c r="S569" s="2"/>
       <c r="T569" s="2"/>
     </row>
-    <row r="570" spans="18:20" ht="15.75">
+    <row r="570" ht="15.75" spans="18:20">
       <c r="R570" s="2"/>
       <c r="S570" s="2"/>
       <c r="T570" s="2"/>
     </row>
-    <row r="571" spans="18:20" ht="15.75">
+    <row r="571" ht="15.75" spans="18:20">
       <c r="R571" s="2"/>
       <c r="S571" s="2"/>
       <c r="T571" s="2"/>
     </row>
-    <row r="572" spans="18:20" ht="15.75">
+    <row r="572" ht="15.75" spans="18:20">
       <c r="R572" s="2"/>
       <c r="S572" s="2"/>
       <c r="T572" s="2"/>
     </row>
-    <row r="573" spans="18:20" ht="15.75">
+    <row r="573" ht="15.75" spans="18:20">
       <c r="R573" s="2"/>
       <c r="S573" s="2"/>
       <c r="T573" s="2"/>
     </row>
-    <row r="574" spans="18:20" ht="15.75">
+    <row r="574" ht="15.75" spans="18:20">
       <c r="R574" s="2"/>
       <c r="S574" s="2"/>
       <c r="T574" s="2"/>
     </row>
-    <row r="575" spans="18:20" ht="15.75">
+    <row r="575" ht="15.75" spans="18:20">
       <c r="R575" s="2"/>
       <c r="S575" s="2"/>
       <c r="T575" s="2"/>
     </row>
-    <row r="576" spans="18:20" ht="15.75">
+    <row r="576" ht="15.75" spans="18:20">
       <c r="R576" s="2"/>
       <c r="S576" s="2"/>
       <c r="T576" s="2"/>
     </row>
-    <row r="577" spans="18:20" ht="15.75">
+    <row r="577" ht="15.75" spans="18:20">
       <c r="R577" s="2"/>
       <c r="S577" s="2"/>
       <c r="T577" s="2"/>
     </row>
-    <row r="578" spans="18:20" ht="15.75">
+    <row r="578" ht="15.75" spans="18:20">
       <c r="R578" s="2"/>
       <c r="S578" s="2"/>
       <c r="T578" s="2"/>
     </row>
-    <row r="579" spans="18:20" ht="15.75">
+    <row r="579" ht="15.75" spans="18:20">
       <c r="R579" s="2"/>
       <c r="S579" s="2"/>
       <c r="T579" s="2"/>
     </row>
-    <row r="580" spans="18:20" ht="15.75">
+    <row r="580" ht="15.75" spans="18:20">
       <c r="R580" s="2"/>
       <c r="S580" s="2"/>
       <c r="T580" s="2"/>
     </row>
-    <row r="581" spans="18:20" ht="15.75">
+    <row r="581" ht="15.75" spans="18:20">
       <c r="R581" s="2"/>
       <c r="S581" s="2"/>
       <c r="T581" s="2"/>
     </row>
-    <row r="582" spans="18:20" ht="15.75">
+    <row r="582" ht="15.75" spans="18:20">
       <c r="R582" s="2"/>
       <c r="S582" s="2"/>
       <c r="T582" s="2"/>
     </row>
-    <row r="583" spans="18:20" ht="15.75">
+    <row r="583" ht="15.75" spans="18:20">
       <c r="R583" s="2"/>
       <c r="S583" s="2"/>
       <c r="T583" s="2"/>
     </row>
-    <row r="584" spans="18:20" ht="15.75">
+    <row r="584" ht="15.75" spans="18:20">
       <c r="R584" s="2"/>
       <c r="S584" s="2"/>
       <c r="T584" s="2"/>
     </row>
-    <row r="585" spans="18:20" ht="15.75">
+    <row r="585" ht="15.75" spans="18:20">
       <c r="R585" s="2"/>
       <c r="S585" s="2"/>
       <c r="T585" s="2"/>
     </row>
-    <row r="586" spans="18:20" ht="15.75">
+    <row r="586" ht="15.75" spans="18:20">
       <c r="R586" s="2"/>
       <c r="S586" s="2"/>
       <c r="T586" s="2"/>
     </row>
-    <row r="587" spans="18:20" ht="15.75">
+    <row r="587" ht="15.75" spans="18:20">
       <c r="R587" s="2"/>
       <c r="S587" s="2"/>
       <c r="T587" s="2"/>
     </row>
-    <row r="588" spans="18:20" ht="15.75">
+    <row r="588" ht="15.75" spans="18:20">
       <c r="R588" s="2"/>
       <c r="S588" s="2"/>
       <c r="T588" s="2"/>
     </row>
-    <row r="589" spans="18:20" ht="15.75">
+    <row r="589" ht="15.75" spans="18:20">
       <c r="R589" s="2"/>
       <c r="S589" s="2"/>
       <c r="T589" s="2"/>
     </row>
-    <row r="590" spans="18:20" ht="15.75">
+    <row r="590" ht="15.75" spans="18:20">
       <c r="R590" s="2"/>
       <c r="S590" s="2"/>
       <c r="T590" s="2"/>
     </row>
-    <row r="591" spans="18:20" ht="15.75">
+    <row r="591" ht="15.75" spans="18:20">
       <c r="R591" s="2"/>
       <c r="S591" s="2"/>
       <c r="T591" s="2"/>
     </row>
-    <row r="592" spans="18:20" ht="15.75">
+    <row r="592" ht="15.75" spans="18:20">
       <c r="R592" s="2"/>
       <c r="S592" s="2"/>
       <c r="T592" s="2"/>
     </row>
-    <row r="593" spans="18:20" ht="15.75">
+    <row r="593" ht="15.75" spans="18:20">
       <c r="R593" s="2"/>
       <c r="S593" s="2"/>
       <c r="T593" s="2"/>
     </row>
-    <row r="594" spans="18:20" ht="15.75">
+    <row r="594" ht="15.75" spans="18:20">
       <c r="R594" s="2"/>
       <c r="S594" s="2"/>
       <c r="T594" s="2"/>
     </row>
-    <row r="595" spans="18:20" ht="15.75">
+    <row r="595" ht="15.75" spans="18:20">
       <c r="R595" s="2"/>
       <c r="S595" s="2"/>
       <c r="T595" s="2"/>
     </row>
-    <row r="596" spans="18:20" ht="15.75">
+    <row r="596" ht="15.75" spans="18:20">
       <c r="R596" s="2"/>
       <c r="S596" s="2"/>
       <c r="T596" s="2"/>
     </row>
-    <row r="597" spans="18:20" ht="15.75">
+    <row r="597" ht="15.75" spans="18:20">
       <c r="R597" s="2"/>
       <c r="S597" s="2"/>
       <c r="T597" s="2"/>
     </row>
-    <row r="598" spans="18:20" ht="15.75">
+    <row r="598" ht="15.75" spans="18:20">
       <c r="R598" s="2"/>
       <c r="S598" s="2"/>
       <c r="T598" s="2"/>
     </row>
-    <row r="599" spans="18:20" ht="15.75">
+    <row r="599" ht="15.75" spans="18:20">
       <c r="R599" s="2"/>
       <c r="S599" s="2"/>
       <c r="T599" s="2"/>
     </row>
-    <row r="600" spans="18:20" ht="15.75">
+    <row r="600" ht="15.75" spans="18:20">
       <c r="R600" s="2"/>
       <c r="S600" s="2"/>
       <c r="T600" s="2"/>
     </row>
-    <row r="601" spans="18:20" ht="15.75">
+    <row r="601" ht="15.75" spans="18:20">
       <c r="R601" s="2"/>
       <c r="S601" s="2"/>
       <c r="T601" s="2"/>
     </row>
-    <row r="602" spans="18:20" ht="15.75">
+    <row r="602" ht="15.75" spans="18:20">
       <c r="R602" s="2"/>
       <c r="S602" s="2"/>
       <c r="T602" s="2"/>
     </row>
-    <row r="603" spans="18:20" ht="15.75">
+    <row r="603" ht="15.75" spans="18:20">
       <c r="R603" s="2"/>
       <c r="S603" s="2"/>
       <c r="T603" s="2"/>
     </row>
-    <row r="604" spans="18:20" ht="15.75">
+    <row r="604" ht="15.75" spans="18:20">
       <c r="R604" s="2"/>
       <c r="S604" s="2"/>
       <c r="T604" s="2"/>
     </row>
-    <row r="605" spans="18:20" ht="15.75">
+    <row r="605" ht="15.75" spans="18:20">
       <c r="R605" s="2"/>
       <c r="S605" s="2"/>
       <c r="T605" s="2"/>
     </row>
-    <row r="606" spans="18:20" ht="15.75">
+    <row r="606" ht="15.75" spans="18:20">
       <c r="R606" s="2"/>
       <c r="S606" s="2"/>
       <c r="T606" s="2"/>
     </row>
+    <row r="607" ht="15.75" spans="18:20">
+      <c r="R607" s="2"/>
+      <c r="S607" s="2"/>
+      <c r="T607" s="2"/>
+    </row>
+    <row r="608" ht="15.75" spans="18:20">
+      <c r="R608" s="2"/>
+      <c r="S608" s="2"/>
+      <c r="T608" s="2"/>
+    </row>
+    <row r="609" ht="15.75" spans="18:20">
+      <c r="R609" s="2"/>
+      <c r="S609" s="2"/>
+      <c r="T609" s="2"/>
+    </row>
+    <row r="610" ht="15.75" spans="18:20">
+      <c r="R610" s="2"/>
+      <c r="S610" s="2"/>
+      <c r="T610" s="2"/>
+    </row>
+    <row r="611" ht="15.75" spans="18:20">
+      <c r="R611" s="2"/>
+      <c r="S611" s="2"/>
+      <c r="T611" s="2"/>
+    </row>
+    <row r="612" ht="15.75" spans="18:20">
+      <c r="R612" s="2"/>
+      <c r="S612" s="2"/>
+      <c r="T612" s="2"/>
+    </row>
+    <row r="613" ht="15.75" spans="18:20">
+      <c r="R613" s="2"/>
+      <c r="S613" s="2"/>
+      <c r="T613" s="2"/>
+    </row>
+    <row r="614" ht="15.75" spans="18:20">
+      <c r="R614" s="2"/>
+      <c r="S614" s="2"/>
+      <c r="T614" s="2"/>
+    </row>
+    <row r="615" ht="15.75" spans="18:20">
+      <c r="R615" s="2"/>
+      <c r="S615" s="2"/>
+      <c r="T615" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="T2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="R2" r:id="rId1" display="View PDF"/>
+    <hyperlink ref="S2" r:id="rId2" display="View Approved Plan"/>
+    <hyperlink ref="T2" r:id="rId3" display="View Approval Letter"/>
+    <hyperlink ref="R3" r:id="rId4" display="View PDF"/>
+    <hyperlink ref="S3" r:id="rId5" display="View Approved Plan"/>
+    <hyperlink ref="T11" r:id="rId6" display="View Approval Letter"/>
+    <hyperlink ref="S11" r:id="rId7" display="View Approved Plan"/>
+    <hyperlink ref="R11" r:id="rId8" display="View PDF"/>
+    <hyperlink ref="T10" r:id="rId9" display="View Approval Letter"/>
+    <hyperlink ref="S10" r:id="rId10" display="View Approved Plan"/>
+    <hyperlink ref="R10" r:id="rId11" display="View PDF"/>
+    <hyperlink ref="T9" r:id="rId12" display="View Approval Letter"/>
+    <hyperlink ref="S9" r:id="rId13" display="View Approved Plan"/>
+    <hyperlink ref="R9" r:id="rId14" display="View PDF"/>
+    <hyperlink ref="T8" r:id="rId15" display="View Approval Letter"/>
+    <hyperlink ref="S8" r:id="rId16" display="View Approved Plan"/>
+    <hyperlink ref="R8" r:id="rId17" display="View PDF"/>
+    <hyperlink ref="T7" r:id="rId18" display="View Approval Letter"/>
+    <hyperlink ref="S7" r:id="rId19" display="View Approved Plan"/>
+    <hyperlink ref="R7" r:id="rId20" display="View PDF"/>
+    <hyperlink ref="T6" r:id="rId21" display="View Approval Letter"/>
+    <hyperlink ref="S6" r:id="rId22" display="View Approved Plan"/>
+    <hyperlink ref="R6" r:id="rId23" display="View PDF"/>
+    <hyperlink ref="T5" r:id="rId24" display="View Approval Letter"/>
+    <hyperlink ref="S5" r:id="rId25" display="View Approved Plan"/>
+    <hyperlink ref="R5" r:id="rId26" display="View PDF"/>
+    <hyperlink ref="T4" r:id="rId27" display="View Approval Letter"/>
+    <hyperlink ref="S4" r:id="rId28" display="View Approved Plan"/>
+    <hyperlink ref="R4" r:id="rId29" display="View PDF"/>
+    <hyperlink ref="T3" r:id="rId30" display="View Approval Letter"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Original_Data_Set.xlsx
+++ b/Original_Data_Set.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
   <si>
     <t>File No.</t>
   </si>
@@ -390,6 +390,15 @@
   </si>
   <si>
     <t>Dharkast Road (Kishkindha Main Road), Kannadapalayam, West Tambaram, Chennai 600045, comprised in Old S.Nos.268/2, 268/3 &amp; 268/4, and T.S.Nos.106/1, 107/2, 107/3, 108/2 &amp; 108/3, Block No.21, Ward No.C of Tambaram Village, Tambaram Taluk within the Limits of Tambaram Municipal Corporation</t>
+  </si>
+  <si>
+    <t>9.P.Elanchezhiyan. B.Arch.,M.T.P</t>
+  </si>
+  <si>
+    <t>CMDA Regn. No. RA/Gr.I/19/06/276, No. 14/S2, Thirumurthy Nagar, Madananda puram,, Chennai- 600 125.</t>
+  </si>
+  <si>
+    <t>elan@rspindia.net</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,13 +428,6 @@
     <font>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -876,152 +878,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1369,10 +1374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1501,13 +1506,13 @@
       <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1551,13 +1556,13 @@
       <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1601,13 +1606,13 @@
       <c r="M4" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1651,13 +1656,13 @@
       <c r="M5" t="s">
         <v>73</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1701,13 +1706,13 @@
       <c r="M6" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1751,13 +1756,13 @@
       <c r="M7" t="s">
         <v>98</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1801,13 +1806,13 @@
       <c r="M8" t="s">
         <v>108</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1851,13 +1856,72 @@
       <c r="M9" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1887,6 +1951,9 @@
     <hyperlink ref="R9" r:id="rId22" display="View PDF"/>
     <hyperlink ref="S9" r:id="rId23" display="View Approved Plan"/>
     <hyperlink ref="T9" r:id="rId24" display="View Approval Letter"/>
+    <hyperlink ref="R10" r:id="rId1" display="View PDF"/>
+    <hyperlink ref="S10" r:id="rId2" display="View Approved Plan"/>
+    <hyperlink ref="T10" r:id="rId3" display="View Approval Letter"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Original_Data_Set.xlsx
+++ b/Original_Data_Set.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t>File No.</t>
   </si>
@@ -89,40 +89,40 @@
     <t>Approval Letter</t>
   </si>
   <si>
-    <t>CMDA/PP/NHRB/S/0630/2024</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0025/2025</t>
-  </si>
-  <si>
-    <t>OL-01532</t>
-  </si>
-  <si>
-    <t>29-01-2025</t>
-  </si>
-  <si>
-    <t>11/09/2024</t>
-  </si>
-  <si>
-    <t>8754580801</t>
-  </si>
-  <si>
-    <t>athulyamenterprises@gmail.com</t>
-  </si>
-  <si>
-    <t>ATHULYAM ENTERPRISES PVT LTD Rep by Its Director Mr Krishnan</t>
-  </si>
-  <si>
-    <t>5/8, 1, Thiruveethi amman koil street, R A Puram, Mandaiveli, Adambakkam</t>
-  </si>
-  <si>
-    <t>Proposed construction of Stilt floor + 4 floors(Height - 15.25) Residential Building with 11 dwelling units Availing Premium FSI with TOD Benefit</t>
-  </si>
-  <si>
-    <t>11 dwelling units</t>
-  </si>
-  <si>
-    <t>Door No.5, Plot No.11, 5th street, Ram Nagar, Naganallur,Chennai-61 comprised in S.No.96/7 and T.S.No.34/2, Block No.15, Ward E of Adambakkam village within the limits of Greater Chennai Corporation</t>
+    <t>CMDA/PP/NHRB/S/0204/2025</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0239/2025</t>
+  </si>
+  <si>
+    <t>OL-01906</t>
+  </si>
+  <si>
+    <t>25-06-2025</t>
+  </si>
+  <si>
+    <t>22/03/2025</t>
+  </si>
+  <si>
+    <t>9444009349</t>
+  </si>
+  <si>
+    <t>venran2007@gmail.com</t>
+  </si>
+  <si>
+    <t>MS PRAGATHI PROPERTIES REP K VENKATESH</t>
+  </si>
+  <si>
+    <t>8/9, C 27, Chennai, THIRUVALLUR NAGAR ALANDUR, CHENNAI, Adambakkam</t>
+  </si>
+  <si>
+    <t>Planning Permission for the proposed construction of Stilt floor + 4 floors (Height - 15.0m) Residential Building with 8 dwelling units</t>
+  </si>
+  <si>
+    <t>8 dwelling units</t>
+  </si>
+  <si>
+    <t>Plot No.C-27, Door No.8/9, 1st Street, Thiruvalluvar Nagar, Alandur, Chennai 600016 comprised in Paimash No.861, 862 &amp; 863 (Document), Old S.No.27/2 and T.S.No.50, Block No.2, Ward - E (Patta) of Adambakkam Village, Alandur Taluk within the limits of Greater Chennai Corporation</t>
   </si>
   <si>
     <t>Adambakkam</t>
@@ -137,268 +137,196 @@
     <t>View Approval Letter</t>
   </si>
   <si>
-    <t>CMDA/PP/NHRB/N/0488/2025</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0349/2025</t>
-  </si>
-  <si>
-    <t>OL-02112</t>
-  </si>
-  <si>
-    <t>10-09-2025</t>
-  </si>
-  <si>
-    <t>23/06/2025</t>
-  </si>
-  <si>
-    <t>9840020301</t>
-  </si>
-  <si>
-    <t>vijayreva06@gmail.com</t>
-  </si>
-  <si>
-    <t>Ms India Builders Chennai Limited Represented by its Director Mr U Preetam Karthik AA36, AA36, 3rd</t>
-  </si>
-  <si>
-    <t>Street, 3rd Main Road, Anna Nagar, Koyambedu</t>
-  </si>
-  <si>
-    <t>Proposed construction of Stilt Floor + 5 Floors Residential building (18.30m Height) with 5 Dwelling units</t>
-  </si>
-  <si>
-    <t>5 Dwelling units</t>
-  </si>
-  <si>
-    <t>At Plot No.1368 Door No.4, 7th Street, Vallalar Kudiyurupu, Anna Nagar, Chennai 600 040 Comprised in S.No.154 pt, New S.No.154/2pt, T.S.No.73, Block No.37, I Block, Ward No.001, of Villivkkam Village within the limits of Greater Chennai Corporation</t>
+    <t>CMDA/PP/NHRB/S/0085/2025</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0218/2025</t>
+  </si>
+  <si>
+    <t>OL-01869</t>
+  </si>
+  <si>
+    <t>11-06-2025</t>
+  </si>
+  <si>
+    <t>06/02/2025</t>
+  </si>
+  <si>
+    <t>7092245303</t>
+  </si>
+  <si>
+    <t>aperiasamy@gmail.com</t>
+  </si>
+  <si>
+    <t>PERIASAMY ARNASALAM PILLAY AND P GEETHA</t>
+  </si>
+  <si>
+    <t>7, NIL, MARUTHAI AVENUE, OFF RANJITH ROAD, KOTTURPURAM, Adyar</t>
+  </si>
+  <si>
+    <t>Proposed construction of Stilt floor+ 3 floors Residential Building (Height-14.00 m) 6 Dwelling units</t>
+  </si>
+  <si>
+    <t>6 Dwelling units</t>
+  </si>
+  <si>
+    <t>Plot No.6 &amp; 103pt, Door No.7, Maruthai Avenue, Ranjith Cross Street, Kotturpuram, Chennai-600085 comprised in Old T.S.No 7 part and T.S.No.7/25 , 7/32, Block No.14 of Adyar Village within the limits of Greater Chennai Corporation</t>
   </si>
   <si>
     <t>Adyar</t>
   </si>
   <si>
-    <t>CMDA/PP/NHRB/C/0357/2025</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0294/2025</t>
-  </si>
-  <si>
-    <t>OL-01993</t>
-  </si>
-  <si>
-    <t>23-07-2025</t>
-  </si>
-  <si>
-    <t>19/05/2025</t>
-  </si>
-  <si>
-    <t>9483597940</t>
-  </si>
-  <si>
-    <t>landandbuildings@gmail.com</t>
-  </si>
-  <si>
-    <t>Ms Land and Buildings</t>
-  </si>
-  <si>
-    <t>Virugambakkam</t>
-  </si>
-  <si>
-    <t>Planning Permission Application for the proposed construction of Stilt floor + 4 floors (Height - 16.0m) Residential Building with 4 dwelling units Availing Premium FSI</t>
-  </si>
-  <si>
-    <t>4 dwelling units</t>
-  </si>
-  <si>
-    <t>Plot No.557, Door No.31, 4th Sector, 14th Street, K.K. Nagar, Chennai 600078 comprised in Old S.No.275/1 (Pt) (Document) and T.S.No.21, Block No.56 of Virugambakkam Village, within the limit of Greater Chennai Corporation</t>
-  </si>
-  <si>
-    <t>Puliyur</t>
-  </si>
-  <si>
-    <t>CMDA/PP/NHRB/C/0935/2024</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0285/2025</t>
-  </si>
-  <si>
-    <t>OL-01981</t>
-  </si>
-  <si>
-    <t>30/12/2024</t>
-  </si>
-  <si>
-    <t>9840312727</t>
-  </si>
-  <si>
-    <t>syeddhasthakir@gmail.com</t>
-  </si>
-  <si>
-    <t>KR YUVITH</t>
-  </si>
-  <si>
-    <t>114, 114, BHASKAR COLONY 3RD STREET, , VIRUGAMBAKKAM, Koyambedu</t>
-  </si>
-  <si>
-    <t>Proposed construction of Stilt Floor + 5 Floors Residential Building (Height-18.00m) with 17 Dwelling Units availing premium FSI with TOD benefit</t>
-  </si>
-  <si>
-    <t>17 Dwelling Units</t>
-  </si>
-  <si>
-    <t>Plot No.56,57 &amp; 58, Door No.30, Old Door No.30(57) &amp; New Door No.17, Elango Nagar Main Road, Virugambakkam, Chennai comprised in Old S.No.146(part) and T.S.No.78 &amp; 79, Block No.5 of Virugambakkam village, Mambalam Taluk within the Limits of Greater Chennai Corporation</t>
+    <t>CMDA/PP/NHRB/N/0239/2025</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0297/2025</t>
+  </si>
+  <si>
+    <t>OL-01996</t>
+  </si>
+  <si>
+    <t>25-07-2025</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>npsdevelopers.md@gmail.com</t>
+  </si>
+  <si>
+    <t>NPSH Developers Pvt Ltd</t>
+  </si>
+  <si>
+    <t>25, 25, Kattabomman Street, Virugambakkam, Chennai 600092</t>
+  </si>
+  <si>
+    <t>Proposed construction of Stilt Floor (Parking) + 3 Floors Residential Building with 16 dwelling units (Height- 13.20 m)</t>
+  </si>
+  <si>
+    <t>16 dwelling units</t>
+  </si>
+  <si>
+    <t>at Plot No.213, Ranganayaki Ammal Street, Ayyavu Naidu Colony, Arumbakkam, Chennai- 600 029, comprised in Old R.S.No. 46/2pt &amp; 45/6pt and T.S.No. 4/16 &amp; 54, Block No.22 &amp; 23 , Ward.001 of Arumbakkam village, Aminijikarai Taluk Within the limits of Greater Chennai Corporation</t>
+  </si>
+  <si>
+    <t>Arumbakkam</t>
+  </si>
+  <si>
+    <t>CMDA/PP/NHRB/S/0162/2025</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0161/2025</t>
+  </si>
+  <si>
+    <t>OL-01776</t>
+  </si>
+  <si>
+    <t>08-05-2025</t>
+  </si>
+  <si>
+    <t>11/03/2025</t>
+  </si>
+  <si>
+    <t>7550189065</t>
+  </si>
+  <si>
+    <t>ramusundaram1994@gmail.com</t>
+  </si>
+  <si>
+    <t>MS SRISTI REP BY ITS PARTNER MR S RAMUSUNDARAM GPA</t>
+  </si>
+  <si>
+    <t>171/113, NIL, ST.MARY'S ROAD, ABHIRAMAPURAM, CHENNAI 600018, Mylapore</t>
+  </si>
+  <si>
+    <t>Planning Permission for the proposed construction Stilt floor + 4 floors (Height - 17.90m) Residential Building with 6 dwelling units</t>
+  </si>
+  <si>
+    <t>6 dwelling units</t>
+  </si>
+  <si>
+    <t>Plot No.212, 5th Cross Street, Classic Retreat, Shollinganallur, Chennai 600119 comprised in Old S.No.594/3A &amp; 594/4 (pt), New S.No.594/3 of Sholinganallur Village within the limit of Greater Chennai Corporation</t>
+  </si>
+  <si>
+    <t>Sholinganallur</t>
+  </si>
+  <si>
+    <t>CMDA/PP/NHRB/S/0198/2025</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0238/2025</t>
+  </si>
+  <si>
+    <t>OL-01905</t>
+  </si>
+  <si>
+    <t>21/03/2025</t>
+  </si>
+  <si>
+    <t>8428009977</t>
+  </si>
+  <si>
+    <t>office.preethafoundation@gmail.com</t>
+  </si>
+  <si>
+    <t>Ms PREETHA FOUNDATION JANANI CONSTRUCTIONS REP BY ITS PARTNERS Mr SHAKTHI NARAIN C N AND Ms AKSHAYA MOORTHY</t>
+  </si>
+  <si>
+    <t>9/5, NIL, VENKATRAMAN STREET, , PERAMBUR CHENNAI 600011, Okkiam Thorapakkam</t>
+  </si>
+  <si>
+    <t>Proposed construction of Stilt Floor + 3 Floors (Height - 12.80m) Residential Building with 12 Dwelling Units</t>
+  </si>
+  <si>
+    <t>12 Dwelling Units</t>
+  </si>
+  <si>
+    <t>Plot No.22 (CMDA Approved Layout P.P.D/L.O No.6/82), Vetrivelan Nagar, Sithalapakkam, Chennai Comprised in Old S.No.33/1A (Document), S.No.33/12 (Patta) of Sithalapakkam Village within the Limits of St.Thomas Mount Panchayat Union</t>
+  </si>
+  <si>
+    <t>Sithalapakkam</t>
+  </si>
+  <si>
+    <t>CMDA/PP/NHRB/S/0174/2025</t>
+  </si>
+  <si>
+    <t>OL-PP/NHRB/0158/2025</t>
+  </si>
+  <si>
+    <t>OL-01765</t>
+  </si>
+  <si>
+    <t>30-04-2025</t>
+  </si>
+  <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
+    <t>9840992353</t>
+  </si>
+  <si>
+    <t>vdc.arch@gmail.com</t>
+  </si>
+  <si>
+    <t>Mrs Shashikala Reddy</t>
+  </si>
+  <si>
+    <t>34, Nil, Mudichur Road, West Tambaram, Chennai 600045, Tambaram</t>
+  </si>
+  <si>
+    <t>Planning Permission Application for the proposed construction of Basement floor (TW Parking) + Stilt floor + 4 floors (Height - 17.68m) Commercial cum Residential Building with 1 dwelling (1st to 3rd floor - Office and 4th floor - Residential)</t>
+  </si>
+  <si>
+    <t>1 dwelling</t>
+  </si>
+  <si>
+    <t>Door No.2, Muthulingam Street, Tambaram, Chennai 600045, Comprised in S.No.325/1A1A1A2, 325/1A1A1B &amp; 324/2, and T.S.No.29, 30, 31, 32, 33 &amp; 34, Block No.18, Ward - C of Tambaram Village, Tambaram Taluk within the limit of Tambaram Municipal Corporation</t>
   </si>
   <si>
     <t>Tambaram</t>
-  </si>
-  <si>
-    <t>CMDA/PP/NHRB/C/0650/2024</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0018/2025</t>
-  </si>
-  <si>
-    <t>OL-01520</t>
-  </si>
-  <si>
-    <t>25-01-2025</t>
-  </si>
-  <si>
-    <t>17/09/2024</t>
-  </si>
-  <si>
-    <t>9841055299</t>
-  </si>
-  <si>
-    <t>prasanhousing@gmail.com</t>
-  </si>
-  <si>
-    <t>PRASAN HOUSING REP BY YOKANATHAN AND OTHERS</t>
-  </si>
-  <si>
-    <t>110/62, SHOP 9, TNHB COMPLEX 4TH AVENUE, , ASHOK NAGAR CHENNAI, Thiyagaraya Nagar</t>
-  </si>
-  <si>
-    <t>Proposed Construction of Stilt floor (Parking)+ 5 Floors Residential Building (Height -18.30m ) with 10 Dwelling units , Availing Premium FSI</t>
-  </si>
-  <si>
-    <t>10 Dwelling units</t>
-  </si>
-  <si>
-    <t>Plot/ Door No: 786 Dr.Ramasamy Salai, K.K.Nagar, Chennai .600078, Comprised in Old S.No: 233 part and T.S. No: 373 , Block No: 52 of Virugambakkam Village within the limits of Greater Chennai Corporation</t>
-  </si>
-  <si>
-    <t>Neelangarai</t>
-  </si>
-  <si>
-    <t>CMDA/PP/LAYOUT-1/0031/2025</t>
-  </si>
-  <si>
-    <t>OL-PPD/LO/0080/2025</t>
-  </si>
-  <si>
-    <t>OL-01750</t>
-  </si>
-  <si>
-    <t>28-04-2025</t>
-  </si>
-  <si>
-    <t>05/02/2025</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
-    <t>romanticnanda.1972@gmail.com</t>
-  </si>
-  <si>
-    <t>Mr NANDA KUMAR</t>
-  </si>
-  <si>
-    <t>1, 59, NEELAKANDA MUDHALI STREET, VANAGARAM, CHENNAI</t>
-  </si>
-  <si>
-    <t>Planning Permission Application for the proposed Laying out of House Sites in the property</t>
-  </si>
-  <si>
-    <t>S.No.36/6 of Voyalanallur-A Village, Ponamallee Taluk, Thiruvallur District, Poonamallee Panchayat Union Limit</t>
-  </si>
-  <si>
-    <t>Angadu</t>
-  </si>
-  <si>
-    <t>CMDA/PP/LAYOUT-1/0270/2024</t>
-  </si>
-  <si>
-    <t>OL-PPD/LO/0010/2025</t>
-  </si>
-  <si>
-    <t>OL-01507</t>
-  </si>
-  <si>
-    <t>23-01-2025</t>
-  </si>
-  <si>
-    <t>9380553687</t>
-  </si>
-  <si>
-    <t>SHANKARSAMY76@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>G D SATHYANARAYANAN</t>
-  </si>
-  <si>
-    <t>2, 114, ANE ENTERPRISES, VGN NAGAR, AYYAPPANTHANGAL</t>
-  </si>
-  <si>
-    <t>Old S.No.459/1part, T.S.No.55/1 and 55/5, Block No.84, Ward No. I of Paruthipattu Village, Avadi Taluk, Thiruvallur District within the limits of Avadi Corporation</t>
-  </si>
-  <si>
-    <t>Ambathur</t>
-  </si>
-  <si>
-    <t>CMDA/PP/NHRB/S/0617/2024</t>
-  </si>
-  <si>
-    <t>OL-PP/NHRB/0110/2025</t>
-  </si>
-  <si>
-    <t>OL-01673</t>
-  </si>
-  <si>
-    <t>27-03-2025</t>
-  </si>
-  <si>
-    <t>09/09/2024</t>
-  </si>
-  <si>
-    <t>9087872506</t>
-  </si>
-  <si>
-    <t>avittamhomes@gmail.com</t>
-  </si>
-  <si>
-    <t>AVITTAM HOMES Represented by its Proprietor Thiru.D.Sivashanmugam, Avittam Nammalwar,G</t>
-  </si>
-  <si>
-    <t>1 LIC Colony 1st Cross Street, Thiruneermalai Main Road, Pammal, Chennai - 600 075</t>
-  </si>
-  <si>
-    <t>Proposed construction of Residential Group Housing Development with 2 Blocks; Block 1 - Stilt floor + 5 floors (Height - 18.30m) Residential Building with 65 Dwelling; Block 2 - Stilt floor + 5 floors (Height - 18.30m) Residential Building with 50 Dwelling units; Totally 115 Dwelling units for Affordable Housing</t>
-  </si>
-  <si>
-    <t>65 Dwelling</t>
-  </si>
-  <si>
-    <t>Dharkast Road (Kishkindha Main Road), Kannadapalayam, West Tambaram, Chennai 600045, comprised in Old S.Nos.268/2, 268/3 &amp; 268/4, and T.S.Nos.106/1, 107/2, 107/3, 108/2 &amp; 108/3, Block No.21, Ward No.C of Tambaram Village, Tambaram Taluk within the Limits of Tambaram Municipal Corporation</t>
-  </si>
-  <si>
-    <t>9.P.Elanchezhiyan. B.Arch.,M.T.P</t>
-  </si>
-  <si>
-    <t>CMDA Regn. No. RA/Gr.I/19/06/276, No. 14/S2, Thirumurthy Nagar, Madananda puram,, Chennai- 600 125.</t>
-  </si>
-  <si>
-    <t>elan@rspindia.net</t>
   </si>
 </sst>
 </file>
@@ -411,10 +339,16 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -428,6 +362,26 @@
     <font>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -878,156 +832,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1374,13 +1331,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="21.6666666666667" customWidth="1"/>
@@ -1405,318 +1362,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:20">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:20">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" ht="13" customHeight="1" spans="1:20">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:20">
-      <c r="A4" t="s">
+    <row r="4" s="1" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:20">
-      <c r="A5" t="s">
+    <row r="5" s="1" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="M5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:20">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" s="2" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1748,180 +1705,21 @@
         <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:20">
-      <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" t="s">
-        <v>108</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:20">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M9" t="s">
-        <v>108</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" s="3" t="s">
+      <c r="T7" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1936,24 +1734,15 @@
     <hyperlink ref="R4" r:id="rId7" display="View PDF"/>
     <hyperlink ref="S4" r:id="rId8" display="View Approved Plan"/>
     <hyperlink ref="T4" r:id="rId9" display="View Approval Letter"/>
-    <hyperlink ref="R5" r:id="rId10" display="View PDF"/>
-    <hyperlink ref="S5" r:id="rId11" display="View Approved Plan"/>
-    <hyperlink ref="T5" r:id="rId12" display="View Approval Letter"/>
-    <hyperlink ref="R6" r:id="rId13" display="View PDF"/>
-    <hyperlink ref="S6" r:id="rId14" display="View Approved Plan"/>
-    <hyperlink ref="T6" r:id="rId15" display="View Approval Letter"/>
+    <hyperlink ref="R6" r:id="rId10" display="View PDF"/>
+    <hyperlink ref="S6" r:id="rId11" display="View Approved Plan"/>
+    <hyperlink ref="T6" r:id="rId12" display="View Approval Letter"/>
+    <hyperlink ref="R5" r:id="rId13" display="View PDF"/>
+    <hyperlink ref="S5" r:id="rId14" display="View Approved Plan"/>
+    <hyperlink ref="T5" r:id="rId15" display="View Approval Letter"/>
     <hyperlink ref="R7" r:id="rId16" display="View PDF"/>
     <hyperlink ref="S7" r:id="rId17" display="View Approved Plan"/>
     <hyperlink ref="T7" r:id="rId18" display="View Approval Letter"/>
-    <hyperlink ref="R8" r:id="rId19" display="View PDF"/>
-    <hyperlink ref="S8" r:id="rId20" display="View Approved Plan"/>
-    <hyperlink ref="T8" r:id="rId21" display="View Approval Letter"/>
-    <hyperlink ref="R9" r:id="rId22" display="View PDF"/>
-    <hyperlink ref="S9" r:id="rId23" display="View Approved Plan"/>
-    <hyperlink ref="T9" r:id="rId24" display="View Approval Letter"/>
-    <hyperlink ref="R10" r:id="rId1" display="View PDF"/>
-    <hyperlink ref="S10" r:id="rId2" display="View Approved Plan"/>
-    <hyperlink ref="T10" r:id="rId3" display="View Approval Letter"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
